--- a/data/Monthly Mastersheet.xlsx
+++ b/data/Monthly Mastersheet.xlsx
@@ -1910,7 +1910,7 @@
         <v>0.01792743</v>
       </c>
       <c r="Z13" s="26">
-        <v>0.00334719</v>
+        <v>0.002881825</v>
       </c>
       <c r="AA13" s="26">
         <v>0.01237843</v>
@@ -1997,7 +1997,7 @@
         <v>0.01724086</v>
       </c>
       <c r="Z14" s="26">
-        <v>0.00242823</v>
+        <v>0.002907675</v>
       </c>
       <c r="AA14" s="26">
         <v>0.00668874</v>
@@ -2084,7 +2084,7 @@
         <v>0.01795248</v>
       </c>
       <c r="Z15" s="26">
-        <v>0.00242823</v>
+        <v>0.002311613</v>
       </c>
       <c r="AA15" s="26">
         <v>0.00668874</v>
@@ -2171,7 +2171,7 @@
         <v>0.02099296</v>
       </c>
       <c r="Z16" s="26">
-        <v>0.00242823</v>
+        <v>0.002260083</v>
       </c>
       <c r="AA16" s="26">
         <v>0.00668874</v>
@@ -2258,7 +2258,7 @@
         <v>0.02216797</v>
       </c>
       <c r="Z17" s="26">
-        <v>0.00209914</v>
+        <v>0.002536348</v>
       </c>
       <c r="AA17" s="26">
         <v>0.00619385</v>
@@ -2347,7 +2347,7 @@
         <v>0.0201725</v>
       </c>
       <c r="Z18" s="26">
-        <v>0.00209914</v>
+        <v>0.002658828</v>
       </c>
       <c r="AA18" s="26">
         <v>0.00619385</v>
@@ -2436,7 +2436,7 @@
         <v>0.01907862</v>
       </c>
       <c r="Z19" s="26">
-        <v>0.00209914</v>
+        <v>0.002352693</v>
       </c>
       <c r="AA19" s="26">
         <v>0.00619385</v>
@@ -2525,7 +2525,7 @@
         <v>0.02030439</v>
       </c>
       <c r="Z20" s="26">
-        <v>0.0026283</v>
+        <v>0.00238231</v>
       </c>
       <c r="AA20" s="26">
         <v>0.00672521</v>
@@ -2614,7 +2614,7 @@
         <v>0.01977953</v>
       </c>
       <c r="Z21" s="26">
-        <v>0.0026283</v>
+        <v>0.002200334</v>
       </c>
       <c r="AA21" s="26">
         <v>0.00672521</v>
@@ -2703,7 +2703,7 @@
         <v>0.0201923</v>
       </c>
       <c r="Z22" s="26">
-        <v>0.0026283</v>
+        <v>0.002503678</v>
       </c>
       <c r="AA22" s="26">
         <v>0.00672521</v>
@@ -2792,7 +2792,7 @@
         <v>0.02009312</v>
       </c>
       <c r="Z23" s="26">
-        <v>0.00356064</v>
+        <v>0.002609351</v>
       </c>
       <c r="AA23" s="26">
         <v>0.00682237</v>
@@ -2881,7 +2881,7 @@
         <v>0.02014402</v>
       </c>
       <c r="Z24" s="26">
-        <v>0.00356064</v>
+        <v>0.002615849</v>
       </c>
       <c r="AA24" s="26">
         <v>0.00682237</v>
@@ -2970,7 +2970,7 @@
         <v>0.02055907</v>
       </c>
       <c r="Z25" s="26">
-        <v>0.00356064</v>
+        <v>0.002441466</v>
       </c>
       <c r="AA25" s="26">
         <v>0.00682237</v>
@@ -3059,7 +3059,7 @@
         <v>0.02045245</v>
       </c>
       <c r="Z26" s="26">
-        <v>0.00363607</v>
+        <v>0.002389412</v>
       </c>
       <c r="AA26" s="26">
         <v>0.00873317</v>
@@ -3148,7 +3148,7 @@
         <v>0.0193736</v>
       </c>
       <c r="Z27" s="26">
-        <v>0.00363607</v>
+        <v>0.002558693</v>
       </c>
       <c r="AA27" s="26">
         <v>0.00873317</v>
@@ -3237,7 +3237,7 @@
         <v>0.01843703</v>
       </c>
       <c r="Z28" s="26">
-        <v>0.00363607</v>
+        <v>0.002664749</v>
       </c>
       <c r="AA28" s="26">
         <v>0.00873317</v>
@@ -3326,7 +3326,7 @@
         <v>0.0184505</v>
       </c>
       <c r="Z29" s="26">
-        <v>0.00606199</v>
+        <v>0.002760751</v>
       </c>
       <c r="AA29" s="26">
         <v>0.01374177</v>
@@ -3415,7 +3415,7 @@
         <v>0.01834828</v>
       </c>
       <c r="Z30" s="26">
-        <v>0.00606199</v>
+        <v>0.002344237</v>
       </c>
       <c r="AA30" s="26">
         <v>0.01374177</v>
@@ -3504,7 +3504,7 @@
         <v>0.02653112</v>
       </c>
       <c r="Z31" s="26">
-        <v>0.00606199</v>
+        <v>0.01527575</v>
       </c>
       <c r="AA31" s="26">
         <v>0.01374177</v>
@@ -3593,7 +3593,7 @@
         <v>0.04198924</v>
       </c>
       <c r="Z32" s="26">
-        <v>0.02465956</v>
+        <v>0.030582684</v>
       </c>
       <c r="AA32" s="26">
         <v>0.06282448</v>
@@ -3682,7 +3682,7 @@
         <v>0.34502209</v>
       </c>
       <c r="Z33" s="26">
-        <v>0.02465956</v>
+        <v>0.033921762</v>
       </c>
       <c r="AA33" s="26">
         <v>0.06282448</v>
@@ -3771,7 +3771,7 @@
         <v>0.34482623</v>
       </c>
       <c r="Z34" s="26">
-        <v>0.02465956</v>
+        <v>0.037371788</v>
       </c>
       <c r="AA34" s="26">
         <v>0.06282448</v>
@@ -3860,7 +3860,7 @@
         <v>0.34475186</v>
       </c>
       <c r="Z35" s="26">
-        <v>0.03402407</v>
+        <v>0.037987322</v>
       </c>
       <c r="AA35" s="26">
         <v>0.08546735</v>
@@ -3949,7 +3949,7 @@
         <v>0.34421615</v>
       </c>
       <c r="Z36" s="26">
-        <v>0.03402407</v>
+        <v>0.038079378</v>
       </c>
       <c r="AA36" s="26">
         <v>0.08546735</v>
@@ -4038,7 +4038,7 @@
         <v>0.34425563</v>
       </c>
       <c r="Z37" s="26">
-        <v>0.03402407</v>
+        <v>0.038221205</v>
       </c>
       <c r="AA37" s="26">
         <v>0.08546735</v>
@@ -4127,7 +4127,7 @@
         <v>0.34393652</v>
       </c>
       <c r="Z38" s="26">
-        <v>0.03414292</v>
+        <v>0.038265627</v>
       </c>
       <c r="AA38" s="26">
         <v>0.08884704</v>
@@ -4216,7 +4216,7 @@
         <v>0.34351906</v>
       </c>
       <c r="Z39" s="26">
-        <v>0.03414292</v>
+        <v>0.038315242</v>
       </c>
       <c r="AA39" s="26">
         <v>0.08884704</v>
@@ -4305,7 +4305,7 @@
         <v>0.3439417</v>
       </c>
       <c r="Z40" s="26">
-        <v>0.03414292</v>
+        <v>0.038390258</v>
       </c>
       <c r="AA40" s="26">
         <v>0.08884704</v>
@@ -4394,7 +4394,7 @@
         <v>0.34286314</v>
       </c>
       <c r="Z41" s="26">
-        <v>0.03408908</v>
+        <v>0.03867463</v>
       </c>
       <c r="AA41" s="26">
         <v>0.08892419</v>
@@ -4483,7 +4483,7 @@
         <v>0.34255764</v>
       </c>
       <c r="Z42" s="26">
-        <v>0.03408908</v>
+        <v>0.038905508</v>
       </c>
       <c r="AA42" s="26">
         <v>0.08892419</v>
@@ -4572,7 +4572,7 @@
         <v>0.34354265</v>
       </c>
       <c r="Z43" s="26">
-        <v>0.03408908</v>
+        <v>0.036090694</v>
       </c>
       <c r="AA43" s="26">
         <v>0.08892419</v>
@@ -4661,7 +4661,7 @@
         <v>0.34476236</v>
       </c>
       <c r="Z44" s="26">
-        <v>0.02142037</v>
+        <v>0.018279366</v>
       </c>
       <c r="AA44" s="26">
         <v>0.05335121</v>
@@ -4750,7 +4750,7 @@
         <v>0.00738706</v>
       </c>
       <c r="Z45" s="26">
-        <v>0.02142037</v>
+        <v>0.016241031</v>
       </c>
       <c r="AA45" s="26">
         <v>0.05335121</v>
@@ -4839,7 +4839,7 @@
         <v>0.0069325</v>
       </c>
       <c r="Z46" s="26">
-        <v>0.02142037</v>
+        <v>0.010846805</v>
       </c>
       <c r="AA46" s="26">
         <v>0.05335121</v>
@@ -4928,7 +4928,7 @@
         <v>0.00701931</v>
       </c>
       <c r="Z47" s="26">
-        <v>0.00601616</v>
+        <v>0.009705806</v>
       </c>
       <c r="AA47" s="26">
         <v>0.02756993</v>
@@ -5017,7 +5017,7 @@
         <v>0.00676105</v>
       </c>
       <c r="Z48" s="26">
-        <v>0.00601616</v>
+        <v>0.009742843</v>
       </c>
       <c r="AA48" s="26">
         <v>0.02756993</v>
@@ -5106,7 +5106,7 @@
         <v>0.00669713</v>
       </c>
       <c r="Z49" s="26">
-        <v>0.00601616</v>
+        <v>0.009538708</v>
       </c>
       <c r="AA49" s="26">
         <v>0.02756993</v>
@@ -5195,7 +5195,7 @@
         <v>0.00673594</v>
       </c>
       <c r="Z50" s="26">
-        <v>0.00682379</v>
+        <v>0.009846431</v>
       </c>
       <c r="AA50" s="26">
         <v>0.0249992</v>
@@ -5284,7 +5284,7 @@
         <v>0.00642706</v>
       </c>
       <c r="Z51" s="26">
-        <v>0.00682379</v>
+        <v>0.008871804</v>
       </c>
       <c r="AA51" s="26">
         <v>0.0249992</v>
@@ -5373,7 +5373,7 @@
         <v>0.00634605</v>
       </c>
       <c r="Z52" s="26">
-        <v>0.00682379</v>
+        <v>0.008896932</v>
       </c>
       <c r="AA52" s="26">
         <v>0.0249992</v>
@@ -5462,7 +5462,7 @@
         <v>0.00720435</v>
       </c>
       <c r="Z53" s="26">
-        <v>0.00647584</v>
+        <v>0.009043237</v>
       </c>
       <c r="AA53" s="26">
         <v>0.02698983</v>
@@ -5551,7 +5551,7 @@
         <v>0.00797896</v>
       </c>
       <c r="Z54" s="26">
-        <v>0.00647584</v>
+        <v>0.007419152</v>
       </c>
       <c r="AA54" s="26">
         <v>0.02698983</v>
@@ -5640,7 +5640,7 @@
         <v>0.00681763</v>
       </c>
       <c r="Z55" s="26">
-        <v>0.00647584</v>
+        <v>0.005326929</v>
       </c>
       <c r="AA55" s="26">
         <v>0.02698983</v>
@@ -5729,7 +5729,7 @@
         <v>0.00541537</v>
       </c>
       <c r="Z56" s="26">
-        <v>0.00527329</v>
+        <v>0.005387444</v>
       </c>
       <c r="AA56" s="26">
         <v>0.02618672</v>
@@ -5818,7 +5818,7 @@
         <v>0.00858353</v>
       </c>
       <c r="Z57" s="26">
-        <v>0.00527329</v>
+        <v>0.005416423</v>
       </c>
       <c r="AA57" s="26">
         <v>0.02618672</v>
@@ -5907,7 +5907,7 @@
         <v>0.0087721</v>
       </c>
       <c r="Z58" s="26">
-        <v>0.00527329</v>
+        <v>0.005569252</v>
       </c>
       <c r="AA58" s="26">
         <v>0.02618672</v>
@@ -5996,7 +5996,7 @@
         <v>0.00898864</v>
       </c>
       <c r="Z59" s="26">
-        <v>0.00507377</v>
+        <v>0.005475777</v>
       </c>
       <c r="AA59" s="26">
         <v>0.02821883</v>
@@ -6085,7 +6085,7 @@
         <v>0.0090573</v>
       </c>
       <c r="Z60" s="26">
-        <v>0.00507377</v>
+        <v>0.006080188</v>
       </c>
       <c r="AA60" s="26">
         <v>0.02821883</v>
@@ -6174,7 +6174,7 @@
         <v>0.00926382</v>
       </c>
       <c r="Z61" s="26">
-        <v>0.00507377</v>
+        <v>0.006364543</v>
       </c>
       <c r="AA61" s="26">
         <v>0.02821883</v>
@@ -6263,7 +6263,7 @@
         <v>0.00961898</v>
       </c>
       <c r="Z62" s="26">
-        <v>0.00251595</v>
+        <v>0.005706014</v>
       </c>
       <c r="AA62" s="26">
         <v>0.02464009</v>
@@ -6352,7 +6352,7 @@
         <v>0.00904394</v>
       </c>
       <c r="Z63" s="26">
-        <v>0.00251595</v>
+        <v>0.005697494</v>
       </c>
       <c r="AA63" s="26">
         <v>0.02464009</v>
@@ -6441,7 +6441,7 @@
         <v>0.00705675</v>
       </c>
       <c r="Z64" s="26">
-        <v>0.00251595</v>
+        <v>0.005313886</v>
       </c>
       <c r="AA64" s="26">
         <v>0.02464009</v>
@@ -6530,7 +6530,7 @@
         <v>0.00777417</v>
       </c>
       <c r="Z65" s="26">
-        <v>0.00244619</v>
+        <v>0.004670057</v>
       </c>
       <c r="AA65" s="26">
         <v>0.01647761</v>
@@ -6619,7 +6619,7 @@
         <v>0.00835981</v>
       </c>
       <c r="Z66" s="26">
-        <v>0.00244619</v>
+        <v>0.004756537</v>
       </c>
       <c r="AA66" s="26">
         <v>0.01647761</v>
@@ -6708,7 +6708,7 @@
         <v>0.00625483</v>
       </c>
       <c r="Z67" s="26">
-        <v>0.00244619</v>
+        <v>0.004679792</v>
       </c>
       <c r="AA67" s="26">
         <v>0.01647761</v>
@@ -6797,7 +6797,7 @@
         <v>0.00558523</v>
       </c>
       <c r="Z68" s="26">
-        <v>0.00247921</v>
+        <v>0.004609429</v>
       </c>
       <c r="AA68" s="26">
         <v>0.01029606</v>
@@ -6886,7 +6886,7 @@
         <v>0.00583761</v>
       </c>
       <c r="Z69" s="26">
-        <v>0.00247921</v>
+        <v>0.004642215</v>
       </c>
       <c r="AA69" s="26">
         <v>0.01029606</v>
@@ -6975,7 +6975,7 @@
         <v>0.00559574</v>
       </c>
       <c r="Z70" s="26">
-        <v>0.00247921</v>
+        <v>0.004413638</v>
       </c>
       <c r="AA70" s="26">
         <v>0.01029606</v>
@@ -7064,7 +7064,7 @@
         <v>0.00532769</v>
       </c>
       <c r="Z71" s="26">
-        <v>0.00302709</v>
+        <v>0.004431792</v>
       </c>
       <c r="AA71" s="26">
         <v>0.00939885</v>
@@ -7153,7 +7153,7 @@
         <v>0.00514778</v>
       </c>
       <c r="Z72" s="26">
-        <v>0.00302709</v>
+        <v>0.003766553</v>
       </c>
       <c r="AA72" s="26">
         <v>0.00939885</v>
@@ -7242,7 +7242,7 @@
         <v>0.00530887</v>
       </c>
       <c r="Z73" s="26">
-        <v>0.00302709</v>
+        <v>0.003157921</v>
       </c>
       <c r="AA73" s="26">
         <v>0.00939885</v>
@@ -7331,7 +7331,7 @@
         <v>0.0053814</v>
       </c>
       <c r="Z74" s="26">
-        <v>0.00293808</v>
+        <v>0.003152868</v>
       </c>
       <c r="AA74" s="26">
         <v>0.0077348</v>
@@ -7420,7 +7420,7 @@
         <v>0.00575654</v>
       </c>
       <c r="Z75" s="26">
-        <v>0.00293808</v>
+        <v>0.0033333</v>
       </c>
       <c r="AA75" s="26">
         <v>0.0077348</v>
@@ -7509,7 +7509,7 @@
         <v>0.00701265</v>
       </c>
       <c r="Z76" s="26">
-        <v>0.00293808</v>
+        <v>0.003930282</v>
       </c>
       <c r="AA76" s="26">
         <v>0.0077348</v>
@@ -7598,7 +7598,7 @@
         <v>0.00672323</v>
       </c>
       <c r="Z77" s="26">
-        <v>0.00277094</v>
+        <v>0.005123196</v>
       </c>
       <c r="AA77" s="26">
         <v>0.00970477</v>
@@ -7687,7 +7687,7 @@
         <v>0.00621908</v>
       </c>
       <c r="Z78" s="26">
-        <v>0.00277094</v>
+        <v>0.004979118</v>
       </c>
       <c r="AA78" s="26">
         <v>0.00970477</v>
@@ -7776,7 +7776,7 @@
         <v>0.0075283</v>
       </c>
       <c r="Z79" s="26">
-        <v>0.00277094</v>
+        <v>0.00496894</v>
       </c>
       <c r="AA79" s="26">
         <v>0.00970477</v>
@@ -7865,7 +7865,7 @@
         <v>0.00685396</v>
       </c>
       <c r="Z80" s="26">
-        <v>0.00285459</v>
+        <v>0.004903979</v>
       </c>
       <c r="AA80" s="26">
         <v>0.00893429</v>
@@ -7954,7 +7954,7 @@
         <v>0.00566661</v>
       </c>
       <c r="Z81" s="26">
-        <v>0.00285459</v>
+        <v>0.004843456</v>
       </c>
       <c r="AA81" s="26">
         <v>0.00893429</v>
@@ -8043,7 +8043,7 @@
         <v>0.0061119</v>
       </c>
       <c r="Z82" s="26">
-        <v>0.00285459</v>
+        <v>0.004865316</v>
       </c>
       <c r="AA82" s="26">
         <v>0.00893429</v>
@@ -8132,7 +8132,7 @@
         <v>0.00600392</v>
       </c>
       <c r="Z83" s="26">
-        <v>0.00234587</v>
+        <v>0.004955363</v>
       </c>
       <c r="AA83" s="26">
         <v>0.01046523</v>
@@ -8221,7 +8221,7 @@
         <v>0.00596511</v>
       </c>
       <c r="Z84" s="26">
-        <v>0.00234587</v>
+        <v>0.004871904</v>
       </c>
       <c r="AA84" s="26">
         <v>0.01046523</v>
@@ -8310,7 +8310,7 @@
         <v>0.00595265</v>
       </c>
       <c r="Z85" s="26">
-        <v>0.00234587</v>
+        <v>0.004924779</v>
       </c>
       <c r="AA85" s="26">
         <v>0.01046523</v>
@@ -8399,7 +8399,7 @@
         <v>0.00562861</v>
       </c>
       <c r="Z86" s="26">
-        <v>0.00223536</v>
+        <v>0.004886225</v>
       </c>
       <c r="AA86" s="26">
         <v>0.01095419</v>
@@ -8488,7 +8488,7 @@
         <v>0.00611281</v>
       </c>
       <c r="Z87" s="26">
-        <v>0.00223536</v>
+        <v>0.004771036</v>
       </c>
       <c r="AA87" s="26">
         <v>0.01095419</v>
@@ -8577,7 +8577,7 @@
         <v>0.00642993</v>
       </c>
       <c r="Z88" s="26">
-        <v>0.00223536</v>
+        <v>0.004306355</v>
       </c>
       <c r="AA88" s="26">
         <v>0.01095419</v>
@@ -8666,7 +8666,7 @@
         <v>0.00617207</v>
       </c>
       <c r="Z89" s="26">
-        <v>0.0024171</v>
+        <v>0.002881445</v>
       </c>
       <c r="AA89" s="26">
         <v>0.02774416</v>
@@ -8755,7 +8755,7 @@
         <v>0.00594274</v>
       </c>
       <c r="Z90" s="26">
-        <v>0.00250927</v>
+        <v>0.002734998</v>
       </c>
       <c r="AA90" s="26">
         <v>0.02885347</v>

--- a/data/Monthly Mastersheet.xlsx
+++ b/data/Monthly Mastersheet.xlsx
@@ -140,7 +140,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -180,6 +180,11 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
       <b/>
@@ -289,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -362,87 +367,90 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="17" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="17" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1986,8 +1994,8 @@
       <c r="AB13" s="17">
         <v>0.01237843</v>
       </c>
-      <c r="AC13" s="17">
-        <v>0.01237843</v>
+      <c r="AC13" s="26">
+        <v>0.01027529</v>
       </c>
       <c r="AD13" s="17">
         <v>0.02838996</v>
@@ -2076,8 +2084,8 @@
       <c r="AB14" s="17">
         <v>0.00668874</v>
       </c>
-      <c r="AC14" s="17">
-        <v>0.00668874</v>
+      <c r="AC14" s="26">
+        <v>0.00745289</v>
       </c>
       <c r="AD14" s="17">
         <v>0.02335862</v>
@@ -2166,8 +2174,8 @@
       <c r="AB15" s="17">
         <v>0.00668874</v>
       </c>
-      <c r="AC15" s="17">
-        <v>0.00668874</v>
+      <c r="AC15" s="26">
+        <v>0.00745289</v>
       </c>
       <c r="AD15" s="17">
         <v>0.02269989</v>
@@ -2198,7 +2206,7 @@
       <c r="H16" s="13">
         <v>-1.46877772889543</v>
       </c>
-      <c r="I16" s="26"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="17">
         <v>21.23</v>
       </c>
@@ -2256,8 +2264,8 @@
       <c r="AB16" s="17">
         <v>0.00668874</v>
       </c>
-      <c r="AC16" s="17">
-        <v>0.00668874</v>
+      <c r="AC16" s="26">
+        <v>0.00745289</v>
       </c>
       <c r="AD16" s="17">
         <v>0.02127115</v>
@@ -2346,8 +2354,8 @@
       <c r="AB17" s="17">
         <v>0.00619385</v>
       </c>
-      <c r="AC17" s="17">
-        <v>0.00619385</v>
+      <c r="AC17" s="26">
+        <v>0.00615742</v>
       </c>
       <c r="AD17" s="17">
         <v>0.0308231</v>
@@ -2438,8 +2446,8 @@
       <c r="AB18" s="17">
         <v>0.00619385</v>
       </c>
-      <c r="AC18" s="17">
-        <v>0.00619385</v>
+      <c r="AC18" s="26">
+        <v>0.00615742</v>
       </c>
       <c r="AD18" s="17">
         <v>0.02930622</v>
@@ -2530,8 +2538,8 @@
       <c r="AB19" s="17">
         <v>0.00619385</v>
       </c>
-      <c r="AC19" s="17">
-        <v>0.00619385</v>
+      <c r="AC19" s="26">
+        <v>0.00615742</v>
       </c>
       <c r="AD19" s="17">
         <v>0.03259751</v>
@@ -2622,8 +2630,8 @@
       <c r="AB20" s="17">
         <v>0.00672521</v>
       </c>
-      <c r="AC20" s="17">
-        <v>0.00672521</v>
+      <c r="AC20" s="26">
+        <v>0.00325521</v>
       </c>
       <c r="AD20" s="17">
         <v>0.03193367</v>
@@ -2714,8 +2722,8 @@
       <c r="AB21" s="17">
         <v>0.00672521</v>
       </c>
-      <c r="AC21" s="17">
-        <v>0.00672521</v>
+      <c r="AC21" s="26">
+        <v>0.00325521</v>
       </c>
       <c r="AD21" s="17">
         <v>0.03295449</v>
@@ -2806,8 +2814,8 @@
       <c r="AB22" s="17">
         <v>0.00672521</v>
       </c>
-      <c r="AC22" s="17">
-        <v>0.00672521</v>
+      <c r="AC22" s="26">
+        <v>0.00325521</v>
       </c>
       <c r="AD22" s="17">
         <v>0.03344707</v>
@@ -2898,8 +2906,8 @@
       <c r="AB23" s="17">
         <v>0.00682237</v>
       </c>
-      <c r="AC23" s="17">
-        <v>0.00682237</v>
+      <c r="AC23" s="26">
+        <v>0.00201774</v>
       </c>
       <c r="AD23" s="17">
         <v>0.03343703</v>
@@ -2990,8 +2998,8 @@
       <c r="AB24" s="17">
         <v>0.00682237</v>
       </c>
-      <c r="AC24" s="17">
-        <v>0.00682237</v>
+      <c r="AC24" s="26">
+        <v>0.00201774</v>
       </c>
       <c r="AD24" s="17">
         <v>0.04260058</v>
@@ -3082,8 +3090,8 @@
       <c r="AB25" s="17">
         <v>0.00682237</v>
       </c>
-      <c r="AC25" s="17">
-        <v>0.00682237</v>
+      <c r="AC25" s="26">
+        <v>0.00201774</v>
       </c>
       <c r="AD25" s="17">
         <v>0.04235623</v>
@@ -3174,8 +3182,8 @@
       <c r="AB26" s="17">
         <v>0.00873317</v>
       </c>
-      <c r="AC26" s="17">
-        <v>0.00873317</v>
+      <c r="AC26" s="26">
+        <v>0.00209599</v>
       </c>
       <c r="AD26" s="17">
         <v>0.04310764</v>
@@ -3266,8 +3274,8 @@
       <c r="AB27" s="17">
         <v>0.00873317</v>
       </c>
-      <c r="AC27" s="17">
-        <v>0.00873317</v>
+      <c r="AC27" s="26">
+        <v>0.00209599</v>
       </c>
       <c r="AD27" s="17">
         <v>0.04325255</v>
@@ -3358,8 +3366,8 @@
       <c r="AB28" s="17">
         <v>0.00873317</v>
       </c>
-      <c r="AC28" s="17">
-        <v>0.00873317</v>
+      <c r="AC28" s="26">
+        <v>0.00209599</v>
       </c>
       <c r="AD28" s="17">
         <v>0.043857</v>
@@ -3450,8 +3458,8 @@
       <c r="AB29" s="17">
         <v>0.01374177</v>
       </c>
-      <c r="AC29" s="17">
-        <v>0.01374177</v>
+      <c r="AC29" s="26">
+        <v>0.01426047</v>
       </c>
       <c r="AD29" s="17">
         <v>0.03679735</v>
@@ -3542,8 +3550,8 @@
       <c r="AB30" s="17">
         <v>0.01374177</v>
       </c>
-      <c r="AC30" s="17">
-        <v>0.01374177</v>
+      <c r="AC30" s="26">
+        <v>0.01426047</v>
       </c>
       <c r="AD30" s="17">
         <v>0.03626681</v>
@@ -3634,8 +3642,8 @@
       <c r="AB31" s="17">
         <v>0.01374177</v>
       </c>
-      <c r="AC31" s="17">
-        <v>0.01374177</v>
+      <c r="AC31" s="26">
+        <v>0.01426047</v>
       </c>
       <c r="AD31" s="17">
         <v>0.05002345</v>
@@ -3726,8 +3734,8 @@
       <c r="AB32" s="17">
         <v>0.06282448</v>
       </c>
-      <c r="AC32" s="17">
-        <v>0.06282448</v>
+      <c r="AC32" s="26">
+        <v>0.08250942</v>
       </c>
       <c r="AD32" s="17">
         <v>0.07813368</v>
@@ -3818,8 +3826,8 @@
       <c r="AB33" s="17">
         <v>0.06282448</v>
       </c>
-      <c r="AC33" s="17">
-        <v>0.06282448</v>
+      <c r="AC33" s="26">
+        <v>0.08250942</v>
       </c>
       <c r="AD33" s="17">
         <v>0.07703219</v>
@@ -3910,8 +3918,8 @@
       <c r="AB34" s="17">
         <v>0.06282448</v>
       </c>
-      <c r="AC34" s="17">
-        <v>0.06282448</v>
+      <c r="AC34" s="26">
+        <v>0.08250942</v>
       </c>
       <c r="AD34" s="17">
         <v>0.08273407</v>
@@ -4002,8 +4010,8 @@
       <c r="AB35" s="17">
         <v>0.08546735</v>
       </c>
-      <c r="AC35" s="17">
-        <v>0.08546735</v>
+      <c r="AC35" s="26">
+        <v>0.09708572</v>
       </c>
       <c r="AD35" s="17">
         <v>0.08389465</v>
@@ -4094,8 +4102,8 @@
       <c r="AB36" s="17">
         <v>0.08546735</v>
       </c>
-      <c r="AC36" s="17">
-        <v>0.08546735</v>
+      <c r="AC36" s="26">
+        <v>0.09708572</v>
       </c>
       <c r="AD36" s="17">
         <v>0.08214817</v>
@@ -4186,8 +4194,8 @@
       <c r="AB37" s="17">
         <v>0.08546735</v>
       </c>
-      <c r="AC37" s="17">
-        <v>0.08546735</v>
+      <c r="AC37" s="26">
+        <v>0.09708572</v>
       </c>
       <c r="AD37" s="17">
         <v>0.08568837</v>
@@ -4278,8 +4286,8 @@
       <c r="AB38" s="17">
         <v>0.08884704</v>
       </c>
-      <c r="AC38" s="17">
-        <v>0.08884704</v>
+      <c r="AC38" s="26">
+        <v>0.10049733</v>
       </c>
       <c r="AD38" s="17">
         <v>0.08543565</v>
@@ -4370,8 +4378,8 @@
       <c r="AB39" s="17">
         <v>0.08884704</v>
       </c>
-      <c r="AC39" s="17">
-        <v>0.08884704</v>
+      <c r="AC39" s="26">
+        <v>0.10049733</v>
       </c>
       <c r="AD39" s="17">
         <v>0.08608087</v>
@@ -4462,8 +4470,8 @@
       <c r="AB40" s="17">
         <v>0.08884704</v>
       </c>
-      <c r="AC40" s="17">
-        <v>0.08884704</v>
+      <c r="AC40" s="26">
+        <v>0.10049733</v>
       </c>
       <c r="AD40" s="17">
         <v>0.08739369</v>
@@ -4554,8 +4562,8 @@
       <c r="AB41" s="17">
         <v>0.08892419</v>
       </c>
-      <c r="AC41" s="17">
-        <v>0.08892419</v>
+      <c r="AC41" s="26">
+        <v>0.10093133</v>
       </c>
       <c r="AD41" s="17">
         <v>0.08711278</v>
@@ -4646,8 +4654,8 @@
       <c r="AB42" s="17">
         <v>0.08892419</v>
       </c>
-      <c r="AC42" s="17">
-        <v>0.08892419</v>
+      <c r="AC42" s="26">
+        <v>0.10093133</v>
       </c>
       <c r="AD42" s="17">
         <v>0.08656549</v>
@@ -4738,8 +4746,8 @@
       <c r="AB43" s="17">
         <v>0.08892419</v>
       </c>
-      <c r="AC43" s="17">
-        <v>0.08892419</v>
+      <c r="AC43" s="26">
+        <v>0.10093133</v>
       </c>
       <c r="AD43" s="17">
         <v>0.08677357</v>
@@ -4830,8 +4838,8 @@
       <c r="AB44" s="17">
         <v>0.05335121</v>
       </c>
-      <c r="AC44" s="17">
-        <v>0.05335121</v>
+      <c r="AC44" s="26">
+        <v>0.04664363</v>
       </c>
       <c r="AD44" s="17">
         <v>0.0559176</v>
@@ -4922,8 +4930,8 @@
       <c r="AB45" s="17">
         <v>0.05335121</v>
       </c>
-      <c r="AC45" s="17">
-        <v>0.05335121</v>
+      <c r="AC45" s="26">
+        <v>0.04664363</v>
       </c>
       <c r="AD45" s="17">
         <v>0.06055399</v>
@@ -5014,8 +5022,8 @@
       <c r="AB46" s="17">
         <v>0.05335121</v>
       </c>
-      <c r="AC46" s="17">
-        <v>0.05335121</v>
+      <c r="AC46" s="26">
+        <v>0.04664363</v>
       </c>
       <c r="AD46" s="17">
         <v>0.05737482</v>
@@ -5106,8 +5114,8 @@
       <c r="AB47" s="17">
         <v>0.02756993</v>
       </c>
-      <c r="AC47" s="17">
-        <v>0.02756993</v>
+      <c r="AC47" s="26">
+        <v>0.02672704</v>
       </c>
       <c r="AD47" s="17">
         <v>0.05473075</v>
@@ -5198,8 +5206,8 @@
       <c r="AB48" s="17">
         <v>0.02756993</v>
       </c>
-      <c r="AC48" s="17">
-        <v>0.02756993</v>
+      <c r="AC48" s="26">
+        <v>0.02672704</v>
       </c>
       <c r="AD48" s="17">
         <v>0.07012338</v>
@@ -5290,8 +5298,8 @@
       <c r="AB49" s="17">
         <v>0.02756993</v>
       </c>
-      <c r="AC49" s="17">
-        <v>0.02756993</v>
+      <c r="AC49" s="26">
+        <v>0.02672704</v>
       </c>
       <c r="AD49" s="17">
         <v>0.06610061</v>
@@ -5382,8 +5390,8 @@
       <c r="AB50" s="17">
         <v>0.0249992</v>
       </c>
-      <c r="AC50" s="17">
-        <v>0.0249992</v>
+      <c r="AC50" s="26">
+        <v>0.02639009</v>
       </c>
       <c r="AD50" s="17">
         <v>0.06562314</v>
@@ -5474,8 +5482,8 @@
       <c r="AB51" s="17">
         <v>0.0249992</v>
       </c>
-      <c r="AC51" s="17">
-        <v>0.0249992</v>
+      <c r="AC51" s="26">
+        <v>0.02639009</v>
       </c>
       <c r="AD51" s="17">
         <v>0.06562837</v>
@@ -5566,8 +5574,8 @@
       <c r="AB52" s="17">
         <v>0.0249992</v>
       </c>
-      <c r="AC52" s="17">
-        <v>0.0249992</v>
+      <c r="AC52" s="26">
+        <v>0.02639009</v>
       </c>
       <c r="AD52" s="17">
         <v>0.06547881</v>
@@ -5658,8 +5666,8 @@
       <c r="AB53" s="17">
         <v>0.02698983</v>
       </c>
-      <c r="AC53" s="17">
-        <v>0.02698983</v>
+      <c r="AC53" s="26">
+        <v>0.02485005</v>
       </c>
       <c r="AD53" s="17">
         <v>0.06636944</v>
@@ -5750,8 +5758,8 @@
       <c r="AB54" s="17">
         <v>0.02698983</v>
       </c>
-      <c r="AC54" s="17">
-        <v>0.02698983</v>
+      <c r="AC54" s="26">
+        <v>0.02485005</v>
       </c>
       <c r="AD54" s="17">
         <v>0.06812276</v>
@@ -5842,8 +5850,8 @@
       <c r="AB55" s="17">
         <v>0.02698983</v>
       </c>
-      <c r="AC55" s="17">
-        <v>0.02698983</v>
+      <c r="AC55" s="26">
+        <v>0.02485005</v>
       </c>
       <c r="AD55" s="17">
         <v>0.0578679</v>
@@ -5934,8 +5942,8 @@
       <c r="AB56" s="17">
         <v>0.02618672</v>
       </c>
-      <c r="AC56" s="17">
-        <v>0.02618672</v>
+      <c r="AC56" s="26">
+        <v>0.02877865</v>
       </c>
       <c r="AD56" s="17">
         <v>0.06532444</v>
@@ -6026,8 +6034,8 @@
       <c r="AB57" s="17">
         <v>0.02618672</v>
       </c>
-      <c r="AC57" s="17">
-        <v>0.02618672</v>
+      <c r="AC57" s="26">
+        <v>0.02877865</v>
       </c>
       <c r="AD57" s="17">
         <v>0.06910298</v>
@@ -6118,8 +6126,8 @@
       <c r="AB58" s="17">
         <v>0.02618672</v>
       </c>
-      <c r="AC58" s="17">
-        <v>0.02618672</v>
+      <c r="AC58" s="26">
+        <v>0.02877865</v>
       </c>
       <c r="AD58" s="17">
         <v>0.07503405</v>
@@ -6210,8 +6218,8 @@
       <c r="AB59" s="17">
         <v>0.02821883</v>
       </c>
-      <c r="AC59" s="17">
-        <v>0.02821883</v>
+      <c r="AC59" s="26">
+        <v>0.02870447</v>
       </c>
       <c r="AD59" s="17">
         <v>0.07795703</v>
@@ -6302,8 +6310,8 @@
       <c r="AB60" s="17">
         <v>0.02821883</v>
       </c>
-      <c r="AC60" s="17">
-        <v>0.02821883</v>
+      <c r="AC60" s="26">
+        <v>0.02870447</v>
       </c>
       <c r="AD60" s="17">
         <v>0.08275666</v>
@@ -6394,8 +6402,8 @@
       <c r="AB61" s="17">
         <v>0.02821883</v>
       </c>
-      <c r="AC61" s="17">
-        <v>0.02821883</v>
+      <c r="AC61" s="26">
+        <v>0.02870447</v>
       </c>
       <c r="AD61" s="17">
         <v>0.08158147</v>
@@ -6486,8 +6494,8 @@
       <c r="AB62" s="17">
         <v>0.02464009</v>
       </c>
-      <c r="AC62" s="17">
-        <v>0.02464009</v>
+      <c r="AC62" s="26">
+        <v>0.02374675</v>
       </c>
       <c r="AD62" s="17">
         <v>0.08240119</v>
@@ -6578,8 +6586,8 @@
       <c r="AB63" s="17">
         <v>0.02464009</v>
       </c>
-      <c r="AC63" s="17">
-        <v>0.02464009</v>
+      <c r="AC63" s="26">
+        <v>0.02374675</v>
       </c>
       <c r="AD63" s="17">
         <v>0.08206591</v>
@@ -6670,8 +6678,8 @@
       <c r="AB64" s="17">
         <v>0.02464009</v>
       </c>
-      <c r="AC64" s="17">
-        <v>0.02464009</v>
+      <c r="AC64" s="26">
+        <v>0.02374675</v>
       </c>
       <c r="AD64" s="17">
         <v>0.08254933</v>
@@ -6762,8 +6770,8 @@
       <c r="AB65" s="17">
         <v>0.01647761</v>
       </c>
-      <c r="AC65" s="17">
-        <v>0.01647761</v>
+      <c r="AC65" s="26">
+        <v>0.02275462</v>
       </c>
       <c r="AD65" s="17">
         <v>0.08603184</v>
@@ -6854,8 +6862,8 @@
       <c r="AB66" s="17">
         <v>0.01647761</v>
       </c>
-      <c r="AC66" s="17">
-        <v>0.01647761</v>
+      <c r="AC66" s="26">
+        <v>0.02275462</v>
       </c>
       <c r="AD66" s="17">
         <v>0.08394774</v>
@@ -6946,8 +6954,8 @@
       <c r="AB67" s="17">
         <v>0.01647761</v>
       </c>
-      <c r="AC67" s="17">
-        <v>0.01647761</v>
+      <c r="AC67" s="26">
+        <v>0.02275462</v>
       </c>
       <c r="AD67" s="17">
         <v>0.08548659</v>
@@ -7038,8 +7046,8 @@
       <c r="AB68" s="17">
         <v>0.01029606</v>
       </c>
-      <c r="AC68" s="17">
-        <v>0.01029606</v>
+      <c r="AC68" s="26">
+        <v>0.00884292</v>
       </c>
       <c r="AD68" s="17">
         <v>0.08121088</v>
@@ -7130,8 +7138,8 @@
       <c r="AB69" s="17">
         <v>0.01029606</v>
       </c>
-      <c r="AC69" s="17">
-        <v>0.01029606</v>
+      <c r="AC69" s="26">
+        <v>0.00884292</v>
       </c>
       <c r="AD69" s="17">
         <v>0.07765125</v>
@@ -7222,8 +7230,8 @@
       <c r="AB70" s="17">
         <v>0.01029606</v>
       </c>
-      <c r="AC70" s="17">
-        <v>0.01029606</v>
+      <c r="AC70" s="26">
+        <v>0.00884292</v>
       </c>
       <c r="AD70" s="17">
         <v>0.06335088</v>
@@ -7314,8 +7322,8 @@
       <c r="AB71" s="17">
         <v>0.00939885</v>
       </c>
-      <c r="AC71" s="17">
-        <v>0.00939885</v>
+      <c r="AC71" s="26">
+        <v>0.01078568</v>
       </c>
       <c r="AD71" s="17">
         <v>0.06816214</v>
@@ -7406,8 +7414,8 @@
       <c r="AB72" s="17">
         <v>0.00939885</v>
       </c>
-      <c r="AC72" s="17">
-        <v>0.00939885</v>
+      <c r="AC72" s="26">
+        <v>0.01078568</v>
       </c>
       <c r="AD72" s="17">
         <v>0.06283285</v>
@@ -7498,8 +7506,8 @@
       <c r="AB73" s="17">
         <v>0.00939885</v>
       </c>
-      <c r="AC73" s="17">
-        <v>0.00939885</v>
+      <c r="AC73" s="26">
+        <v>0.01078568</v>
       </c>
       <c r="AD73" s="17">
         <v>0.0637709</v>
@@ -7590,8 +7598,8 @@
       <c r="AB74" s="17">
         <v>0.0077348</v>
       </c>
-      <c r="AC74" s="17">
-        <v>0.0077348</v>
+      <c r="AC74" s="26">
+        <v>0.00972134</v>
       </c>
       <c r="AD74" s="17">
         <v>0.06700806</v>
@@ -7682,8 +7690,8 @@
       <c r="AB75" s="17">
         <v>0.0077348</v>
       </c>
-      <c r="AC75" s="17">
-        <v>0.0077348</v>
+      <c r="AC75" s="26">
+        <v>0.00972134</v>
       </c>
       <c r="AD75" s="17">
         <v>0.06591935</v>
@@ -7774,8 +7782,8 @@
       <c r="AB76" s="17">
         <v>0.0077348</v>
       </c>
-      <c r="AC76" s="17">
-        <v>0.0077348</v>
+      <c r="AC76" s="26">
+        <v>0.00972134</v>
       </c>
       <c r="AD76" s="17">
         <v>0.07386016</v>
@@ -7866,8 +7874,8 @@
       <c r="AB77" s="17">
         <v>0.00970477</v>
       </c>
-      <c r="AC77" s="17">
-        <v>0.00970477</v>
+      <c r="AC77" s="26">
+        <v>0.01007981</v>
       </c>
       <c r="AD77" s="17">
         <v>0.07846953</v>
@@ -7958,8 +7966,8 @@
       <c r="AB78" s="17">
         <v>0.00970477</v>
       </c>
-      <c r="AC78" s="17">
-        <v>0.00970477</v>
+      <c r="AC78" s="26">
+        <v>0.01007981</v>
       </c>
       <c r="AD78" s="17">
         <v>0.07928119</v>
@@ -8050,8 +8058,8 @@
       <c r="AB79" s="17">
         <v>0.00970477</v>
       </c>
-      <c r="AC79" s="17">
-        <v>0.00970477</v>
+      <c r="AC79" s="26">
+        <v>0.01007981</v>
       </c>
       <c r="AD79" s="17">
         <v>0.07440454</v>
@@ -8142,8 +8150,8 @@
       <c r="AB80" s="17">
         <v>0.00893429</v>
       </c>
-      <c r="AC80" s="17">
-        <v>0.00893429</v>
+      <c r="AC80" s="26">
+        <v>0.00710495</v>
       </c>
       <c r="AD80" s="17">
         <v>0.07566339</v>
@@ -8234,8 +8242,8 @@
       <c r="AB81" s="17">
         <v>0.00893429</v>
       </c>
-      <c r="AC81" s="17">
-        <v>0.00893429</v>
+      <c r="AC81" s="26">
+        <v>0.00710495</v>
       </c>
       <c r="AD81" s="17">
         <v>0.07999108</v>
@@ -8326,8 +8334,8 @@
       <c r="AB82" s="17">
         <v>0.00893429</v>
       </c>
-      <c r="AC82" s="17">
-        <v>0.00893429</v>
+      <c r="AC82" s="26">
+        <v>0.00710495</v>
       </c>
       <c r="AD82" s="17">
         <v>0.07698764</v>
@@ -8418,8 +8426,8 @@
       <c r="AB83" s="17">
         <v>0.01046523</v>
       </c>
-      <c r="AC83" s="17">
-        <v>0.01046523</v>
+      <c r="AC83" s="26">
+        <v>0.0068232</v>
       </c>
       <c r="AD83" s="17">
         <v>0.07017092</v>
@@ -8510,8 +8518,8 @@
       <c r="AB84" s="17">
         <v>0.01046523</v>
       </c>
-      <c r="AC84" s="17">
-        <v>0.01046523</v>
+      <c r="AC84" s="26">
+        <v>0.0068232</v>
       </c>
       <c r="AD84" s="17">
         <v>0.07018835</v>
@@ -8602,8 +8610,8 @@
       <c r="AB85" s="17">
         <v>0.01046523</v>
       </c>
-      <c r="AC85" s="17">
-        <v>0.01046523</v>
+      <c r="AC85" s="26">
+        <v>0.0068232</v>
       </c>
       <c r="AD85" s="17">
         <v>0.07045967</v>
@@ -8694,8 +8702,8 @@
       <c r="AB86" s="17">
         <v>0.01095419</v>
       </c>
-      <c r="AC86" s="17">
-        <v>0.01095419</v>
+      <c r="AC86" s="26">
+        <v>0.00668043</v>
       </c>
       <c r="AD86" s="17">
         <v>0.06755914</v>
@@ -8786,8 +8794,8 @@
       <c r="AB87" s="17">
         <v>0.01095419</v>
       </c>
-      <c r="AC87" s="17">
-        <v>0.01095419</v>
+      <c r="AC87" s="26">
+        <v>0.00668043</v>
       </c>
       <c r="AD87" s="17">
         <v>0.06584451</v>
@@ -8878,8 +8886,8 @@
       <c r="AB88" s="17">
         <v>0.01095419</v>
       </c>
-      <c r="AC88" s="17">
-        <v>0.01095419</v>
+      <c r="AC88" s="26">
+        <v>0.00668043</v>
       </c>
       <c r="AD88" s="17">
         <v>0.05550921</v>
@@ -8970,8 +8978,8 @@
       <c r="AB89" s="17">
         <v>0.02774416</v>
       </c>
-      <c r="AC89" s="17">
-        <v>0.02774416</v>
+      <c r="AC89" s="26">
+        <v>0.00774699</v>
       </c>
       <c r="AD89" s="17">
         <v>0.04125227</v>
@@ -9062,159 +9070,159 @@
       <c r="AB90" s="17">
         <v>0.02885347</v>
       </c>
-      <c r="AC90" s="17">
-        <v>0.02885347</v>
+      <c r="AC90" s="26">
+        <v>0.00801399</v>
       </c>
       <c r="AD90" s="17">
         <v>0.04281485</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="27"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="32"/>
-      <c r="J91" s="33"/>
-      <c r="L91" s="33"/>
-      <c r="M91" s="33"/>
-      <c r="O91" s="34"/>
-      <c r="P91" s="34"/>
-      <c r="Q91" s="34"/>
-      <c r="R91" s="34"/>
-      <c r="S91" s="34"/>
-      <c r="U91" s="35"/>
-      <c r="V91" s="36"/>
+      <c r="A91" s="28"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="34"/>
+      <c r="L91" s="34"/>
+      <c r="M91" s="34"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
+      <c r="Q91" s="35"/>
+      <c r="R91" s="35"/>
+      <c r="S91" s="35"/>
+      <c r="U91" s="36"/>
+      <c r="V91" s="37"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="27"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="37"/>
-      <c r="O92" s="34"/>
-      <c r="P92" s="34"/>
-      <c r="Q92" s="34"/>
-      <c r="R92" s="34"/>
-      <c r="S92" s="34"/>
-      <c r="V92" s="38"/>
+      <c r="A92" s="28"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="38"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="35"/>
+      <c r="V92" s="39"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="I93" s="37"/>
-      <c r="O93" s="34"/>
-      <c r="P93" s="34"/>
-      <c r="Q93" s="34"/>
-      <c r="R93" s="34"/>
-      <c r="S93" s="34"/>
-      <c r="V93" s="38"/>
+      <c r="I93" s="38"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
+      <c r="Q93" s="35"/>
+      <c r="R93" s="35"/>
+      <c r="S93" s="35"/>
+      <c r="V93" s="39"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="I94" s="37"/>
-      <c r="O94" s="34"/>
-      <c r="P94" s="34"/>
-      <c r="Q94" s="34"/>
-      <c r="R94" s="34"/>
-      <c r="S94" s="34"/>
-      <c r="V94" s="38"/>
+      <c r="I94" s="38"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="V94" s="39"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="I95" s="37"/>
-      <c r="O95" s="34"/>
-      <c r="P95" s="34"/>
-      <c r="Q95" s="34"/>
-      <c r="R95" s="34"/>
-      <c r="S95" s="34"/>
-      <c r="V95" s="38"/>
+      <c r="I95" s="38"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="35"/>
+      <c r="S95" s="35"/>
+      <c r="V95" s="39"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="I96" s="33"/>
-      <c r="O96" s="34"/>
-      <c r="P96" s="34"/>
-      <c r="Q96" s="34"/>
-      <c r="R96" s="34"/>
-      <c r="S96" s="34"/>
-      <c r="V96" s="38"/>
+      <c r="I96" s="34"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
+      <c r="Q96" s="35"/>
+      <c r="R96" s="35"/>
+      <c r="S96" s="35"/>
+      <c r="V96" s="39"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="I97" s="33"/>
-      <c r="V97" s="38"/>
+      <c r="I97" s="34"/>
+      <c r="V97" s="39"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="I98" s="33"/>
-      <c r="V98" s="38"/>
+      <c r="I98" s="34"/>
+      <c r="V98" s="39"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="I99" s="33"/>
-      <c r="V99" s="38"/>
+      <c r="I99" s="34"/>
+      <c r="V99" s="39"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="I100" s="33"/>
-      <c r="V100" s="38"/>
+      <c r="I100" s="34"/>
+      <c r="V100" s="39"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="I101" s="33"/>
-      <c r="V101" s="38"/>
+      <c r="I101" s="34"/>
+      <c r="V101" s="39"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="I102" s="33"/>
-      <c r="V102" s="38"/>
+      <c r="I102" s="34"/>
+      <c r="V102" s="39"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="I103" s="33"/>
-      <c r="V103" s="38"/>
+      <c r="I103" s="34"/>
+      <c r="V103" s="39"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="I104" s="33"/>
-      <c r="V104" s="38"/>
+      <c r="I104" s="34"/>
+      <c r="V104" s="39"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="I105" s="33"/>
-      <c r="V105" s="38"/>
+      <c r="I105" s="34"/>
+      <c r="V105" s="39"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="I106" s="33"/>
-      <c r="V106" s="38"/>
+      <c r="I106" s="34"/>
+      <c r="V106" s="39"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="I107" s="33"/>
-      <c r="V107" s="38"/>
+      <c r="I107" s="34"/>
+      <c r="V107" s="39"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="I108" s="33"/>
-      <c r="V108" s="38"/>
+      <c r="I108" s="34"/>
+      <c r="V108" s="39"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="I109" s="33"/>
-      <c r="V109" s="38"/>
+      <c r="I109" s="34"/>
+      <c r="V109" s="39"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="I110" s="33"/>
-      <c r="V110" s="38"/>
+      <c r="I110" s="34"/>
+      <c r="V110" s="39"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="I111" s="33"/>
-      <c r="V111" s="38"/>
+      <c r="I111" s="34"/>
+      <c r="V111" s="39"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="I112" s="33"/>
-      <c r="V112" s="38"/>
+      <c r="I112" s="34"/>
+      <c r="V112" s="39"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="I113" s="33"/>
-      <c r="V113" s="38"/>
+      <c r="I113" s="34"/>
+      <c r="V113" s="39"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="I114" s="33"/>
-      <c r="V114" s="38"/>
+      <c r="I114" s="34"/>
+      <c r="V114" s="39"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="I115" s="33"/>
-      <c r="V115" s="38"/>
+      <c r="I115" s="34"/>
+      <c r="V115" s="39"/>
     </row>
     <row r="116" ht="15.75" customHeight="1"/>
     <row r="117" ht="15.75" customHeight="1"/>
@@ -10124,3384 +10132,3384 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="27">
+      <c r="A2" s="28">
         <v>42979.0</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="47">
         <v>42978.0</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="48">
         <v>-1.398922853416202</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="49">
         <v>-3.8283</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="50">
         <v>10.59</v>
       </c>
-      <c r="F2" s="49">
+      <c r="F2" s="50">
         <v>52.88</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="51">
         <v>-0.89859</v>
       </c>
-      <c r="H2" s="49">
+      <c r="H2" s="50">
         <v>-1.02849</v>
       </c>
-      <c r="I2" s="47">
+      <c r="I2" s="48">
         <v>-1.32094333487576</v>
       </c>
-      <c r="J2" s="50">
+      <c r="J2" s="51">
         <v>-1.40501809653008</v>
       </c>
-      <c r="K2" s="47"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="27">
+      <c r="A3" s="28">
         <v>43009.0</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="47">
         <v>43007.0</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="48">
         <v>-1.339538636172452</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="49">
         <v>-3.73861</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="50">
         <v>9.51</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="50">
         <v>51.15</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="51">
         <v>-1.14549</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="50">
         <v>-0.77151</v>
       </c>
-      <c r="I3" s="47">
+      <c r="I3" s="48">
         <v>-0.837982181010908</v>
       </c>
-      <c r="J3" s="50">
+      <c r="J3" s="51">
         <v>-0.464897318984741</v>
       </c>
-      <c r="K3" s="47"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="27">
+      <c r="A4" s="28">
         <v>43040.0</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="47">
         <v>43039.0</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="48">
         <v>-1.622994592591039</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="49">
         <v>-4.01951</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="50">
         <v>10.18</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="50">
         <v>46.83</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="51">
         <v>-1.19208</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="50">
         <v>-1.4483</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="48">
         <v>-1.83787404317846</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="51">
         <v>-1.37105020671937</v>
       </c>
-      <c r="K4" s="47"/>
+      <c r="K4" s="48"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="27">
+      <c r="A5" s="28">
         <v>43070.0</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="47">
         <v>43069.0</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="48">
         <v>-1.267669646350059</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="49">
         <v>-2.55687</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="50">
         <v>11.28</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="50">
         <v>46.6</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="51">
         <v>-1.25463</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="50">
         <v>-1.11575</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="48">
         <v>-1.31040233438515</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5" s="51">
         <v>-0.702094972499133</v>
       </c>
-      <c r="K5" s="47"/>
+      <c r="K5" s="48"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="27">
+      <c r="A6" s="28">
         <v>43101.0</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="47">
         <v>43100.0</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="48">
         <v>-0.8925105498101106</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="49">
         <v>-2.75193</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="50">
         <v>11.04</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="50">
         <v>57.2</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="51">
         <v>0.038975</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="50">
         <v>-0.24164</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="48">
         <v>-0.811279863680873</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="51">
         <v>-0.334438387493599</v>
       </c>
-      <c r="K6" s="47"/>
+      <c r="K6" s="48"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="27">
+      <c r="A7" s="28">
         <v>43132.0</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="47">
         <v>43131.0</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="48">
         <v>-0.9709959273986545</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="49">
         <v>-3.14435</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="50">
         <v>13.54</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="50">
         <v>62.97</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="51">
         <v>-0.51082</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="50">
         <v>-0.92022</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="48">
         <v>-0.808501244129271</v>
       </c>
-      <c r="J7" s="50">
+      <c r="J7" s="51">
         <v>-0.374018881682428</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K7" s="48">
         <v>-0.439105391447404</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="27">
+      <c r="A8" s="28">
         <v>43160.0</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="47">
         <v>43159.0</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="48">
         <v>-1.175494963528102</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="49">
         <v>-3.56782</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="50">
         <v>19.85</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="50">
         <v>58.54</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="51">
         <v>-0.7316</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="50">
         <v>-0.70452</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="48">
         <v>-0.975101285134141</v>
       </c>
-      <c r="J8" s="50">
+      <c r="J8" s="51">
         <v>-0.640210916071059</v>
       </c>
-      <c r="K8" s="47">
+      <c r="K8" s="48">
         <v>-0.730358604226615</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="27">
+      <c r="A9" s="28">
         <v>43191.0</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="47">
         <v>43189.0</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="48">
         <v>-1.247612757732853</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="49">
         <v>-4.42206</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="50">
         <v>19.97</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="50">
         <v>50.35</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="51">
         <v>-1.17374</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="50">
         <v>-0.86786</v>
       </c>
-      <c r="I9" s="47">
+      <c r="I9" s="48">
         <v>-1.22123935900661</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="51">
         <v>-1.12365711238016</v>
       </c>
-      <c r="K9" s="47">
+      <c r="K9" s="48">
         <v>-0.880371859233401</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="27">
+      <c r="A10" s="28">
         <v>43221.0</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="47">
         <v>43220.0</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="48">
         <v>-1.55585656968056</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="49">
         <v>-5.17651</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="50">
         <v>15.93</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="50">
         <v>60.54</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="51">
         <v>-0.91394</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="50">
         <v>-1.182</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="48">
         <v>-1.14944993580004</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="51">
         <v>-0.992618266416218</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="48">
         <v>-0.648006739176923</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="27">
+      <c r="A11" s="28">
         <v>43252.0</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="47">
         <v>43251.0</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="48">
         <v>-1.841341274949514</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="49">
         <v>-4.87901</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="50">
         <v>15.43</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="50">
         <v>51.17</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="51">
         <v>-1.33601</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="50">
         <v>-1.44402</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="48">
         <v>-1.24416184991528</v>
       </c>
-      <c r="J11" s="50">
+      <c r="J11" s="51">
         <v>-1.32452248562699</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="48">
         <v>-1.05677695190766</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="27">
+      <c r="A12" s="28">
         <v>43282.0</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="47">
         <v>43280.0</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="48">
         <v>-1.607290525600278</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="49">
         <v>-5.19005</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="50">
         <v>16.09</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="50">
         <v>46.5</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="51">
         <v>-1.40594</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="50">
         <v>-1.31208</v>
       </c>
-      <c r="I12" s="47">
+      <c r="I12" s="48">
         <v>-1.31556823797465</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="51">
         <v>-1.29952549549088</v>
       </c>
-      <c r="K12" s="47">
+      <c r="K12" s="48">
         <v>-1.17103327305433</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="27">
+      <c r="A13" s="28">
         <v>43313.0</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="47">
         <v>43312.0</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="48">
         <v>-1.710774007634875</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="49">
         <v>-3.18897</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="50">
         <v>12.83</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="50">
         <v>50.71</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="51">
         <v>-1.77179</v>
       </c>
-      <c r="H13" s="49">
+      <c r="H13" s="50">
         <v>-1.63663</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I13" s="48">
         <v>-1.66497528210377</v>
       </c>
-      <c r="J13" s="50">
+      <c r="J13" s="51">
         <v>-1.07808949763232</v>
       </c>
-      <c r="K13" s="47">
+      <c r="K13" s="48">
         <v>-1.25953774557648</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="27">
+      <c r="A14" s="28">
         <v>43344.0</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="47">
         <v>43343.0</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="48">
         <v>-1.83602849936558</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="49">
         <v>-5.12863</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="50">
         <v>12.86</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="50">
         <v>46.16</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="51">
         <v>-0.99484</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="50">
         <v>-1.32418</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="48">
         <v>-1.33708039166553</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="51">
         <v>-0.710670790439491</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="48">
         <v>-1.1222401200804</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="27">
+      <c r="A15" s="28">
         <v>43374.0</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="47">
         <v>43373.0</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="48">
         <v>-1.970047389025133</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="49">
         <v>-4.26195</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="50">
         <v>12.12</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="50">
         <v>60.13</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="51">
         <v>-0.66974</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="50">
         <v>-1.36762</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="48">
         <v>-0.987927166372762</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15" s="51">
         <v>-0.767145353928199</v>
       </c>
-      <c r="K15" s="47">
+      <c r="K15" s="48">
         <v>-1.0399706723347</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="27">
+      <c r="A16" s="28">
         <v>43405.0</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="47">
         <v>43404.0</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="48">
         <v>-2.634419469321147</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="49">
         <v>-2.98116</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="50">
         <v>21.23</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="50">
         <v>52.43</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="51">
         <v>-1.20455</v>
       </c>
-      <c r="H16" s="49">
+      <c r="H16" s="50">
         <v>-1.71936</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="48">
         <v>-1.5673492277694</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="51">
         <v>-1.45027556304816</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K16" s="48">
         <v>-1.46877772889543</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="27">
+      <c r="A17" s="28">
         <v>43435.0</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="47">
         <v>43434.0</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="48">
         <v>-1.261898845865185</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="49">
         <v>-2.9991</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="50">
         <v>18.07</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="50">
         <v>66.58</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17" s="51">
         <v>-1.34271</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="50">
         <v>-1.13646</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="48">
         <v>-1.13935503769108</v>
       </c>
-      <c r="J17" s="50">
+      <c r="J17" s="51">
         <v>-1.44473952540009</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="48">
         <v>-1.01581959115363</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="27">
+      <c r="A18" s="28">
         <v>43466.0</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="47">
         <v>43465.0</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="48">
         <v>-1.42895971506604</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="49">
         <v>-3.22542</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="50">
         <v>25.42</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="50">
         <v>49.81</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="51">
         <v>-1.20707</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="50">
         <v>-1.04867</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="48">
         <v>-0.938183381033555</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="51">
         <v>-1.48157847892255</v>
       </c>
-      <c r="K18" s="47">
+      <c r="K18" s="48">
         <v>-1.04028073046679</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="34">
         <v>-2.535960732</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="27">
+      <c r="A19" s="28">
         <v>43497.0</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="47">
         <v>43496.0</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="48">
         <v>-1.931656242993748</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="49">
         <v>-2.53746</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="50">
         <v>16.57</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="50">
         <v>47.22</v>
       </c>
-      <c r="G19" s="50">
+      <c r="G19" s="51">
         <v>-1.56902</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="50">
         <v>-1.336</v>
       </c>
-      <c r="I19" s="47">
+      <c r="I19" s="48">
         <v>-1.28280211146302</v>
       </c>
-      <c r="J19" s="50">
+      <c r="J19" s="51">
         <v>-2.21112329681555</v>
       </c>
-      <c r="K19" s="47">
+      <c r="K19" s="48">
         <v>-1.2473839983994</v>
       </c>
-      <c r="L19" s="33">
+      <c r="L19" s="34">
         <v>-1.257932378</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="27">
+      <c r="A20" s="28">
         <v>43525.0</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="47">
         <v>43524.0</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="48">
         <v>-2.183276322808114</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="49">
         <v>-2.48747</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="50">
         <v>14.78</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="50">
         <v>58.55</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="51">
         <v>-1.63745</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="50">
         <v>-0.99654</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="48">
         <v>-1.28352005165908</v>
       </c>
-      <c r="J20" s="50">
+      <c r="J20" s="51">
         <v>-2.0150631720792</v>
       </c>
-      <c r="K20" s="47">
+      <c r="K20" s="48">
         <v>-1.40693019858973</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L20" s="34">
         <v>-2.408594785</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="27">
+      <c r="A21" s="28">
         <v>43556.0</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="47">
         <v>43555.0</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="48">
         <v>-2.737802760680171</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="49">
         <v>-2.39428</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="50">
         <v>13.71</v>
       </c>
-      <c r="F21" s="49">
+      <c r="F21" s="50">
         <v>49.47</v>
       </c>
-      <c r="G21" s="50">
+      <c r="G21" s="51">
         <v>-2.55493</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H21" s="50">
         <v>-1.61846</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I21" s="48">
         <v>-2.00826484107994</v>
       </c>
-      <c r="J21" s="50">
+      <c r="J21" s="51">
         <v>-2.69456906207766</v>
       </c>
-      <c r="K21" s="47">
+      <c r="K21" s="48">
         <v>-1.3526260206078</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="34">
         <v>-2.687436591</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="27">
+      <c r="A22" s="28">
         <v>43586.0</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="47">
         <v>43585.0</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="48">
         <v>-1.441057898006261</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="49">
         <v>-2.50604</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="50">
         <v>13.12</v>
       </c>
-      <c r="F22" s="49">
+      <c r="F22" s="50">
         <v>72.68</v>
       </c>
-      <c r="G22" s="50">
+      <c r="G22" s="51">
         <v>-1.57082</v>
       </c>
-      <c r="H22" s="49">
+      <c r="H22" s="50">
         <v>-1.0895</v>
       </c>
-      <c r="I22" s="47">
+      <c r="I22" s="48">
         <v>-1.52257286560863</v>
       </c>
-      <c r="J22" s="50">
+      <c r="J22" s="51">
         <v>-1.02852364179289</v>
       </c>
-      <c r="K22" s="47">
+      <c r="K22" s="48">
         <v>-1.29347127214238</v>
       </c>
-      <c r="L22" s="33">
+      <c r="L22" s="34">
         <v>-2.155753982</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="27">
+      <c r="A23" s="28">
         <v>43617.0</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="47">
         <v>43616.0</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="48">
         <v>-1.356089123911896</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="49">
         <v>-2.61803</v>
       </c>
-      <c r="E23" s="49">
+      <c r="E23" s="50">
         <v>18.71</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="50">
         <v>70.43</v>
       </c>
-      <c r="G23" s="50">
+      <c r="G23" s="51">
         <v>-1.04477</v>
       </c>
-      <c r="H23" s="49">
+      <c r="H23" s="50">
         <v>-1.19261</v>
       </c>
-      <c r="I23" s="47">
+      <c r="I23" s="48">
         <v>-1.23903045126692</v>
       </c>
-      <c r="J23" s="50">
+      <c r="J23" s="51">
         <v>-1.39244515208757</v>
       </c>
-      <c r="K23" s="47">
+      <c r="K23" s="48">
         <v>-1.06130696986566</v>
       </c>
-      <c r="L23" s="33">
+      <c r="L23" s="34">
         <v>-3.105580078</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="27">
+      <c r="A24" s="28">
         <v>43647.0</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="47">
         <v>43646.0</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="48">
         <v>-1.130442924781761</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="49">
         <v>-4.2474</v>
       </c>
-      <c r="E24" s="49">
+      <c r="E24" s="50">
         <v>15.08</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="50">
         <v>55.25</v>
       </c>
-      <c r="G24" s="50">
+      <c r="G24" s="51">
         <v>-1.46331</v>
       </c>
-      <c r="H24" s="49">
+      <c r="H24" s="50">
         <v>-1.27944</v>
       </c>
-      <c r="I24" s="47">
+      <c r="I24" s="48">
         <v>-1.37654501117611</v>
       </c>
-      <c r="J24" s="50">
+      <c r="J24" s="51">
         <v>-2.02753895618037</v>
       </c>
-      <c r="K24" s="47">
+      <c r="K24" s="48">
         <v>-1.29309381051059</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L24" s="34">
         <v>-2.88452884</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="27">
+      <c r="A25" s="28">
         <v>43678.0</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="47">
         <v>43677.0</v>
       </c>
-      <c r="C25" s="47">
+      <c r="C25" s="48">
         <v>-1.30156238978162</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="49">
         <v>-4.54128</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="50">
         <v>16.12</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="50">
         <v>86.89</v>
       </c>
-      <c r="G25" s="50">
+      <c r="G25" s="51">
         <v>-1.52144</v>
       </c>
-      <c r="H25" s="49">
+      <c r="H25" s="50">
         <v>-1.16278</v>
       </c>
-      <c r="I25" s="47">
+      <c r="I25" s="48">
         <v>-1.23531416127427</v>
       </c>
-      <c r="J25" s="50">
+      <c r="J25" s="51">
         <v>-1.17572476303962</v>
       </c>
-      <c r="K25" s="47">
+      <c r="K25" s="48">
         <v>-1.22013397767023</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L25" s="34">
         <v>-3.288028197</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="27">
+      <c r="A26" s="28">
         <v>43709.0</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B26" s="47">
         <v>43707.0</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26" s="48">
         <v>-1.792212142579465</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="49">
         <v>-4.63769</v>
       </c>
-      <c r="E26" s="49">
+      <c r="E26" s="50">
         <v>18.98</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="50">
         <v>77.2</v>
       </c>
-      <c r="G26" s="50">
+      <c r="G26" s="51">
         <v>-1.76458</v>
       </c>
-      <c r="H26" s="49">
+      <c r="H26" s="50">
         <v>-1.54114</v>
       </c>
-      <c r="I26" s="47">
+      <c r="I26" s="48">
         <v>-1.64712484110844</v>
       </c>
-      <c r="J26" s="50">
+      <c r="J26" s="51">
         <v>-2.01898453558515</v>
       </c>
-      <c r="K26" s="47">
+      <c r="K26" s="48">
         <v>-1.456811796071</v>
       </c>
-      <c r="L26" s="33">
+      <c r="L26" s="34">
         <v>-3.791622861</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="27">
+      <c r="A27" s="28">
         <v>43739.0</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="47">
         <v>43738.0</v>
       </c>
-      <c r="C27" s="47">
+      <c r="C27" s="48">
         <v>-1.764303118677008</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="49">
         <v>-4.58447</v>
       </c>
-      <c r="E27" s="49">
+      <c r="E27" s="50">
         <v>16.24</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="50">
         <v>65.88</v>
       </c>
-      <c r="G27" s="50">
+      <c r="G27" s="51">
         <v>-1.48155</v>
       </c>
-      <c r="H27" s="49">
+      <c r="H27" s="50">
         <v>-1.40399</v>
       </c>
-      <c r="I27" s="47">
+      <c r="I27" s="48">
         <v>-1.38595187419213</v>
       </c>
-      <c r="J27" s="50">
+      <c r="J27" s="51">
         <v>-1.37482766027742</v>
       </c>
-      <c r="K27" s="47">
+      <c r="K27" s="48">
         <v>-1.29153097203489</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="34">
         <v>-4.878365254</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="27">
+      <c r="A28" s="28">
         <v>43770.0</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="47">
         <v>43769.0</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="48">
         <v>-1.494561565481544</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="49">
         <v>-4.97364</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E28" s="50">
         <v>13.22</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="50">
         <v>56.57</v>
       </c>
-      <c r="G28" s="50">
+      <c r="G28" s="51">
         <v>-1.69592</v>
       </c>
-      <c r="H28" s="49">
+      <c r="H28" s="50">
         <v>-1.53647</v>
       </c>
-      <c r="I28" s="47">
+      <c r="I28" s="48">
         <v>-1.5978489808118</v>
       </c>
-      <c r="J28" s="50">
+      <c r="J28" s="51">
         <v>-1.80032406859062</v>
       </c>
-      <c r="K28" s="47">
+      <c r="K28" s="48">
         <v>-1.67009328893685</v>
       </c>
-      <c r="L28" s="33">
+      <c r="L28" s="34">
         <v>-5.309184321</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="27">
+      <c r="A29" s="28">
         <v>43800.0</v>
       </c>
-      <c r="B29" s="46">
+      <c r="B29" s="47">
         <v>43798.0</v>
       </c>
-      <c r="C29" s="47">
+      <c r="C29" s="48">
         <v>-2.002566424310042</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="49">
         <v>-4.36753</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E29" s="50">
         <v>12.62</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="50">
         <v>58.28</v>
       </c>
-      <c r="G29" s="50">
+      <c r="G29" s="51">
         <v>-1.88753</v>
       </c>
-      <c r="H29" s="49">
+      <c r="H29" s="50">
         <v>-1.65537</v>
       </c>
-      <c r="I29" s="47">
+      <c r="I29" s="48">
         <v>-1.79216911267388</v>
       </c>
-      <c r="J29" s="50">
+      <c r="J29" s="51">
         <v>-0.955511601048314</v>
       </c>
-      <c r="K29" s="47">
+      <c r="K29" s="48">
         <v>-1.72973072830168</v>
       </c>
-      <c r="L29" s="33">
+      <c r="L29" s="34">
         <v>-5.262845855</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="27">
+      <c r="A30" s="28">
         <v>43831.0</v>
       </c>
-      <c r="B30" s="46">
+      <c r="B30" s="47">
         <v>43830.0</v>
       </c>
-      <c r="C30" s="47">
+      <c r="C30" s="48">
         <v>-2.094022433586233</v>
       </c>
-      <c r="D30" s="48">
+      <c r="D30" s="49">
         <v>-4.00424</v>
       </c>
-      <c r="E30" s="49">
+      <c r="E30" s="50">
         <v>13.78</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="50">
         <v>72.98</v>
       </c>
-      <c r="G30" s="50">
+      <c r="G30" s="51">
         <v>-1.72721</v>
       </c>
-      <c r="H30" s="49">
+      <c r="H30" s="50">
         <v>-1.68106</v>
       </c>
-      <c r="I30" s="47">
+      <c r="I30" s="48">
         <v>-1.76534552575579</v>
       </c>
-      <c r="J30" s="50">
+      <c r="J30" s="51">
         <v>-2.11273759490854</v>
       </c>
-      <c r="K30" s="47">
+      <c r="K30" s="48">
         <v>-1.70610116986081</v>
       </c>
-      <c r="L30" s="33">
+      <c r="L30" s="34">
         <v>-5.317671911</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="27">
+      <c r="A31" s="28">
         <v>43862.0</v>
       </c>
-      <c r="B31" s="46">
+      <c r="B31" s="47">
         <v>43861.0</v>
       </c>
-      <c r="C31" s="47">
+      <c r="C31" s="48">
         <v>-1.916924731911084</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="49">
         <v>-4.61602</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="50">
         <v>18.84</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="50">
         <v>109.67</v>
       </c>
-      <c r="G31" s="50">
+      <c r="G31" s="51">
         <v>-1.50107</v>
       </c>
-      <c r="H31" s="49">
+      <c r="H31" s="50">
         <v>-1.24194</v>
       </c>
-      <c r="I31" s="47">
+      <c r="I31" s="48">
         <v>-1.53941992088575</v>
       </c>
-      <c r="J31" s="50">
+      <c r="J31" s="51">
         <v>1.77010431813011</v>
       </c>
-      <c r="K31" s="47">
+      <c r="K31" s="48">
         <v>-1.3229813721913</v>
       </c>
-      <c r="L31" s="33">
+      <c r="L31" s="34">
         <v>-5.295724752</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="27">
+      <c r="A32" s="28">
         <v>43891.0</v>
       </c>
-      <c r="B32" s="46">
+      <c r="B32" s="47">
         <v>43890.0</v>
       </c>
-      <c r="C32" s="47">
+      <c r="C32" s="48">
         <v>-1.910305756488278</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="49">
         <v>-4.59272</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="50">
         <v>40.11</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="50">
         <v>83.87</v>
       </c>
-      <c r="G32" s="50">
+      <c r="G32" s="51">
         <v>-1.41294</v>
       </c>
-      <c r="H32" s="49">
+      <c r="H32" s="50">
         <v>-1.31565</v>
       </c>
-      <c r="I32" s="47">
+      <c r="I32" s="48">
         <v>-1.32332872301564</v>
       </c>
-      <c r="J32" s="50">
+      <c r="J32" s="51">
         <v>-1.42576670949177</v>
       </c>
-      <c r="K32" s="47">
+      <c r="K32" s="48">
         <v>-1.37179985034394</v>
       </c>
-      <c r="L32" s="33">
+      <c r="L32" s="34">
         <v>-4.666235488</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="27">
+      <c r="A33" s="28">
         <v>43922.0</v>
       </c>
-      <c r="B33" s="46">
+      <c r="B33" s="47">
         <v>43921.0</v>
       </c>
-      <c r="C33" s="47">
+      <c r="C33" s="48">
         <v>-0.816916259511464</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="49">
         <v>-4.09257</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="50">
         <v>53.54</v>
       </c>
-      <c r="F33" s="49">
+      <c r="F33" s="50">
         <v>53.59</v>
       </c>
-      <c r="G33" s="50">
+      <c r="G33" s="51">
         <v>-0.6159</v>
       </c>
-      <c r="H33" s="49">
+      <c r="H33" s="50">
         <v>-0.47189</v>
       </c>
-      <c r="I33" s="47">
+      <c r="I33" s="48">
         <v>-0.340096439222833</v>
       </c>
-      <c r="J33" s="50">
+      <c r="J33" s="51">
         <v>-0.967413118549997</v>
       </c>
-      <c r="K33" s="47">
+      <c r="K33" s="48">
         <v>-0.409518237583753</v>
       </c>
-      <c r="L33" s="33">
+      <c r="L33" s="34">
         <v>-4.230103655</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="27">
+      <c r="A34" s="28">
         <v>43952.0</v>
       </c>
-      <c r="B34" s="46">
+      <c r="B34" s="47">
         <v>43951.0</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="48">
         <v>-1.521791527356374</v>
       </c>
-      <c r="D34" s="48">
+      <c r="D34" s="49">
         <v>-5.18505</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="50">
         <v>34.15</v>
       </c>
-      <c r="F34" s="49">
+      <c r="F34" s="50">
         <v>51.55</v>
       </c>
-      <c r="G34" s="50">
+      <c r="G34" s="51">
         <v>-1.60275</v>
       </c>
-      <c r="H34" s="49">
+      <c r="H34" s="50">
         <v>-1.51623</v>
       </c>
-      <c r="I34" s="47">
+      <c r="I34" s="48">
         <v>-1.19606248003297</v>
       </c>
-      <c r="J34" s="50">
+      <c r="J34" s="51">
         <v>-1.686148434026</v>
       </c>
-      <c r="K34" s="47">
+      <c r="K34" s="48">
         <v>-1.27922973933914</v>
       </c>
-      <c r="L34" s="33">
+      <c r="L34" s="34">
         <v>-5.368728465</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="27">
+      <c r="A35" s="28">
         <v>43983.0</v>
       </c>
-      <c r="B35" s="46">
+      <c r="B35" s="47">
         <v>43982.0</v>
       </c>
-      <c r="C35" s="47">
+      <c r="C35" s="48">
         <v>-1.706118200800225</v>
       </c>
-      <c r="D35" s="48">
+      <c r="D35" s="49">
         <v>-5.58266</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="50">
         <v>27.51</v>
       </c>
-      <c r="F35" s="49">
+      <c r="F35" s="50">
         <v>54.13</v>
       </c>
-      <c r="G35" s="50">
+      <c r="G35" s="51">
         <v>-1.87792</v>
       </c>
-      <c r="H35" s="49">
+      <c r="H35" s="50">
         <v>-1.60682</v>
       </c>
-      <c r="I35" s="47">
+      <c r="I35" s="48">
         <v>-1.48484748143774</v>
       </c>
-      <c r="J35" s="50">
+      <c r="J35" s="51">
         <v>-2.04883216147516</v>
       </c>
-      <c r="K35" s="47">
+      <c r="K35" s="48">
         <v>-1.1418972441232</v>
       </c>
-      <c r="L35" s="33">
+      <c r="L35" s="34">
         <v>-5.833960088</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="27">
+      <c r="A36" s="28">
         <v>44013.0</v>
       </c>
-      <c r="B36" s="46">
+      <c r="B36" s="47">
         <v>44012.0</v>
       </c>
-      <c r="C36" s="47">
+      <c r="C36" s="48">
         <v>-2.378771800579897</v>
       </c>
-      <c r="D36" s="48">
+      <c r="D36" s="49">
         <v>-5.43531</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="50">
         <v>30.43</v>
       </c>
-      <c r="F36" s="49">
+      <c r="F36" s="50">
         <v>41.98</v>
       </c>
-      <c r="G36" s="50">
+      <c r="G36" s="51">
         <v>-2.15553</v>
       </c>
-      <c r="H36" s="49">
+      <c r="H36" s="50">
         <v>-2.03488</v>
       </c>
-      <c r="I36" s="47">
+      <c r="I36" s="48">
         <v>-1.89298692824869</v>
       </c>
-      <c r="J36" s="50">
+      <c r="J36" s="51">
         <v>-2.43778467599286</v>
       </c>
-      <c r="K36" s="47">
+      <c r="K36" s="48">
         <v>-1.50792923183926</v>
       </c>
-      <c r="L36" s="33">
+      <c r="L36" s="34">
         <v>-5.502496988</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="27">
+      <c r="A37" s="28">
         <v>44044.0</v>
       </c>
-      <c r="B37" s="46">
+      <c r="B37" s="47">
         <v>44043.0</v>
       </c>
-      <c r="C37" s="47">
+      <c r="C37" s="48">
         <v>-2.13739983436325</v>
       </c>
-      <c r="D37" s="48">
+      <c r="D37" s="49">
         <v>-5.33078</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="50">
         <v>24.46</v>
       </c>
-      <c r="F37" s="49">
+      <c r="F37" s="50">
         <v>47.02</v>
       </c>
-      <c r="G37" s="50">
+      <c r="G37" s="51">
         <v>-1.72509</v>
       </c>
-      <c r="H37" s="49">
+      <c r="H37" s="50">
         <v>-1.59172</v>
       </c>
-      <c r="I37" s="47">
+      <c r="I37" s="48">
         <v>-1.75615668256331</v>
       </c>
-      <c r="J37" s="50">
+      <c r="J37" s="51">
         <v>-0.55179622600991</v>
       </c>
-      <c r="K37" s="47">
+      <c r="K37" s="48">
         <v>-1.07522000002977</v>
       </c>
-      <c r="L37" s="33">
+      <c r="L37" s="34">
         <v>-5.809604633</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="27">
+      <c r="A38" s="28">
         <v>44075.0</v>
       </c>
-      <c r="B38" s="46">
+      <c r="B38" s="47">
         <v>44074.0</v>
       </c>
-      <c r="C38" s="47">
+      <c r="C38" s="48">
         <v>-1.931348653015396</v>
       </c>
-      <c r="D38" s="48">
+      <c r="D38" s="49">
         <v>-5.29212</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="50">
         <v>26.41</v>
       </c>
-      <c r="F38" s="49">
+      <c r="F38" s="50">
         <v>39.21</v>
       </c>
-      <c r="G38" s="50">
+      <c r="G38" s="51">
         <v>-1.62213</v>
       </c>
-      <c r="H38" s="49">
+      <c r="H38" s="50">
         <v>-1.45836</v>
       </c>
-      <c r="I38" s="47">
+      <c r="I38" s="48">
         <v>-1.47854206678912</v>
       </c>
-      <c r="J38" s="50">
+      <c r="J38" s="51">
         <v>-1.57347523359108</v>
       </c>
-      <c r="K38" s="47">
+      <c r="K38" s="48">
         <v>-1.4815360615111</v>
       </c>
-      <c r="L38" s="33">
+      <c r="L38" s="34">
         <v>-5.701923026</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="27">
+      <c r="A39" s="28">
         <v>44105.0</v>
       </c>
-      <c r="B39" s="46">
+      <c r="B39" s="47">
         <v>44104.0</v>
       </c>
-      <c r="C39" s="47">
+      <c r="C39" s="48">
         <v>-2.026543945684538</v>
       </c>
-      <c r="D39" s="48">
+      <c r="D39" s="49">
         <v>-4.95207</v>
       </c>
-      <c r="E39" s="49">
+      <c r="E39" s="50">
         <v>26.37</v>
       </c>
-      <c r="F39" s="49">
+      <c r="F39" s="50">
         <v>61.91</v>
       </c>
-      <c r="G39" s="50">
+      <c r="G39" s="51">
         <v>-1.58015</v>
       </c>
-      <c r="H39" s="49">
+      <c r="H39" s="50">
         <v>-1.30006</v>
       </c>
-      <c r="I39" s="47">
+      <c r="I39" s="48">
         <v>-1.16956913277374</v>
       </c>
-      <c r="J39" s="50">
+      <c r="J39" s="51">
         <v>-1.79240823300453</v>
       </c>
-      <c r="K39" s="47">
+      <c r="K39" s="48">
         <v>-1.03901464878443</v>
       </c>
-      <c r="L39" s="33">
+      <c r="L39" s="34">
         <v>-6.256997281</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="27">
+      <c r="A40" s="28">
         <v>44136.0</v>
       </c>
-      <c r="B40" s="46">
+      <c r="B40" s="47">
         <v>44135.0</v>
       </c>
-      <c r="C40" s="47">
+      <c r="C40" s="48">
         <v>-2.109797580992602</v>
       </c>
-      <c r="D40" s="48">
+      <c r="D40" s="49">
         <v>-4.96291</v>
       </c>
-      <c r="E40" s="49">
+      <c r="E40" s="50">
         <v>38.02</v>
       </c>
-      <c r="F40" s="49">
+      <c r="F40" s="50">
         <v>40.84</v>
       </c>
-      <c r="G40" s="50">
+      <c r="G40" s="51">
         <v>-2.25572</v>
       </c>
-      <c r="H40" s="49">
+      <c r="H40" s="50">
         <v>-1.72729</v>
       </c>
-      <c r="I40" s="47">
+      <c r="I40" s="48">
         <v>-1.96754130413305</v>
       </c>
-      <c r="J40" s="50">
+      <c r="J40" s="51">
         <v>-2.91667110777569</v>
       </c>
-      <c r="K40" s="47">
+      <c r="K40" s="48">
         <v>-1.80198559748671</v>
       </c>
-      <c r="L40" s="33">
+      <c r="L40" s="34">
         <v>-6.305516281</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="27">
+      <c r="A41" s="28">
         <v>44166.0</v>
       </c>
-      <c r="B41" s="46">
+      <c r="B41" s="47">
         <v>44165.0</v>
       </c>
-      <c r="C41" s="47">
+      <c r="C41" s="48">
         <v>-1.638412886720114</v>
       </c>
-      <c r="D41" s="48">
+      <c r="D41" s="49">
         <v>-5.10464</v>
       </c>
-      <c r="E41" s="49">
+      <c r="E41" s="50">
         <v>20.57</v>
       </c>
-      <c r="F41" s="49">
+      <c r="F41" s="50">
         <v>48.98</v>
       </c>
-      <c r="G41" s="50">
+      <c r="G41" s="51">
         <v>-0.57352</v>
       </c>
-      <c r="H41" s="49">
+      <c r="H41" s="50">
         <v>-1.01388</v>
       </c>
-      <c r="I41" s="47">
+      <c r="I41" s="48">
         <v>-1.35510790803622</v>
       </c>
-      <c r="J41" s="50">
+      <c r="J41" s="51">
         <v>-1.12316604526583</v>
       </c>
-      <c r="K41" s="47">
+      <c r="K41" s="48">
         <v>-1.0508639847258</v>
       </c>
-      <c r="L41" s="33">
+      <c r="L41" s="34">
         <v>-6.316151412</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="27">
+      <c r="A42" s="28">
         <v>44197.0</v>
       </c>
-      <c r="B42" s="46">
+      <c r="B42" s="47">
         <v>44196.0</v>
       </c>
-      <c r="C42" s="47">
+      <c r="C42" s="48">
         <v>-1.664997992818081</v>
       </c>
-      <c r="D42" s="48">
+      <c r="D42" s="49">
         <v>-4.72009</v>
       </c>
-      <c r="E42" s="49">
+      <c r="E42" s="50">
         <v>22.75</v>
       </c>
-      <c r="F42" s="49">
+      <c r="F42" s="50">
         <v>47.41</v>
       </c>
-      <c r="G42" s="50">
+      <c r="G42" s="51">
         <v>-0.31981</v>
       </c>
-      <c r="H42" s="49">
+      <c r="H42" s="50">
         <v>-1.00266</v>
       </c>
-      <c r="I42" s="47">
+      <c r="I42" s="48">
         <v>-1.4408469368031</v>
       </c>
-      <c r="J42" s="50">
+      <c r="J42" s="51">
         <v>-1.0190284640287</v>
       </c>
-      <c r="K42" s="47">
+      <c r="K42" s="48">
         <v>-1.05623598482307</v>
       </c>
-      <c r="L42" s="33">
+      <c r="L42" s="34">
         <v>-5.805236513</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="27">
+      <c r="A43" s="28">
         <v>44228.0</v>
       </c>
-      <c r="B43" s="46">
+      <c r="B43" s="47">
         <v>44227.0</v>
       </c>
-      <c r="C43" s="47">
+      <c r="C43" s="48">
         <v>-1.151457619134413</v>
       </c>
-      <c r="D43" s="48">
+      <c r="D43" s="49">
         <v>-4.15182</v>
       </c>
-      <c r="E43" s="49">
+      <c r="E43" s="50">
         <v>33.09</v>
       </c>
-      <c r="F43" s="49">
+      <c r="F43" s="50">
         <v>75.66</v>
       </c>
-      <c r="G43" s="50">
+      <c r="G43" s="51">
         <v>-0.52766</v>
       </c>
-      <c r="H43" s="49">
+      <c r="H43" s="50">
         <v>-0.95816</v>
       </c>
-      <c r="I43" s="47">
+      <c r="I43" s="48">
         <v>-0.781911715199769</v>
       </c>
-      <c r="J43" s="50">
+      <c r="J43" s="51">
         <v>0.609600348808313</v>
       </c>
-      <c r="K43" s="47">
+      <c r="K43" s="48">
         <v>-0.653147849039664</v>
       </c>
-      <c r="L43" s="33">
+      <c r="L43" s="34">
         <v>-4.972554622</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="27">
+      <c r="A44" s="28">
         <v>44256.0</v>
       </c>
-      <c r="B44" s="46">
+      <c r="B44" s="47">
         <v>44255.0</v>
       </c>
-      <c r="C44" s="47">
+      <c r="C44" s="48">
         <v>-1.272595091069218</v>
       </c>
-      <c r="D44" s="48">
+      <c r="D44" s="49">
         <v>-5.27564</v>
       </c>
-      <c r="E44" s="49">
+      <c r="E44" s="50">
         <v>27.95</v>
       </c>
-      <c r="F44" s="49">
+      <c r="F44" s="50">
         <v>71.27</v>
       </c>
-      <c r="G44" s="50">
+      <c r="G44" s="51">
         <v>-0.7812</v>
       </c>
-      <c r="H44" s="49">
+      <c r="H44" s="50">
         <v>-1.00032</v>
       </c>
-      <c r="I44" s="47">
+      <c r="I44" s="48">
         <v>-1.29017629203795</v>
       </c>
-      <c r="J44" s="50">
+      <c r="J44" s="51">
         <v>-0.382356565616928</v>
       </c>
-      <c r="K44" s="47">
+      <c r="K44" s="48">
         <v>-0.640626852228191</v>
       </c>
-      <c r="L44" s="33">
+      <c r="L44" s="34">
         <v>-5.698923054</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="27">
+      <c r="A45" s="28">
         <v>44287.0</v>
       </c>
-      <c r="B45" s="46">
+      <c r="B45" s="47">
         <v>44286.0</v>
       </c>
-      <c r="C45" s="47">
+      <c r="C45" s="48">
         <v>-1.565352421244022</v>
       </c>
-      <c r="D45" s="48">
+      <c r="D45" s="49">
         <v>-3.88138</v>
       </c>
-      <c r="E45" s="49">
+      <c r="E45" s="50">
         <v>19.4</v>
       </c>
-      <c r="F45" s="49">
+      <c r="F45" s="50">
         <v>58.13</v>
       </c>
-      <c r="G45" s="50">
+      <c r="G45" s="51">
         <v>-1.29377</v>
       </c>
-      <c r="H45" s="49">
+      <c r="H45" s="50">
         <v>-1.57108</v>
       </c>
-      <c r="I45" s="47">
+      <c r="I45" s="48">
         <v>-1.40282826895155</v>
       </c>
-      <c r="J45" s="50">
+      <c r="J45" s="51">
         <v>-1.26777390948025</v>
       </c>
-      <c r="K45" s="47">
+      <c r="K45" s="48">
         <v>-1.04959426926449</v>
       </c>
-      <c r="L45" s="33">
+      <c r="L45" s="34">
         <v>-6.273788028</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="27">
+      <c r="A46" s="28">
         <v>44317.0</v>
       </c>
-      <c r="B46" s="46">
+      <c r="B46" s="47">
         <v>44316.0</v>
       </c>
-      <c r="C46" s="47">
+      <c r="C46" s="48">
         <v>-1.618441641959174</v>
       </c>
-      <c r="D46" s="48">
+      <c r="D46" s="49">
         <v>-5.0007</v>
       </c>
-      <c r="E46" s="49">
+      <c r="E46" s="50">
         <v>18.61</v>
       </c>
-      <c r="F46" s="49">
+      <c r="F46" s="50">
         <v>52.04</v>
       </c>
-      <c r="G46" s="50">
+      <c r="G46" s="51">
         <v>-0.31805</v>
       </c>
-      <c r="H46" s="49">
+      <c r="H46" s="50">
         <v>-1.12234</v>
       </c>
-      <c r="I46" s="47">
+      <c r="I46" s="48">
         <v>-1.39034340530028</v>
       </c>
-      <c r="J46" s="50">
+      <c r="J46" s="51">
         <v>0.0753231412470769</v>
       </c>
-      <c r="K46" s="47">
+      <c r="K46" s="48">
         <v>-1.39090073559961</v>
       </c>
-      <c r="L46" s="33">
+      <c r="L46" s="34">
         <v>-5.975717206</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="27">
+      <c r="A47" s="28">
         <v>44348.0</v>
       </c>
-      <c r="B47" s="46">
+      <c r="B47" s="47">
         <v>44347.0</v>
       </c>
-      <c r="C47" s="47">
+      <c r="C47" s="48">
         <v>-1.062397814566061</v>
       </c>
-      <c r="D47" s="48">
+      <c r="D47" s="49">
         <v>-4.90524</v>
       </c>
-      <c r="E47" s="49">
+      <c r="E47" s="50">
         <v>16.76</v>
       </c>
-      <c r="F47" s="49">
+      <c r="F47" s="50">
         <v>57.27</v>
       </c>
-      <c r="G47" s="50">
+      <c r="G47" s="51">
         <v>-0.43955</v>
       </c>
-      <c r="H47" s="49">
+      <c r="H47" s="50">
         <v>-0.347</v>
       </c>
-      <c r="I47" s="47">
+      <c r="I47" s="48">
         <v>-0.541590269773599</v>
       </c>
-      <c r="J47" s="50">
+      <c r="J47" s="51">
         <v>-0.224957232378621</v>
       </c>
-      <c r="K47" s="47">
+      <c r="K47" s="48">
         <v>-0.458795408263036</v>
       </c>
-      <c r="L47" s="33">
+      <c r="L47" s="34">
         <v>-5.877198979</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="27">
+      <c r="A48" s="28">
         <v>44378.0</v>
       </c>
-      <c r="B48" s="46">
+      <c r="B48" s="47">
         <v>44377.0</v>
       </c>
-      <c r="C48" s="47">
+      <c r="C48" s="48">
         <v>-1.433935278331476</v>
       </c>
-      <c r="D48" s="48">
+      <c r="D48" s="49">
         <v>-5.96596</v>
       </c>
-      <c r="E48" s="49">
+      <c r="E48" s="50">
         <v>15.83</v>
       </c>
-      <c r="F48" s="49">
+      <c r="F48" s="50">
         <v>61.19</v>
       </c>
-      <c r="G48" s="50">
+      <c r="G48" s="51">
         <v>-0.93215</v>
       </c>
-      <c r="H48" s="49">
+      <c r="H48" s="50">
         <v>-1.12185</v>
       </c>
-      <c r="I48" s="47">
+      <c r="I48" s="48">
         <v>-1.21518563846743</v>
       </c>
-      <c r="J48" s="50">
+      <c r="J48" s="51">
         <v>-0.532618377886764</v>
       </c>
-      <c r="K48" s="47">
+      <c r="K48" s="48">
         <v>-1.17470427840261</v>
       </c>
-      <c r="L48" s="33">
+      <c r="L48" s="34">
         <v>-6.691653603</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="27">
+      <c r="A49" s="28">
         <v>44409.0</v>
       </c>
-      <c r="B49" s="46">
+      <c r="B49" s="47">
         <v>44408.0</v>
       </c>
-      <c r="C49" s="47">
+      <c r="C49" s="48">
         <v>-1.719845706939801</v>
       </c>
-      <c r="D49" s="48">
+      <c r="D49" s="49">
         <v>-6.08298</v>
       </c>
-      <c r="E49" s="49">
+      <c r="E49" s="50">
         <v>18.24</v>
       </c>
-      <c r="F49" s="49">
+      <c r="F49" s="50">
         <v>59.54</v>
       </c>
-      <c r="G49" s="50">
+      <c r="G49" s="51">
         <v>-1.51718</v>
       </c>
-      <c r="H49" s="49">
+      <c r="H49" s="50">
         <v>-1.71215</v>
       </c>
-      <c r="I49" s="47">
+      <c r="I49" s="48">
         <v>-1.46986175995503</v>
       </c>
-      <c r="J49" s="50">
+      <c r="J49" s="51">
         <v>-1.46719664187175</v>
       </c>
-      <c r="K49" s="47">
+      <c r="K49" s="48">
         <v>-1.69243715547258</v>
       </c>
-      <c r="L49" s="33">
+      <c r="L49" s="34">
         <v>-6.561113124</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="27">
+      <c r="A50" s="28">
         <v>44440.0</v>
       </c>
-      <c r="B50" s="46">
+      <c r="B50" s="47">
         <v>44439.0</v>
       </c>
-      <c r="C50" s="47">
+      <c r="C50" s="48">
         <v>-1.790445309379463</v>
       </c>
-      <c r="D50" s="48">
+      <c r="D50" s="49">
         <v>-5.80858</v>
       </c>
-      <c r="E50" s="49">
+      <c r="E50" s="50">
         <v>16.48</v>
       </c>
-      <c r="F50" s="49">
+      <c r="F50" s="50">
         <v>61.07</v>
       </c>
-      <c r="G50" s="50">
+      <c r="G50" s="51">
         <v>-0.94837</v>
       </c>
-      <c r="H50" s="49">
+      <c r="H50" s="50">
         <v>-1.41319</v>
       </c>
-      <c r="I50" s="47">
+      <c r="I50" s="48">
         <v>-1.46261277967365</v>
       </c>
-      <c r="J50" s="50">
+      <c r="J50" s="51">
         <v>-0.883664354756081</v>
       </c>
-      <c r="K50" s="47">
+      <c r="K50" s="48">
         <v>-0.971470335526978</v>
       </c>
-      <c r="L50" s="33">
+      <c r="L50" s="34">
         <v>-6.358050308</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="27">
+      <c r="A51" s="28">
         <v>44470.0</v>
       </c>
-      <c r="B51" s="46">
+      <c r="B51" s="47">
         <v>44469.0</v>
       </c>
-      <c r="C51" s="47">
+      <c r="C51" s="48">
         <v>-1.61821325801453</v>
       </c>
-      <c r="D51" s="48">
+      <c r="D51" s="49">
         <v>-5.96172</v>
       </c>
-      <c r="E51" s="49">
+      <c r="E51" s="50">
         <v>23.14</v>
       </c>
-      <c r="F51" s="49">
+      <c r="F51" s="50">
         <v>75.45</v>
       </c>
-      <c r="G51" s="50">
+      <c r="G51" s="51">
         <v>-1.10525</v>
       </c>
-      <c r="H51" s="49">
+      <c r="H51" s="50">
         <v>-1.03737</v>
       </c>
-      <c r="I51" s="47">
+      <c r="I51" s="48">
         <v>-1.17709766755151</v>
       </c>
-      <c r="J51" s="50">
+      <c r="J51" s="51">
         <v>-1.20551058609922</v>
       </c>
-      <c r="K51" s="47">
+      <c r="K51" s="48">
         <v>-1.25269033604408</v>
       </c>
-      <c r="L51" s="33">
+      <c r="L51" s="34">
         <v>-6.67254335</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="27">
+      <c r="A52" s="28">
         <v>44501.0</v>
       </c>
-      <c r="B52" s="46">
+      <c r="B52" s="47">
         <v>44500.0</v>
       </c>
-      <c r="C52" s="47">
+      <c r="C52" s="48">
         <v>-1.575830380298355</v>
       </c>
-      <c r="D52" s="48">
+      <c r="D52" s="49">
         <v>-6.20878</v>
       </c>
-      <c r="E52" s="49">
+      <c r="E52" s="50">
         <v>16.26</v>
       </c>
-      <c r="F52" s="49">
+      <c r="F52" s="50">
         <v>84.04</v>
       </c>
-      <c r="G52" s="50">
+      <c r="G52" s="51">
         <v>-1.5695</v>
       </c>
-      <c r="H52" s="49">
+      <c r="H52" s="50">
         <v>-1.59681</v>
       </c>
-      <c r="I52" s="47">
+      <c r="I52" s="48">
         <v>-1.56068245413253</v>
       </c>
-      <c r="J52" s="50">
+      <c r="J52" s="51">
         <v>-1.09397569171674</v>
       </c>
-      <c r="K52" s="47">
+      <c r="K52" s="48">
         <v>-1.77953484605868</v>
       </c>
-      <c r="L52" s="33">
+      <c r="L52" s="34">
         <v>-6.474065442</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="27">
+      <c r="A53" s="28">
         <v>44531.0</v>
       </c>
-      <c r="B53" s="46">
+      <c r="B53" s="47">
         <v>44530.0</v>
       </c>
-      <c r="C53" s="47">
+      <c r="C53" s="48">
         <v>-1.76093613538063</v>
       </c>
-      <c r="D53" s="48">
+      <c r="D53" s="49">
         <v>-5.84129</v>
       </c>
-      <c r="E53" s="49">
+      <c r="E53" s="50">
         <v>27.19</v>
       </c>
-      <c r="F53" s="49">
+      <c r="F53" s="50">
         <v>77.1</v>
       </c>
-      <c r="G53" s="50">
+      <c r="G53" s="51">
         <v>-1.56003</v>
       </c>
-      <c r="H53" s="49">
+      <c r="H53" s="50">
         <v>-1.09144</v>
       </c>
-      <c r="I53" s="47">
+      <c r="I53" s="48">
         <v>-1.46539713770508</v>
       </c>
-      <c r="J53" s="50">
+      <c r="J53" s="51">
         <v>-1.59139004677259</v>
       </c>
-      <c r="K53" s="47">
+      <c r="K53" s="48">
         <v>-1.56775279286737</v>
       </c>
-      <c r="L53" s="33">
+      <c r="L53" s="34">
         <v>-6.524596769</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="27">
+      <c r="A54" s="28">
         <v>44562.0</v>
       </c>
-      <c r="B54" s="46">
+      <c r="B54" s="47">
         <v>44561.0</v>
       </c>
-      <c r="C54" s="47">
+      <c r="C54" s="48">
         <v>-1.719684931965767</v>
       </c>
-      <c r="D54" s="48">
+      <c r="D54" s="49">
         <v>-6.11002</v>
       </c>
-      <c r="E54" s="49">
+      <c r="E54" s="50">
         <v>17.22</v>
       </c>
-      <c r="F54" s="49">
+      <c r="F54" s="50">
         <v>85.14</v>
       </c>
-      <c r="G54" s="50">
+      <c r="G54" s="51">
         <v>-1.39937</v>
       </c>
-      <c r="H54" s="49">
+      <c r="H54" s="50">
         <v>-1.35112</v>
       </c>
-      <c r="I54" s="47">
+      <c r="I54" s="48">
         <v>-1.63405625386068</v>
       </c>
-      <c r="J54" s="50">
+      <c r="J54" s="51">
         <v>-1.22226867839085</v>
       </c>
-      <c r="K54" s="47">
+      <c r="K54" s="48">
         <v>-1.14496989646397</v>
       </c>
-      <c r="L54" s="33">
+      <c r="L54" s="34">
         <v>-6.596941553</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="27">
+      <c r="A55" s="28">
         <v>44593.0</v>
       </c>
-      <c r="B55" s="46">
+      <c r="B55" s="47">
         <v>44592.0</v>
       </c>
-      <c r="C55" s="47">
+      <c r="C55" s="48">
         <v>-1.771224699004441</v>
       </c>
-      <c r="D55" s="48">
+      <c r="D55" s="49">
         <v>-5.77526</v>
       </c>
-      <c r="E55" s="49">
+      <c r="E55" s="50">
         <v>24.83</v>
       </c>
-      <c r="F55" s="49">
+      <c r="F55" s="50">
         <v>100.4</v>
       </c>
-      <c r="G55" s="50">
+      <c r="G55" s="51">
         <v>-1.63071</v>
       </c>
-      <c r="H55" s="49">
+      <c r="H55" s="50">
         <v>-1.43759</v>
       </c>
-      <c r="I55" s="47">
+      <c r="I55" s="48">
         <v>-1.40769462671054</v>
       </c>
-      <c r="J55" s="50">
+      <c r="J55" s="51">
         <v>-1.49775625046397</v>
       </c>
-      <c r="K55" s="47">
+      <c r="K55" s="48">
         <v>-1.13943854567246</v>
       </c>
-      <c r="L55" s="33">
+      <c r="L55" s="34">
         <v>-6.750080097</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="27">
+      <c r="A56" s="28">
         <v>44621.0</v>
       </c>
-      <c r="B56" s="46">
+      <c r="B56" s="47">
         <v>44620.0</v>
       </c>
-      <c r="C56" s="47">
+      <c r="C56" s="48">
         <v>-1.565235223519028</v>
       </c>
-      <c r="D56" s="48">
+      <c r="D56" s="49">
         <v>-5.853</v>
       </c>
-      <c r="E56" s="49">
+      <c r="E56" s="50">
         <v>30.15</v>
       </c>
-      <c r="F56" s="49">
+      <c r="F56" s="50">
         <v>106.88</v>
       </c>
-      <c r="G56" s="50">
+      <c r="G56" s="51">
         <v>-1.08252</v>
       </c>
-      <c r="H56" s="49">
+      <c r="H56" s="50">
         <v>-1.35486</v>
       </c>
-      <c r="I56" s="47">
+      <c r="I56" s="48">
         <v>-1.39328923294469</v>
       </c>
-      <c r="J56" s="50">
+      <c r="J56" s="51">
         <v>-1.55440371340291</v>
       </c>
-      <c r="K56" s="47">
+      <c r="K56" s="48">
         <v>-1.40653930729166</v>
       </c>
-      <c r="L56" s="33">
+      <c r="L56" s="34">
         <v>-7.263945392</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="27">
+      <c r="A57" s="28">
         <v>44652.0</v>
       </c>
-      <c r="B57" s="46">
+      <c r="B57" s="47">
         <v>44651.0</v>
       </c>
-      <c r="C57" s="47">
+      <c r="C57" s="48">
         <v>-1.714091230801427</v>
       </c>
-      <c r="D57" s="48">
+      <c r="D57" s="49">
         <v>-5.72414</v>
       </c>
-      <c r="E57" s="49">
+      <c r="E57" s="50">
         <v>20.56</v>
       </c>
-      <c r="F57" s="49">
+      <c r="F57" s="50">
         <v>128.4</v>
       </c>
-      <c r="G57" s="50">
+      <c r="G57" s="51">
         <v>-1.7247</v>
       </c>
-      <c r="H57" s="49">
+      <c r="H57" s="50">
         <v>-1.63452</v>
       </c>
-      <c r="I57" s="47">
+      <c r="I57" s="48">
         <v>-1.73473048523666</v>
       </c>
-      <c r="J57" s="50">
+      <c r="J57" s="51">
         <v>-1.71228893433712</v>
       </c>
-      <c r="K57" s="47">
+      <c r="K57" s="48">
         <v>-1.47034723577732</v>
       </c>
-      <c r="L57" s="33">
+      <c r="L57" s="34">
         <v>-7.171313115</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="27">
+      <c r="A58" s="28">
         <v>44682.0</v>
       </c>
-      <c r="B58" s="46">
+      <c r="B58" s="47">
         <v>44681.0</v>
       </c>
-      <c r="C58" s="47">
+      <c r="C58" s="48">
         <v>-1.984018359708286</v>
       </c>
-      <c r="D58" s="48">
+      <c r="D58" s="49">
         <v>-7.5626</v>
       </c>
-      <c r="E58" s="49">
+      <c r="E58" s="50">
         <v>33.4</v>
       </c>
-      <c r="F58" s="49">
+      <c r="F58" s="50">
         <v>107.12</v>
       </c>
-      <c r="G58" s="50">
+      <c r="G58" s="51">
         <v>-1.6241</v>
       </c>
-      <c r="H58" s="49">
+      <c r="H58" s="50">
         <v>-1.61109</v>
       </c>
-      <c r="I58" s="47">
+      <c r="I58" s="48">
         <v>-1.75950553793066</v>
       </c>
-      <c r="J58" s="50">
+      <c r="J58" s="51">
         <v>-1.00544589262003</v>
       </c>
-      <c r="K58" s="47">
+      <c r="K58" s="48">
         <v>-1.46250031104121</v>
       </c>
-      <c r="L58" s="33">
+      <c r="L58" s="34">
         <v>-7.093142891</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="27">
+      <c r="A59" s="28">
         <v>44713.0</v>
       </c>
-      <c r="B59" s="46">
+      <c r="B59" s="47">
         <v>44712.0</v>
       </c>
-      <c r="C59" s="47">
+      <c r="C59" s="48">
         <v>-1.526725016140443</v>
       </c>
-      <c r="D59" s="48">
+      <c r="D59" s="49">
         <v>-5.4975</v>
       </c>
-      <c r="E59" s="49">
+      <c r="E59" s="50">
         <v>26.19</v>
       </c>
-      <c r="F59" s="49">
+      <c r="F59" s="50">
         <v>135.5</v>
       </c>
-      <c r="G59" s="50">
+      <c r="G59" s="51">
         <v>-1.04843</v>
       </c>
-      <c r="H59" s="49">
+      <c r="H59" s="50">
         <v>-0.92429</v>
       </c>
-      <c r="I59" s="47">
+      <c r="I59" s="48">
         <v>-1.20256630733774</v>
       </c>
-      <c r="J59" s="50">
+      <c r="J59" s="51">
         <v>-0.971041979595694</v>
       </c>
-      <c r="K59" s="47">
+      <c r="K59" s="48">
         <v>-0.712988834110466</v>
       </c>
-      <c r="L59" s="33">
+      <c r="L59" s="34">
         <v>-5.050643722</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="27">
+      <c r="A60" s="28">
         <v>44743.0</v>
       </c>
-      <c r="B60" s="46">
+      <c r="B60" s="47">
         <v>44742.0</v>
       </c>
-      <c r="C60" s="47">
+      <c r="C60" s="48">
         <v>-1.144112763642448</v>
       </c>
-      <c r="D60" s="48">
+      <c r="D60" s="49">
         <v>-5.87895</v>
       </c>
-      <c r="E60" s="49">
+      <c r="E60" s="50">
         <v>28.71</v>
       </c>
-      <c r="F60" s="49">
+      <c r="F60" s="50">
         <v>116.36</v>
       </c>
-      <c r="G60" s="50">
+      <c r="G60" s="51">
         <v>-1.42657</v>
       </c>
-      <c r="H60" s="49">
+      <c r="H60" s="50">
         <v>-1.14955</v>
       </c>
-      <c r="I60" s="47">
+      <c r="I60" s="48">
         <v>-1.05103172557745</v>
       </c>
-      <c r="J60" s="50">
+      <c r="J60" s="51">
         <v>-0.991505037894165</v>
       </c>
-      <c r="K60" s="47">
+      <c r="K60" s="48">
         <v>-1.14841368173596</v>
       </c>
-      <c r="L60" s="33">
+      <c r="L60" s="34">
         <v>-6.762456414</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="27">
+      <c r="A61" s="28">
         <v>44774.0</v>
       </c>
-      <c r="B61" s="46">
+      <c r="B61" s="47">
         <v>44773.0</v>
       </c>
-      <c r="C61" s="47">
+      <c r="C61" s="48">
         <v>-1.670591292575045</v>
       </c>
-      <c r="D61" s="48">
+      <c r="D61" s="49">
         <v>-6.73896</v>
       </c>
-      <c r="E61" s="49">
+      <c r="E61" s="50">
         <v>21.33</v>
       </c>
-      <c r="F61" s="49">
+      <c r="F61" s="50">
         <v>124.84</v>
       </c>
-      <c r="G61" s="50">
+      <c r="G61" s="51">
         <v>-1.68001</v>
       </c>
-      <c r="H61" s="49">
+      <c r="H61" s="50">
         <v>-1.50555</v>
       </c>
-      <c r="I61" s="47">
+      <c r="I61" s="48">
         <v>-1.15363202795566</v>
       </c>
-      <c r="J61" s="50">
+      <c r="J61" s="51">
         <v>-1.64849858188179</v>
       </c>
-      <c r="K61" s="47">
+      <c r="K61" s="48">
         <v>-1.50073557320393</v>
       </c>
-      <c r="L61" s="33">
+      <c r="L61" s="34">
         <v>-7.10841829</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="27">
+      <c r="A62" s="28">
         <v>44805.0</v>
       </c>
-      <c r="B62" s="46">
+      <c r="B62" s="47">
         <v>44804.0</v>
       </c>
-      <c r="C62" s="47">
+      <c r="C62" s="48">
         <v>-1.899579714715777</v>
       </c>
-      <c r="D62" s="48">
+      <c r="D62" s="49">
         <v>-7.36595</v>
       </c>
-      <c r="E62" s="49">
+      <c r="E62" s="50">
         <v>25.87</v>
       </c>
-      <c r="F62" s="49">
+      <c r="F62" s="50">
         <v>141.89</v>
       </c>
-      <c r="G62" s="50">
+      <c r="G62" s="51">
         <v>-1.96877</v>
       </c>
-      <c r="H62" s="49">
+      <c r="H62" s="50">
         <v>-1.60867</v>
       </c>
-      <c r="I62" s="47">
+      <c r="I62" s="48">
         <v>-1.34657982602319</v>
       </c>
-      <c r="J62" s="50">
+      <c r="J62" s="51">
         <v>-1.3706794234465</v>
       </c>
-      <c r="K62" s="47">
+      <c r="K62" s="48">
         <v>-1.54979726864986</v>
       </c>
-      <c r="L62" s="33">
+      <c r="L62" s="34">
         <v>-7.621180091</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="27">
+      <c r="A63" s="28">
         <v>44835.0</v>
       </c>
-      <c r="B63" s="46">
+      <c r="B63" s="47">
         <v>44834.0</v>
       </c>
-      <c r="C63" s="47">
+      <c r="C63" s="48">
         <v>-1.818175136889399</v>
       </c>
-      <c r="D63" s="48">
+      <c r="D63" s="49">
         <v>-6.43807</v>
       </c>
-      <c r="E63" s="49">
+      <c r="E63" s="50">
         <v>31.62</v>
       </c>
-      <c r="F63" s="49">
+      <c r="F63" s="50">
         <v>147.92</v>
       </c>
-      <c r="G63" s="50">
+      <c r="G63" s="51">
         <v>-1.14814</v>
       </c>
-      <c r="H63" s="49">
+      <c r="H63" s="50">
         <v>-1.53806</v>
       </c>
-      <c r="I63" s="47">
+      <c r="I63" s="48">
         <v>-1.48771432448707</v>
       </c>
-      <c r="J63" s="50">
+      <c r="J63" s="51">
         <v>-1.72751103047402</v>
       </c>
-      <c r="K63" s="47">
+      <c r="K63" s="48">
         <v>-1.66387888661472</v>
       </c>
-      <c r="L63" s="33">
+      <c r="L63" s="34">
         <v>-7.35349457</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="27">
+      <c r="A64" s="28">
         <v>44866.0</v>
       </c>
-      <c r="B64" s="46">
+      <c r="B64" s="47">
         <v>44865.0</v>
       </c>
-      <c r="C64" s="47">
+      <c r="C64" s="48">
         <v>-2.45122433422869</v>
       </c>
-      <c r="D64" s="48">
+      <c r="D64" s="49">
         <v>-6.63107</v>
       </c>
-      <c r="E64" s="49">
+      <c r="E64" s="50">
         <v>25.88</v>
       </c>
-      <c r="F64" s="49">
+      <c r="F64" s="50">
         <v>127.27</v>
       </c>
-      <c r="G64" s="50">
+      <c r="G64" s="51">
         <v>-1.87678</v>
       </c>
-      <c r="H64" s="49">
+      <c r="H64" s="50">
         <v>-2.10134</v>
       </c>
-      <c r="I64" s="47">
+      <c r="I64" s="48">
         <v>-1.86367519019219</v>
       </c>
-      <c r="J64" s="50">
+      <c r="J64" s="51">
         <v>-0.814276760461555</v>
       </c>
-      <c r="K64" s="47">
+      <c r="K64" s="48">
         <v>-1.74616323402233</v>
       </c>
-      <c r="L64" s="33">
+      <c r="L64" s="34">
         <v>-7.688033893</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="27">
+      <c r="A65" s="28">
         <v>44896.0</v>
       </c>
-      <c r="B65" s="46">
+      <c r="B65" s="47">
         <v>44895.0</v>
       </c>
-      <c r="C65" s="47">
+      <c r="C65" s="48">
         <v>-1.330309266271223</v>
       </c>
-      <c r="D65" s="48">
+      <c r="D65" s="49">
         <v>-4.44252</v>
       </c>
-      <c r="E65" s="49">
+      <c r="E65" s="50">
         <v>20.58</v>
       </c>
-      <c r="F65" s="49">
+      <c r="F65" s="50">
         <v>121.61</v>
       </c>
-      <c r="G65" s="50">
+      <c r="G65" s="51">
         <v>-1.00036</v>
       </c>
-      <c r="H65" s="49">
+      <c r="H65" s="50">
         <v>-0.96089</v>
       </c>
-      <c r="I65" s="47">
+      <c r="I65" s="48">
         <v>-1.07810815969853</v>
       </c>
-      <c r="J65" s="50">
+      <c r="J65" s="51">
         <v>-0.800320757561072</v>
       </c>
-      <c r="K65" s="47">
+      <c r="K65" s="48">
         <v>-1.27255229694242</v>
       </c>
-      <c r="L65" s="33">
+      <c r="L65" s="34">
         <v>-5.918832418</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="27">
+      <c r="A66" s="28">
         <v>44927.0</v>
       </c>
-      <c r="B66" s="46">
+      <c r="B66" s="47">
         <v>44926.0</v>
       </c>
-      <c r="C66" s="47">
+      <c r="C66" s="48">
         <v>-2.716113967438609</v>
       </c>
-      <c r="D66" s="48">
+      <c r="D66" s="49">
         <v>-5.99033</v>
       </c>
-      <c r="E66" s="49">
+      <c r="E66" s="50">
         <v>21.67</v>
       </c>
-      <c r="F66" s="49">
+      <c r="F66" s="50">
         <v>99.54</v>
       </c>
-      <c r="G66" s="50">
+      <c r="G66" s="51">
         <v>-1.97487</v>
       </c>
-      <c r="H66" s="49">
+      <c r="H66" s="50">
         <v>-1.87245</v>
       </c>
-      <c r="I66" s="47">
+      <c r="I66" s="48">
         <v>-1.99653981258519</v>
       </c>
-      <c r="J66" s="50">
+      <c r="J66" s="51">
         <v>-1.5281156988504</v>
       </c>
-      <c r="K66" s="47">
+      <c r="K66" s="48">
         <v>-1.78883784671973</v>
       </c>
-      <c r="L66" s="33">
+      <c r="L66" s="34">
         <v>-7.526735514</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="27">
+      <c r="A67" s="28">
         <v>44958.0</v>
       </c>
-      <c r="B67" s="46">
+      <c r="B67" s="47">
         <v>44957.0</v>
       </c>
-      <c r="C67" s="47">
+      <c r="C67" s="48">
         <v>-1.881206477820628</v>
       </c>
-      <c r="D67" s="48">
+      <c r="D67" s="49">
         <v>-6.04387</v>
       </c>
-      <c r="E67" s="49">
+      <c r="E67" s="50">
         <v>19.4</v>
       </c>
-      <c r="F67" s="49">
+      <c r="F67" s="50">
         <v>123.6</v>
       </c>
-      <c r="G67" s="50">
+      <c r="G67" s="51">
         <v>-1.89373</v>
       </c>
-      <c r="H67" s="49">
+      <c r="H67" s="50">
         <v>-1.75052</v>
       </c>
-      <c r="I67" s="47">
+      <c r="I67" s="48">
         <v>-1.84712758164215</v>
       </c>
-      <c r="J67" s="50">
+      <c r="J67" s="51">
         <v>-1.76973571924559</v>
       </c>
-      <c r="K67" s="47">
+      <c r="K67" s="48">
         <v>-1.59151847075779</v>
       </c>
-      <c r="L67" s="33">
+      <c r="L67" s="34">
         <v>-7.378591521</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="27">
+      <c r="A68" s="28">
         <v>44986.0</v>
       </c>
-      <c r="B68" s="46">
+      <c r="B68" s="47">
         <v>44985.0</v>
       </c>
-      <c r="C68" s="47">
+      <c r="C68" s="48">
         <v>-2.081699037920222</v>
       </c>
-      <c r="D68" s="48">
+      <c r="D68" s="49">
         <v>-6.04913</v>
       </c>
-      <c r="E68" s="49">
+      <c r="E68" s="50">
         <v>20.7</v>
       </c>
-      <c r="F68" s="49">
+      <c r="F68" s="50">
         <v>135.93</v>
       </c>
-      <c r="G68" s="50">
+      <c r="G68" s="51">
         <v>-2.14399</v>
       </c>
-      <c r="H68" s="49">
+      <c r="H68" s="50">
         <v>-1.83294</v>
       </c>
-      <c r="I68" s="47">
+      <c r="I68" s="48">
         <v>-1.96360361221607</v>
       </c>
-      <c r="J68" s="50">
+      <c r="J68" s="51">
         <v>-1.75209867083708</v>
       </c>
-      <c r="K68" s="47">
+      <c r="K68" s="48">
         <v>-1.64599787704206</v>
       </c>
-      <c r="L68" s="33">
+      <c r="L68" s="34">
         <v>-6.988708179</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="27">
+      <c r="A69" s="28">
         <v>45017.0</v>
       </c>
-      <c r="B69" s="46">
+      <c r="B69" s="47">
         <v>45016.0</v>
       </c>
-      <c r="C69" s="47">
+      <c r="C69" s="48">
         <v>-1.598381173558018</v>
       </c>
-      <c r="D69" s="48">
+      <c r="D69" s="49">
         <v>-4.44364</v>
       </c>
-      <c r="E69" s="49">
+      <c r="E69" s="50">
         <v>18.7</v>
       </c>
-      <c r="F69" s="49">
+      <c r="F69" s="50">
         <v>122.46</v>
       </c>
-      <c r="G69" s="50">
+      <c r="G69" s="51">
         <v>-1.18784</v>
       </c>
-      <c r="H69" s="49">
+      <c r="H69" s="50">
         <v>-1.31327</v>
       </c>
-      <c r="I69" s="47">
+      <c r="I69" s="48">
         <v>-1.68757681015823</v>
       </c>
-      <c r="J69" s="50">
+      <c r="J69" s="51">
         <v>-1.56970487878038</v>
       </c>
-      <c r="K69" s="47">
+      <c r="K69" s="48">
         <v>-1.49259768363382</v>
       </c>
-      <c r="L69" s="33">
+      <c r="L69" s="34">
         <v>-3.116977241</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="27">
+      <c r="A70" s="28">
         <v>45047.0</v>
       </c>
-      <c r="B70" s="46">
+      <c r="B70" s="47">
         <v>45046.0</v>
       </c>
-      <c r="C70" s="47">
+      <c r="C70" s="48">
         <v>-2.189837426918237</v>
       </c>
-      <c r="D70" s="48">
+      <c r="D70" s="49">
         <v>-6.06211</v>
       </c>
-      <c r="E70" s="49">
+      <c r="E70" s="50">
         <v>15.78</v>
       </c>
-      <c r="F70" s="49">
+      <c r="F70" s="50">
         <v>136.02</v>
       </c>
-      <c r="G70" s="50">
+      <c r="G70" s="51">
         <v>-1.84416</v>
       </c>
-      <c r="H70" s="49">
+      <c r="H70" s="50">
         <v>-1.80774</v>
       </c>
-      <c r="I70" s="47">
+      <c r="I70" s="48">
         <v>-1.9759297233745</v>
       </c>
-      <c r="J70" s="50">
+      <c r="J70" s="51">
         <v>-1.3276703692238</v>
       </c>
-      <c r="K70" s="47">
+      <c r="K70" s="48">
         <v>-1.95394253060513</v>
       </c>
-      <c r="L70" s="33">
+      <c r="L70" s="34">
         <v>-6.799690452</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="27">
+      <c r="A71" s="28">
         <v>45078.0</v>
       </c>
-      <c r="B71" s="46">
+      <c r="B71" s="47">
         <v>45077.0</v>
       </c>
-      <c r="C71" s="47">
+      <c r="C71" s="48">
         <v>-2.131353215425466</v>
       </c>
-      <c r="D71" s="48">
+      <c r="D71" s="49">
         <v>-5.89627</v>
       </c>
-      <c r="E71" s="49">
+      <c r="E71" s="50">
         <v>17.94</v>
       </c>
-      <c r="F71" s="49">
+      <c r="F71" s="50">
         <v>110.64</v>
       </c>
-      <c r="G71" s="50">
+      <c r="G71" s="51">
         <v>-2.16144</v>
       </c>
-      <c r="H71" s="49">
+      <c r="H71" s="50">
         <v>-1.81954</v>
       </c>
-      <c r="I71" s="47">
+      <c r="I71" s="48">
         <v>-2.18990995588822</v>
       </c>
-      <c r="J71" s="50">
+      <c r="J71" s="51">
         <v>-2.29836688111247</v>
       </c>
-      <c r="K71" s="47">
+      <c r="K71" s="48">
         <v>-2.27450289394505</v>
       </c>
-      <c r="L71" s="33">
+      <c r="L71" s="34">
         <v>-6.490377265</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="27">
+      <c r="A72" s="28">
         <v>45108.0</v>
       </c>
-      <c r="B72" s="46">
+      <c r="B72" s="47">
         <v>45107.0</v>
       </c>
-      <c r="C72" s="47">
+      <c r="C72" s="48">
         <v>-1.969862003002635</v>
       </c>
-      <c r="D72" s="48">
+      <c r="D72" s="49">
         <v>-6.30921</v>
       </c>
-      <c r="E72" s="49">
+      <c r="E72" s="50">
         <v>13.59</v>
       </c>
-      <c r="F72" s="49">
+      <c r="F72" s="50">
         <v>112.03</v>
       </c>
-      <c r="G72" s="50">
+      <c r="G72" s="51">
         <v>-1.88528</v>
       </c>
-      <c r="H72" s="49">
+      <c r="H72" s="50">
         <v>-1.11062</v>
       </c>
-      <c r="I72" s="47">
+      <c r="I72" s="48">
         <v>-1.97232683655779</v>
       </c>
-      <c r="J72" s="50">
+      <c r="J72" s="51">
         <v>-1.63986687210652</v>
       </c>
-      <c r="K72" s="47">
+      <c r="K72" s="48">
         <v>-1.53354347335525</v>
       </c>
-      <c r="L72" s="33">
+      <c r="L72" s="34">
         <v>-6.504703704</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="27">
+      <c r="A73" s="28">
         <v>45139.0</v>
       </c>
-      <c r="B73" s="46">
+      <c r="B73" s="47">
         <v>45138.0</v>
       </c>
-      <c r="C73" s="47">
+      <c r="C73" s="48">
         <v>-2.586128917826219</v>
       </c>
-      <c r="D73" s="48">
+      <c r="D73" s="49">
         <v>-5.97555</v>
       </c>
-      <c r="E73" s="49">
+      <c r="E73" s="50">
         <v>13.63</v>
       </c>
-      <c r="F73" s="49">
+      <c r="F73" s="50">
         <v>107.93</v>
       </c>
-      <c r="G73" s="50">
+      <c r="G73" s="51">
         <v>-0.54752</v>
       </c>
-      <c r="H73" s="49">
+      <c r="H73" s="50">
         <v>-1.79117</v>
       </c>
-      <c r="I73" s="47">
+      <c r="I73" s="48">
         <v>-2.36571086862689</v>
       </c>
-      <c r="J73" s="50">
+      <c r="J73" s="51">
         <v>-1.71299182375887</v>
       </c>
-      <c r="K73" s="47">
+      <c r="K73" s="48">
         <v>-1.39132637114156</v>
       </c>
-      <c r="L73" s="33">
+      <c r="L73" s="34">
         <v>-7.285127154</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="27">
+      <c r="A74" s="28">
         <v>45170.0</v>
       </c>
-      <c r="B74" s="46">
+      <c r="B74" s="47">
         <v>45169.0</v>
       </c>
-      <c r="C74" s="47">
+      <c r="C74" s="48">
         <v>-2.126175742927716</v>
       </c>
-      <c r="D74" s="48">
+      <c r="D74" s="49">
         <v>-5.40412</v>
       </c>
-      <c r="E74" s="49">
+      <c r="E74" s="50">
         <v>13.57</v>
       </c>
-      <c r="F74" s="49">
+      <c r="F74" s="50">
         <v>113.55</v>
       </c>
-      <c r="G74" s="50">
+      <c r="G74" s="51">
         <v>-1.64322</v>
       </c>
-      <c r="H74" s="49">
+      <c r="H74" s="50">
         <v>-1.5795</v>
       </c>
-      <c r="I74" s="47">
+      <c r="I74" s="48">
         <v>-2.24244004753807</v>
       </c>
-      <c r="J74" s="50">
+      <c r="J74" s="51">
         <v>-1.82844366824831</v>
       </c>
-      <c r="K74" s="47">
+      <c r="K74" s="48">
         <v>-2.02789694322581</v>
       </c>
-      <c r="L74" s="33">
+      <c r="L74" s="34">
         <v>-6.134680394</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="27">
+      <c r="A75" s="28">
         <v>45200.0</v>
       </c>
-      <c r="B75" s="46">
+      <c r="B75" s="47">
         <v>45199.0</v>
       </c>
-      <c r="C75" s="47">
+      <c r="C75" s="48">
         <v>-2.647347762028213</v>
       </c>
-      <c r="D75" s="48">
+      <c r="D75" s="49">
         <v>-6.42973</v>
       </c>
-      <c r="E75" s="49">
+      <c r="E75" s="50">
         <v>17.52</v>
       </c>
-      <c r="F75" s="49">
+      <c r="F75" s="50">
         <v>126.86</v>
       </c>
-      <c r="G75" s="50">
+      <c r="G75" s="51">
         <v>-2.43027</v>
       </c>
-      <c r="H75" s="49">
+      <c r="H75" s="50">
         <v>-2.11044</v>
       </c>
-      <c r="I75" s="47">
+      <c r="I75" s="48">
         <v>-2.61665669553226</v>
       </c>
-      <c r="J75" s="50">
+      <c r="J75" s="51">
         <v>-2.86092790764465</v>
       </c>
-      <c r="K75" s="47">
+      <c r="K75" s="48">
         <v>-2.71378959141632</v>
       </c>
-      <c r="L75" s="33">
+      <c r="L75" s="34">
         <v>-6.851416687</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="27">
+      <c r="A76" s="28">
         <v>45231.0</v>
       </c>
-      <c r="B76" s="46">
+      <c r="B76" s="47">
         <v>45230.0</v>
       </c>
-      <c r="C76" s="47">
+      <c r="C76" s="48">
         <v>-2.113240699318123</v>
       </c>
-      <c r="D76" s="48">
+      <c r="D76" s="49">
         <v>-6.67292</v>
       </c>
-      <c r="E76" s="49">
+      <c r="E76" s="50">
         <v>18.14</v>
       </c>
-      <c r="F76" s="49">
+      <c r="F76" s="50">
         <v>115.32</v>
       </c>
-      <c r="G76" s="50">
+      <c r="G76" s="51">
         <v>-2.04929</v>
       </c>
-      <c r="H76" s="49">
+      <c r="H76" s="50">
         <v>-2.20302</v>
       </c>
-      <c r="I76" s="47">
+      <c r="I76" s="48">
         <v>-2.21137662037161</v>
       </c>
-      <c r="J76" s="50">
+      <c r="J76" s="51">
         <v>-1.95154308306303</v>
       </c>
-      <c r="K76" s="47">
+      <c r="K76" s="48">
         <v>-2.15805367563422</v>
       </c>
-      <c r="L76" s="33">
+      <c r="L76" s="34">
         <v>-6.704871985</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="27">
+      <c r="A77" s="28">
         <v>45261.0</v>
       </c>
-      <c r="B77" s="46">
+      <c r="B77" s="47">
         <v>45260.0</v>
       </c>
-      <c r="C77" s="47">
+      <c r="C77" s="48">
         <v>-2.253706068055788</v>
       </c>
-      <c r="D77" s="48">
+      <c r="D77" s="49">
         <v>-6.43814</v>
       </c>
-      <c r="E77" s="49">
+      <c r="E77" s="50">
         <v>12.92</v>
       </c>
-      <c r="F77" s="49">
+      <c r="F77" s="50">
         <v>114.62</v>
       </c>
-      <c r="G77" s="50">
+      <c r="G77" s="51">
         <v>-1.73982</v>
       </c>
-      <c r="H77" s="49">
+      <c r="H77" s="50">
         <v>-2.04787</v>
       </c>
-      <c r="I77" s="47">
+      <c r="I77" s="48">
         <v>-1.77809397449213</v>
       </c>
-      <c r="J77" s="50">
+      <c r="J77" s="51">
         <v>-1.5530701369441</v>
       </c>
-      <c r="K77" s="47">
+      <c r="K77" s="48">
         <v>-1.67350437742716</v>
       </c>
-      <c r="L77" s="33">
+      <c r="L77" s="34">
         <v>-5.170140906</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="27">
+      <c r="A78" s="28">
         <v>45292.0</v>
       </c>
-      <c r="B78" s="46">
+      <c r="B78" s="47">
         <v>45291.0</v>
       </c>
-      <c r="C78" s="47">
+      <c r="C78" s="48">
         <v>-2.048554057103743</v>
       </c>
-      <c r="D78" s="48">
+      <c r="D78" s="49">
         <v>-6.12243</v>
       </c>
-      <c r="E78" s="49">
+      <c r="E78" s="50">
         <v>12.45</v>
       </c>
-      <c r="F78" s="49">
+      <c r="F78" s="50">
         <v>107.28</v>
       </c>
-      <c r="G78" s="50">
+      <c r="G78" s="51">
         <v>-2.07274</v>
       </c>
-      <c r="H78" s="49">
+      <c r="H78" s="50">
         <v>-2.01407</v>
       </c>
-      <c r="I78" s="47">
+      <c r="I78" s="48">
         <v>-1.94193704368778</v>
       </c>
-      <c r="J78" s="50">
+      <c r="J78" s="51">
         <v>-1.72588224970108</v>
       </c>
-      <c r="K78" s="47">
+      <c r="K78" s="48">
         <v>-1.15362107022732</v>
       </c>
-      <c r="L78" s="33">
+      <c r="L78" s="34">
         <v>-6.193805062</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="27">
+      <c r="A79" s="28">
         <v>45323.0</v>
       </c>
-      <c r="B79" s="46">
+      <c r="B79" s="47">
         <v>45322.0</v>
       </c>
-      <c r="C79" s="47">
+      <c r="C79" s="48">
         <v>-1.860138329820513</v>
       </c>
-      <c r="D79" s="48">
+      <c r="D79" s="49">
         <v>-5.73109</v>
       </c>
-      <c r="E79" s="49">
+      <c r="E79" s="50">
         <v>14.35</v>
       </c>
-      <c r="F79" s="49">
+      <c r="F79" s="50">
         <v>109.1</v>
       </c>
-      <c r="G79" s="50">
+      <c r="G79" s="51">
         <v>-1.87737</v>
       </c>
-      <c r="H79" s="49">
+      <c r="H79" s="50">
         <v>-1.75677</v>
       </c>
-      <c r="I79" s="47">
+      <c r="I79" s="48">
         <v>-1.74840006825893</v>
       </c>
-      <c r="J79" s="50">
+      <c r="J79" s="51">
         <v>-1.52949668788124</v>
       </c>
-      <c r="K79" s="47">
+      <c r="K79" s="48">
         <v>-1.40513181490455</v>
       </c>
-      <c r="L79" s="33">
+      <c r="L79" s="34">
         <v>-6.298918375</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="27">
+      <c r="A80" s="28">
         <v>45352.0</v>
       </c>
-      <c r="B80" s="46">
+      <c r="B80" s="47">
         <v>45351.0</v>
       </c>
-      <c r="C80" s="47">
+      <c r="C80" s="48">
         <v>-2.038099205158448</v>
       </c>
-      <c r="D80" s="48">
+      <c r="D80" s="49">
         <v>-6.09295</v>
       </c>
-      <c r="E80" s="49">
+      <c r="E80" s="50">
         <v>13.4</v>
       </c>
-      <c r="F80" s="49">
+      <c r="F80" s="50">
         <v>86.38</v>
       </c>
-      <c r="G80" s="50">
+      <c r="G80" s="51">
         <v>-2.20391</v>
       </c>
-      <c r="H80" s="49">
+      <c r="H80" s="50">
         <v>-2.03257</v>
       </c>
-      <c r="I80" s="47">
+      <c r="I80" s="48">
         <v>-2.05959377049347</v>
       </c>
-      <c r="J80" s="50">
+      <c r="J80" s="51">
         <v>-1.50831335238636</v>
       </c>
-      <c r="K80" s="47">
+      <c r="K80" s="48">
         <v>-1.91288896756992</v>
       </c>
-      <c r="L80" s="33">
+      <c r="L80" s="34">
         <v>-6.16154813</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="27">
+      <c r="A81" s="28">
         <v>45383.0</v>
       </c>
-      <c r="B81" s="46">
+      <c r="B81" s="47">
         <v>45382.0</v>
       </c>
-      <c r="C81" s="47">
+      <c r="C81" s="48">
         <v>-1.673689949923028</v>
       </c>
-      <c r="D81" s="48">
+      <c r="D81" s="49">
         <v>-5.72493</v>
       </c>
-      <c r="E81" s="49">
+      <c r="E81" s="50">
         <v>13.01</v>
       </c>
-      <c r="F81" s="49">
+      <c r="F81" s="50">
         <v>107.46</v>
       </c>
-      <c r="G81" s="50">
+      <c r="G81" s="51">
         <v>-1.29039</v>
       </c>
-      <c r="H81" s="49">
+      <c r="H81" s="50">
         <v>-1.06995</v>
       </c>
-      <c r="I81" s="47">
+      <c r="I81" s="48">
         <v>-1.50658566072839</v>
       </c>
-      <c r="J81" s="50">
+      <c r="J81" s="51">
         <v>-0.703435083473805</v>
       </c>
-      <c r="K81" s="47">
+      <c r="K81" s="48">
         <v>-1.28400216174552</v>
       </c>
-      <c r="L81" s="33">
+      <c r="L81" s="34">
         <v>-5.893065328</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="27">
+      <c r="A82" s="28">
         <v>45413.0</v>
       </c>
-      <c r="B82" s="46">
+      <c r="B82" s="47">
         <v>45412.0</v>
       </c>
-      <c r="C82" s="47">
+      <c r="C82" s="48">
         <v>-1.819876536209673</v>
       </c>
-      <c r="D82" s="48">
+      <c r="D82" s="49">
         <v>-5.75082</v>
       </c>
-      <c r="E82" s="49">
+      <c r="E82" s="50">
         <v>15.65</v>
       </c>
-      <c r="F82" s="49">
+      <c r="F82" s="50">
         <v>91.14</v>
       </c>
-      <c r="G82" s="50">
+      <c r="G82" s="51">
         <v>-1.52965</v>
       </c>
-      <c r="H82" s="49">
+      <c r="H82" s="50">
         <v>-1.39714</v>
       </c>
-      <c r="I82" s="47">
+      <c r="I82" s="48">
         <v>-1.62459515967552</v>
       </c>
-      <c r="J82" s="50">
+      <c r="J82" s="51">
         <v>-1.21026234405795</v>
       </c>
-      <c r="K82" s="47">
+      <c r="K82" s="48">
         <v>-1.33970348374128</v>
       </c>
-      <c r="L82" s="33">
+      <c r="L82" s="34">
         <v>-6.262942203</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="27">
+      <c r="A83" s="28">
         <v>45444.0</v>
       </c>
-      <c r="B83" s="46">
+      <c r="B83" s="47">
         <v>45443.0</v>
       </c>
-      <c r="C83" s="47">
+      <c r="C83" s="48">
         <v>-1.925157914946942</v>
       </c>
-      <c r="D83" s="48">
+      <c r="D83" s="49">
         <v>-5.85593</v>
       </c>
-      <c r="E83" s="49">
+      <c r="E83" s="50">
         <v>12.92</v>
       </c>
-      <c r="F83" s="49">
+      <c r="F83" s="50">
         <v>98.59</v>
       </c>
-      <c r="G83" s="50">
+      <c r="G83" s="51">
         <v>-2.21663</v>
       </c>
-      <c r="H83" s="49">
+      <c r="H83" s="50">
         <v>-2.15989</v>
       </c>
-      <c r="I83" s="47">
+      <c r="I83" s="48">
         <v>-1.54136791300529</v>
       </c>
-      <c r="J83" s="50">
+      <c r="J83" s="51">
         <v>-1.37085697404176</v>
       </c>
-      <c r="K83" s="47">
+      <c r="K83" s="48">
         <v>-1.93702407685156</v>
       </c>
-      <c r="L83" s="33">
+      <c r="L83" s="34">
         <v>-5.977020265</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="27">
+      <c r="A84" s="28">
         <v>45474.0</v>
       </c>
-      <c r="B84" s="46">
+      <c r="B84" s="47">
         <v>45473.0</v>
       </c>
-      <c r="C84" s="47">
+      <c r="C84" s="48">
         <v>-2.225638457027193</v>
       </c>
-      <c r="D84" s="48">
+      <c r="D84" s="49">
         <v>-6.41977</v>
       </c>
-      <c r="E84" s="49">
+      <c r="E84" s="50">
         <v>12.44</v>
       </c>
-      <c r="F84" s="49">
+      <c r="F84" s="50">
         <v>99.41</v>
       </c>
-      <c r="G84" s="50">
+      <c r="G84" s="51">
         <v>-2.34711</v>
       </c>
-      <c r="H84" s="49">
+      <c r="H84" s="50">
         <v>-2.09812</v>
       </c>
-      <c r="I84" s="47">
+      <c r="I84" s="48">
         <v>-2.27946463382669</v>
       </c>
-      <c r="J84" s="50">
+      <c r="J84" s="51">
         <v>-1.7299042301544</v>
       </c>
-      <c r="K84" s="47">
+      <c r="K84" s="48">
         <v>-2.10573132273735</v>
       </c>
-      <c r="L84" s="33">
+      <c r="L84" s="34">
         <v>-6.460388889</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="27">
+      <c r="A85" s="28">
         <v>45505.0</v>
       </c>
-      <c r="B85" s="46">
+      <c r="B85" s="47">
         <v>45504.0</v>
       </c>
-      <c r="C85" s="47">
+      <c r="C85" s="48">
         <v>-2.038295700659982</v>
       </c>
-      <c r="D85" s="48">
+      <c r="D85" s="49">
         <v>-5.37411</v>
       </c>
-      <c r="E85" s="49">
+      <c r="E85" s="50">
         <v>16.36</v>
       </c>
-      <c r="F85" s="49">
+      <c r="F85" s="50">
         <v>107.77</v>
       </c>
-      <c r="G85" s="50">
+      <c r="G85" s="51">
         <v>-1.42246</v>
       </c>
-      <c r="H85" s="49">
+      <c r="H85" s="50">
         <v>-1.66103</v>
       </c>
-      <c r="I85" s="49">
+      <c r="I85" s="50">
         <v>-1.83051640480604</v>
       </c>
-      <c r="J85" s="49">
+      <c r="J85" s="50">
         <v>-1.39122012725347</v>
       </c>
-      <c r="K85" s="47">
+      <c r="K85" s="48">
         <v>-1.48289405245792</v>
       </c>
-      <c r="L85" s="33">
+      <c r="L85" s="34">
         <v>-6.379209502</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="27">
+      <c r="A86" s="28">
         <v>45536.0</v>
       </c>
-      <c r="B86" s="46">
+      <c r="B86" s="47">
         <v>45535.0</v>
       </c>
-      <c r="C86" s="47">
+      <c r="C86" s="48">
         <v>-1.726685076093571</v>
       </c>
-      <c r="D86" s="48">
+      <c r="D86" s="49">
         <v>-6.16594</v>
       </c>
-      <c r="E86" s="49">
+      <c r="E86" s="50">
         <v>15.0</v>
       </c>
-      <c r="F86" s="49">
+      <c r="F86" s="50">
         <v>94.61</v>
       </c>
-      <c r="G86" s="50">
+      <c r="G86" s="51">
         <v>-1.40478</v>
       </c>
-      <c r="H86" s="49">
+      <c r="H86" s="50">
         <v>-1.60344</v>
       </c>
-      <c r="I86" s="49">
+      <c r="I86" s="50">
         <v>-1.36338665717412</v>
       </c>
-      <c r="J86" s="49">
+      <c r="J86" s="50">
         <v>-1.43975318906316</v>
       </c>
-      <c r="K86" s="47">
+      <c r="K86" s="48">
         <v>-1.49312596050241</v>
       </c>
-      <c r="L86" s="33">
+      <c r="L86" s="34">
         <v>-6.5320893</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="27">
+      <c r="A87" s="28">
         <v>45566.0</v>
       </c>
-      <c r="B87" s="46">
+      <c r="B87" s="47">
         <v>45565.0</v>
       </c>
-      <c r="C87" s="47">
+      <c r="C87" s="48">
         <v>-2.061092459273302</v>
       </c>
-      <c r="D87" s="48">
+      <c r="D87" s="49">
         <v>-6.17527</v>
       </c>
-      <c r="E87" s="49">
+      <c r="E87" s="50">
         <v>16.73</v>
       </c>
-      <c r="F87" s="49">
+      <c r="F87" s="50">
         <v>135.18</v>
       </c>
-      <c r="G87" s="50">
+      <c r="G87" s="51">
         <v>-1.95556</v>
       </c>
-      <c r="H87" s="49">
+      <c r="H87" s="50">
         <v>-2.04119</v>
       </c>
-      <c r="I87" s="49">
+      <c r="I87" s="50">
         <v>-1.89953206299824</v>
       </c>
-      <c r="J87" s="49">
+      <c r="J87" s="50">
         <v>-1.56107600187191</v>
       </c>
-      <c r="K87" s="47">
+      <c r="K87" s="48">
         <v>-1.79914805909799</v>
       </c>
-      <c r="L87" s="33">
+      <c r="L87" s="34">
         <v>-6.757449136</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="27">
+      <c r="A88" s="28">
         <v>45597.0</v>
       </c>
-      <c r="B88" s="46">
+      <c r="B88" s="47">
         <v>45596.0</v>
       </c>
-      <c r="C88" s="47">
+      <c r="C88" s="48">
         <v>-2.055975347259586</v>
       </c>
-      <c r="D88" s="48">
+      <c r="D88" s="49">
         <v>-5.84057</v>
       </c>
-      <c r="E88" s="49">
+      <c r="E88" s="50">
         <v>23.16</v>
       </c>
-      <c r="F88" s="49">
+      <c r="F88" s="50">
         <v>95.22</v>
       </c>
-      <c r="G88" s="50">
+      <c r="G88" s="51">
         <v>-1.94156</v>
       </c>
-      <c r="H88" s="49">
+      <c r="H88" s="50">
         <v>-1.95533</v>
       </c>
-      <c r="I88" s="49">
+      <c r="I88" s="50">
         <v>-1.91057575407529</v>
       </c>
-      <c r="J88" s="49">
+      <c r="J88" s="50">
         <v>-1.42265456915151</v>
       </c>
-      <c r="K88" s="47">
+      <c r="K88" s="48">
         <v>-1.91722422716743</v>
       </c>
-      <c r="L88" s="33">
+      <c r="L88" s="34">
         <v>-6.100923668</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="27">
+      <c r="A89" s="28">
         <v>45627.0</v>
       </c>
-      <c r="B89" s="46">
+      <c r="B89" s="47">
         <v>45626.0</v>
       </c>
-      <c r="C89" s="47">
+      <c r="C89" s="48">
         <v>-1.715366755310022</v>
       </c>
-      <c r="D89" s="48">
+      <c r="D89" s="49">
         <v>-5.76697</v>
       </c>
-      <c r="E89" s="49">
+      <c r="E89" s="50">
         <v>13.51</v>
       </c>
-      <c r="F89" s="49">
+      <c r="F89" s="50">
         <v>98.8</v>
       </c>
-      <c r="G89" s="50">
+      <c r="G89" s="51">
         <v>-0.81904</v>
       </c>
-      <c r="H89" s="49">
+      <c r="H89" s="50">
         <v>-1.15297</v>
       </c>
-      <c r="I89" s="49">
+      <c r="I89" s="50">
         <v>-1.47771334837984</v>
       </c>
-      <c r="J89" s="49">
+      <c r="J89" s="50">
         <v>-0.810601374411052</v>
       </c>
-      <c r="K89" s="47">
+      <c r="K89" s="48">
         <v>-0.81408293765231</v>
       </c>
-      <c r="L89" s="33">
+      <c r="L89" s="34">
         <v>-5.70023048</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="27">
+      <c r="A90" s="28">
         <v>45658.0</v>
       </c>
-      <c r="B90" s="46">
+      <c r="B90" s="47">
         <v>45657.0</v>
       </c>
-      <c r="C90" s="47">
+      <c r="C90" s="48">
         <v>-2.085228280815818</v>
       </c>
-      <c r="D90" s="48">
+      <c r="D90" s="49">
         <v>-6.16596</v>
       </c>
-      <c r="E90" s="49">
+      <c r="E90" s="50">
         <v>17.35</v>
       </c>
-      <c r="F90" s="49">
+      <c r="F90" s="50">
         <v>91.76</v>
       </c>
-      <c r="G90" s="50">
+      <c r="G90" s="51">
         <v>-1.01192</v>
       </c>
-      <c r="H90" s="49">
+      <c r="H90" s="50">
         <v>-1.11542</v>
       </c>
-      <c r="I90" s="49">
+      <c r="I90" s="50">
         <v>-1.70196908861289</v>
       </c>
-      <c r="J90" s="49">
+      <c r="J90" s="50">
         <v>-1.33349828223616</v>
       </c>
-      <c r="K90" s="47">
+      <c r="K90" s="48">
         <v>-1.2450192390953</v>
       </c>
-      <c r="L90" s="33">
+      <c r="L90" s="34">
         <v>-6.156674125</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="27"/>
-      <c r="B91" s="46"/>
-      <c r="C91" s="47"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="49"/>
-      <c r="F91" s="47"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="47"/>
-      <c r="I91" s="47"/>
-      <c r="J91" s="47"/>
-      <c r="K91" s="47"/>
-      <c r="L91" s="33"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="49"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="48"/>
+      <c r="J91" s="48"/>
+      <c r="K91" s="48"/>
+      <c r="L91" s="34"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="27"/>
-      <c r="L92" s="33"/>
+      <c r="A92" s="28"/>
+      <c r="L92" s="34"/>
     </row>
     <row r="93" ht="15.75" customHeight="1"/>
     <row r="94" ht="15.75" customHeight="1"/>
@@ -14440,2631 +14448,2631 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="56" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="27">
+      <c r="A2" s="28">
         <v>42979.0</v>
       </c>
-      <c r="B2" s="56">
+      <c r="B2" s="57">
         <v>63.1</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="58">
         <v>-1.398922853416202</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="29">
         <v>-3.8283</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E2" s="59">
         <v>246.435</v>
       </c>
-      <c r="F2" s="59">
+      <c r="F2" s="60">
         <v>3563.6</v>
       </c>
-      <c r="G2" s="60">
+      <c r="G2" s="61">
         <v>1.15</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="34">
         <v>10.59</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="34">
         <v>52.88</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="58" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="27">
+      <c r="A3" s="28">
         <v>43009.0</v>
       </c>
-      <c r="B3" s="56">
+      <c r="B3" s="57">
         <v>62.7</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="58">
         <v>-1.339538636172452</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="29">
         <v>-3.73861</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="59">
         <v>246.626</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="60">
         <v>3603.9</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="61">
         <v>1.15</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="34">
         <v>9.51</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="34">
         <v>51.15</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="27">
+      <c r="A4" s="28">
         <v>43040.0</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="57">
         <v>62.7</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="58">
         <v>-1.622994592591039</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="29">
         <v>-4.01951</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="59">
         <v>247.284</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="60">
         <v>3622.0</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="61">
         <v>1.16</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="34">
         <v>10.18</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="34">
         <v>46.83</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="27">
+      <c r="A5" s="28">
         <v>43070.0</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5" s="57">
         <v>62.7</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="58">
         <v>-1.267669646350059</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="29">
         <v>-2.55687</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="59">
         <v>247.805</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="60">
         <v>3612.6</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="61">
         <v>1.3</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="34">
         <v>11.28</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="34">
         <v>46.6</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="27">
+      <c r="A6" s="28">
         <v>43101.0</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="57">
         <v>62.7</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="58">
         <v>-0.8925105498101106</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="29">
         <v>-2.75193</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="59">
         <v>248.859</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="60">
         <v>3659.1</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="61">
         <v>1.41</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="34">
         <v>11.04</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="34">
         <v>57.2</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="27">
+      <c r="A7" s="28">
         <v>43132.0</v>
       </c>
-      <c r="B7" s="56">
+      <c r="B7" s="57">
         <v>63.0</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="58">
         <v>-0.9709959273986545</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="29">
         <v>-3.14435</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="59">
         <v>249.529</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="60">
         <v>3621.3</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="61">
         <v>1.42</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="34">
         <v>13.54</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="34">
         <v>62.97</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="27">
+      <c r="A8" s="28">
         <v>43160.0</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="57">
         <v>62.9</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="58">
         <v>-1.175494963528102</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="29">
         <v>-3.56782</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="59">
         <v>249.577</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="60">
         <v>3667.4</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="61">
         <v>1.51</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="34">
         <v>19.85</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="34">
         <v>58.54</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="27">
+      <c r="A9" s="28">
         <v>43191.0</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="57">
         <v>62.9</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="58">
         <v>-1.247612757732853</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="29">
         <v>-4.42206</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="59">
         <v>250.227</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="60">
         <v>3664.0</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="61">
         <v>1.69</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="34">
         <v>19.97</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="34">
         <v>50.35</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="27">
+      <c r="A10" s="28">
         <v>43221.0</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="57">
         <v>62.9</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="58">
         <v>-1.55585656968056</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="29">
         <v>-5.17651</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="59">
         <v>250.792</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="60">
         <v>3655.7</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="61">
         <v>1.7</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="34">
         <v>15.93</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="34">
         <v>60.54</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="27">
+      <c r="A11" s="28">
         <v>43252.0</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="57">
         <v>63.0</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="58">
         <v>-1.841341274949514</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="29">
         <v>-4.87901</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="59">
         <v>251.018</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="60">
         <v>3655.9</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="61">
         <v>1.82</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="34">
         <v>15.43</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="34">
         <v>51.17</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="27">
+      <c r="A12" s="28">
         <v>43282.0</v>
       </c>
-      <c r="B12" s="56">
+      <c r="B12" s="57">
         <v>63.0</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="58">
         <v>-1.607290525600278</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="29">
         <v>-5.19005</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="59">
         <v>251.214</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="60">
         <v>3679.5</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="61">
         <v>1.91</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="34">
         <v>16.09</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="34">
         <v>46.5</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="27">
+      <c r="A13" s="28">
         <v>43313.0</v>
       </c>
-      <c r="B13" s="56">
+      <c r="B13" s="57">
         <v>62.6</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="58">
         <v>-1.710774007634875</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="29">
         <v>-3.18897</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="59">
         <v>251.663</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="60">
         <v>3686.3</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="61">
         <v>1.91</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="34">
         <v>12.83</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="34">
         <v>50.71</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="27">
+      <c r="A14" s="28">
         <v>43344.0</v>
       </c>
-      <c r="B14" s="56">
+      <c r="B14" s="57">
         <v>62.8</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="58">
         <v>-1.83602849936558</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="29">
         <v>-5.12863</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="59">
         <v>252.182</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="60">
         <v>3694.8</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="61">
         <v>1.95</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="34">
         <v>12.86</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="34">
         <v>46.16</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="27">
+      <c r="A15" s="28">
         <v>43374.0</v>
       </c>
-      <c r="B15" s="56">
+      <c r="B15" s="57">
         <v>62.9</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="58">
         <v>-1.970047389025133</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="29">
         <v>-4.26195</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="59">
         <v>252.772</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="60">
         <v>3722.9</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="61">
         <v>2.19</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="34">
         <v>12.12</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="34">
         <v>60.13</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="27">
+      <c r="A16" s="28">
         <v>43405.0</v>
       </c>
-      <c r="B16" s="56">
+      <c r="B16" s="57">
         <v>62.9</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="58">
         <v>-2.634419469321147</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="29">
         <v>-2.98116</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="59">
         <v>252.594</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F16" s="60">
         <v>3697.3</v>
       </c>
-      <c r="G16" s="60">
+      <c r="G16" s="61">
         <v>2.2</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="34">
         <v>21.23</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="34">
         <v>52.43</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="27">
+      <c r="A17" s="28">
         <v>43435.0</v>
       </c>
-      <c r="B17" s="56">
+      <c r="B17" s="57">
         <v>63.0</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="58">
         <v>-1.261898845865185</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="29">
         <v>-2.9991</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="59">
         <v>252.767</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="60">
         <v>3761.0</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="61">
         <v>2.27</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="34">
         <v>18.07</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="34">
         <v>66.58</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="27">
+      <c r="A18" s="28">
         <v>43466.0</v>
       </c>
-      <c r="B18" s="56">
+      <c r="B18" s="57">
         <v>63.1</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="58">
         <v>-1.42895971506604</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="29">
         <v>-3.22542</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="59">
         <v>252.561</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="60">
         <v>3754.1</v>
       </c>
-      <c r="G18" s="60">
+      <c r="G18" s="61">
         <v>2.4</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="34">
         <v>25.42</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="34">
         <v>49.81</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="27">
+      <c r="A19" s="28">
         <v>43497.0</v>
       </c>
-      <c r="B19" s="56">
+      <c r="B19" s="57">
         <v>63.1</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="58">
         <v>-1.931656242993748</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="29">
         <v>-2.53746</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="59">
         <v>253.319</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="60">
         <v>3762.3</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="61">
         <v>2.4</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="34">
         <v>16.57</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="34">
         <v>47.22</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="27">
+      <c r="A20" s="28">
         <v>43525.0</v>
       </c>
-      <c r="B20" s="56">
+      <c r="B20" s="57">
         <v>63.0</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="58">
         <v>-2.183276322808114</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="29">
         <v>-2.48747</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E20" s="59">
         <v>254.277</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="60">
         <v>3738.4</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="61">
         <v>2.41</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H20" s="34">
         <v>14.78</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="34">
         <v>58.55</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="27">
+      <c r="A21" s="28">
         <v>43556.0</v>
       </c>
-      <c r="B21" s="56">
+      <c r="B21" s="57">
         <v>62.8</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="58">
         <v>-2.737802760680171</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="29">
         <v>-2.39428</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="59">
         <v>255.233</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="60">
         <v>3789.9</v>
       </c>
-      <c r="G21" s="60">
+      <c r="G21" s="61">
         <v>2.42</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="34">
         <v>13.71</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="34">
         <v>49.47</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="27">
+      <c r="A22" s="28">
         <v>43586.0</v>
       </c>
-      <c r="B22" s="56">
+      <c r="B22" s="57">
         <v>62.9</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="58">
         <v>-1.441057898006261</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="29">
         <v>-2.50604</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E22" s="59">
         <v>255.296</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F22" s="60">
         <v>3789.2</v>
       </c>
-      <c r="G22" s="60">
+      <c r="G22" s="61">
         <v>2.39</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H22" s="34">
         <v>13.12</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="34">
         <v>72.68</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="27">
+      <c r="A23" s="28">
         <v>43617.0</v>
       </c>
-      <c r="B23" s="56">
+      <c r="B23" s="57">
         <v>63.0</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="58">
         <v>-1.356089123911896</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="29">
         <v>-2.61803</v>
       </c>
-      <c r="E23" s="58">
+      <c r="E23" s="59">
         <v>255.213</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="60">
         <v>3832.1</v>
       </c>
-      <c r="G23" s="60">
+      <c r="G23" s="61">
         <v>2.38</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="34">
         <v>18.71</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="34">
         <v>70.43</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="27">
+      <c r="A24" s="28">
         <v>43647.0</v>
       </c>
-      <c r="B24" s="56">
+      <c r="B24" s="57">
         <v>63.1</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="58">
         <v>-1.130442924781761</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="29">
         <v>-4.2474</v>
       </c>
-      <c r="E24" s="58">
+      <c r="E24" s="59">
         <v>255.802</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="60">
         <v>3862.5</v>
       </c>
-      <c r="G24" s="60">
+      <c r="G24" s="61">
         <v>2.4</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="34">
         <v>15.08</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="34">
         <v>55.25</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="27">
+      <c r="A25" s="28">
         <v>43678.0</v>
       </c>
-      <c r="B25" s="56">
+      <c r="B25" s="57">
         <v>63.1</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="58">
         <v>-1.30156238978162</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="29">
         <v>-4.54128</v>
       </c>
-      <c r="E25" s="58">
+      <c r="E25" s="59">
         <v>256.036</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="60">
         <v>3847.1</v>
       </c>
-      <c r="G25" s="60">
+      <c r="G25" s="61">
         <v>2.13</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="34">
         <v>16.12</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="34">
         <v>86.89</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="27">
+      <c r="A26" s="28">
         <v>43709.0</v>
       </c>
-      <c r="B26" s="56">
+      <c r="B26" s="57">
         <v>63.2</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="58">
         <v>-1.792212142579465</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="29">
         <v>-4.63769</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="59">
         <v>256.43</v>
       </c>
-      <c r="F26" s="59">
+      <c r="F26" s="60">
         <v>3894.0</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="61">
         <v>2.04</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="34">
         <v>18.98</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="34">
         <v>77.2</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="27">
+      <c r="A27" s="28">
         <v>43739.0</v>
       </c>
-      <c r="B27" s="56">
+      <c r="B27" s="57">
         <v>63.3</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="58">
         <v>-1.764303118677008</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="29">
         <v>-4.58447</v>
       </c>
-      <c r="E27" s="58">
+      <c r="E27" s="59">
         <v>257.155</v>
       </c>
-      <c r="F27" s="59">
+      <c r="F27" s="60">
         <v>3926.3</v>
       </c>
-      <c r="G27" s="60">
+      <c r="G27" s="61">
         <v>1.83</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="34">
         <v>16.24</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="34">
         <v>65.88</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="27">
+      <c r="A28" s="28">
         <v>43770.0</v>
       </c>
-      <c r="B28" s="56">
+      <c r="B28" s="57">
         <v>63.3</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="58">
         <v>-1.494561565481544</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="29">
         <v>-4.97364</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E28" s="59">
         <v>257.879</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="60">
         <v>3942.6</v>
       </c>
-      <c r="G28" s="60">
+      <c r="G28" s="61">
         <v>1.55</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="34">
         <v>13.22</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="34">
         <v>56.57</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="27">
+      <c r="A29" s="28">
         <v>43800.0</v>
       </c>
-      <c r="B29" s="56">
+      <c r="B29" s="57">
         <v>63.3</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="58">
         <v>-2.002566424310042</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="29">
         <v>-4.36753</v>
       </c>
-      <c r="E29" s="58">
+      <c r="E29" s="59">
         <v>258.63</v>
       </c>
-      <c r="F29" s="59">
+      <c r="F29" s="60">
         <v>4003.6</v>
       </c>
-      <c r="G29" s="60">
+      <c r="G29" s="61">
         <v>1.55</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H29" s="34">
         <v>12.62</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="34">
         <v>58.28</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="27">
+      <c r="A30" s="28">
         <v>43831.0</v>
       </c>
-      <c r="B30" s="56">
+      <c r="B30" s="57">
         <v>63.3</v>
       </c>
-      <c r="C30" s="57">
+      <c r="C30" s="58">
         <v>-2.094022433586233</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="29">
         <v>-4.00424</v>
       </c>
-      <c r="E30" s="58">
+      <c r="E30" s="59">
         <v>259.127</v>
       </c>
-      <c r="F30" s="59">
+      <c r="F30" s="60">
         <v>3989.3</v>
       </c>
-      <c r="G30" s="60">
+      <c r="G30" s="61">
         <v>1.55</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="34">
         <v>13.78</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="34">
         <v>72.98</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="27">
+      <c r="A31" s="28">
         <v>43862.0</v>
       </c>
-      <c r="B31" s="56">
+      <c r="B31" s="57">
         <v>63.3</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="58">
         <v>-1.916924731911084</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="29">
         <v>-4.61602</v>
       </c>
-      <c r="E31" s="58">
+      <c r="E31" s="59">
         <v>259.25</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F31" s="60">
         <v>4001.1</v>
       </c>
-      <c r="G31" s="60">
+      <c r="G31" s="61">
         <v>1.58</v>
       </c>
-      <c r="H31" s="33">
+      <c r="H31" s="34">
         <v>18.84</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="34">
         <v>109.67</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="27">
+      <c r="A32" s="28">
         <v>43891.0</v>
       </c>
-      <c r="B32" s="56">
+      <c r="B32" s="57">
         <v>62.6</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="58">
         <v>-1.910305756488278</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="29">
         <v>-4.59272</v>
       </c>
-      <c r="E32" s="58">
+      <c r="E32" s="59">
         <v>258.076</v>
       </c>
-      <c r="F32" s="59">
+      <c r="F32" s="60">
         <v>4266.0</v>
       </c>
-      <c r="G32" s="60">
+      <c r="G32" s="61">
         <v>0.65</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="34">
         <v>40.11</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="34">
         <v>83.87</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="27">
+      <c r="A33" s="28">
         <v>43922.0</v>
       </c>
-      <c r="B33" s="56">
+      <c r="B33" s="57">
         <v>60.1</v>
       </c>
-      <c r="C33" s="57">
+      <c r="C33" s="58">
         <v>-0.816916259511464</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D33" s="29">
         <v>-4.09257</v>
       </c>
-      <c r="E33" s="58">
+      <c r="E33" s="59">
         <v>256.032</v>
       </c>
-      <c r="F33" s="59">
+      <c r="F33" s="60">
         <v>4804.3</v>
       </c>
-      <c r="G33" s="60">
+      <c r="G33" s="61">
         <v>0.05</v>
       </c>
-      <c r="H33" s="33">
+      <c r="H33" s="34">
         <v>53.54</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="34">
         <v>53.59</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="27">
+      <c r="A34" s="28">
         <v>43952.0</v>
       </c>
-      <c r="B34" s="56">
+      <c r="B34" s="57">
         <v>60.8</v>
       </c>
-      <c r="C34" s="57">
+      <c r="C34" s="58">
         <v>-1.521791527356374</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="29">
         <v>-5.18505</v>
       </c>
-      <c r="E34" s="58">
+      <c r="E34" s="59">
         <v>255.802</v>
       </c>
-      <c r="F34" s="59">
+      <c r="F34" s="60">
         <v>16231.5</v>
       </c>
-      <c r="G34" s="60">
+      <c r="G34" s="61">
         <v>0.05</v>
       </c>
-      <c r="H34" s="33">
+      <c r="H34" s="34">
         <v>34.15</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="34">
         <v>51.55</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="27">
+      <c r="A35" s="28">
         <v>43983.0</v>
       </c>
-      <c r="B35" s="56">
+      <c r="B35" s="57">
         <v>61.5</v>
       </c>
-      <c r="C35" s="57">
+      <c r="C35" s="58">
         <v>-1.706118200800225</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D35" s="29">
         <v>-5.58266</v>
       </c>
-      <c r="E35" s="58">
+      <c r="E35" s="59">
         <v>257.042</v>
       </c>
-      <c r="F35" s="59">
+      <c r="F35" s="60">
         <v>16554.5</v>
       </c>
-      <c r="G35" s="60">
+      <c r="G35" s="61">
         <v>0.08</v>
       </c>
-      <c r="H35" s="33">
+      <c r="H35" s="34">
         <v>27.51</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="34">
         <v>54.13</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="27">
+      <c r="A36" s="28">
         <v>44013.0</v>
       </c>
-      <c r="B36" s="56">
+      <c r="B36" s="57">
         <v>61.5</v>
       </c>
-      <c r="C36" s="57">
+      <c r="C36" s="58">
         <v>-2.378771800579897</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D36" s="29">
         <v>-5.43531</v>
       </c>
-      <c r="E36" s="58">
+      <c r="E36" s="59">
         <v>258.352</v>
       </c>
-      <c r="F36" s="59">
+      <c r="F36" s="60">
         <v>16761.7</v>
       </c>
-      <c r="G36" s="60">
+      <c r="G36" s="61">
         <v>0.09</v>
       </c>
-      <c r="H36" s="33">
+      <c r="H36" s="34">
         <v>30.43</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="34">
         <v>41.98</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="27">
+      <c r="A37" s="28">
         <v>44044.0</v>
       </c>
-      <c r="B37" s="56">
+      <c r="B37" s="57">
         <v>61.7</v>
       </c>
-      <c r="C37" s="57">
+      <c r="C37" s="58">
         <v>-2.13739983436325</v>
       </c>
-      <c r="D37" s="28">
+      <c r="D37" s="29">
         <v>-5.33078</v>
       </c>
-      <c r="E37" s="58">
+      <c r="E37" s="59">
         <v>259.316</v>
       </c>
-      <c r="F37" s="59">
+      <c r="F37" s="60">
         <v>16879.5</v>
       </c>
-      <c r="G37" s="60">
+      <c r="G37" s="61">
         <v>0.1</v>
       </c>
-      <c r="H37" s="33">
+      <c r="H37" s="34">
         <v>24.46</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="34">
         <v>47.02</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="27">
+      <c r="A38" s="28">
         <v>44075.0</v>
       </c>
-      <c r="B38" s="56">
+      <c r="B38" s="57">
         <v>61.4</v>
       </c>
-      <c r="C38" s="57">
+      <c r="C38" s="58">
         <v>-1.931348653015396</v>
       </c>
-      <c r="D38" s="28">
+      <c r="D38" s="29">
         <v>-5.29212</v>
       </c>
-      <c r="E38" s="58">
+      <c r="E38" s="59">
         <v>259.997</v>
       </c>
-      <c r="F38" s="59">
+      <c r="F38" s="60">
         <v>17159.2</v>
       </c>
-      <c r="G38" s="60">
+      <c r="G38" s="61">
         <v>0.09</v>
       </c>
-      <c r="H38" s="33">
+      <c r="H38" s="34">
         <v>26.41</v>
       </c>
-      <c r="I38" s="33">
+      <c r="I38" s="34">
         <v>39.21</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="27">
+      <c r="A39" s="28">
         <v>44105.0</v>
       </c>
-      <c r="B39" s="56">
+      <c r="B39" s="57">
         <v>61.7</v>
       </c>
-      <c r="C39" s="57">
+      <c r="C39" s="58">
         <v>-2.026543945684538</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D39" s="29">
         <v>-4.95207</v>
       </c>
-      <c r="E39" s="58">
+      <c r="E39" s="59">
         <v>260.319</v>
       </c>
-      <c r="F39" s="59">
+      <c r="F39" s="60">
         <v>17360.5</v>
       </c>
-      <c r="G39" s="60">
+      <c r="G39" s="61">
         <v>0.09</v>
       </c>
-      <c r="H39" s="33">
+      <c r="H39" s="34">
         <v>26.37</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="34">
         <v>61.91</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="27">
+      <c r="A40" s="28">
         <v>44136.0</v>
       </c>
-      <c r="B40" s="56">
+      <c r="B40" s="57">
         <v>61.5</v>
       </c>
-      <c r="C40" s="57">
+      <c r="C40" s="58">
         <v>-2.109797580992602</v>
       </c>
-      <c r="D40" s="28">
+      <c r="D40" s="29">
         <v>-4.96291</v>
       </c>
-      <c r="E40" s="58">
+      <c r="E40" s="59">
         <v>260.911</v>
       </c>
-      <c r="F40" s="59">
+      <c r="F40" s="60">
         <v>17618.5</v>
       </c>
-      <c r="G40" s="60">
+      <c r="G40" s="61">
         <v>0.09</v>
       </c>
-      <c r="H40" s="33">
+      <c r="H40" s="34">
         <v>38.02</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="34">
         <v>40.84</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="27">
+      <c r="A41" s="28">
         <v>44166.0</v>
       </c>
-      <c r="B41" s="56">
+      <c r="B41" s="57">
         <v>61.5</v>
       </c>
-      <c r="C41" s="57">
+      <c r="C41" s="58">
         <v>-1.638412886720114</v>
       </c>
-      <c r="D41" s="28">
+      <c r="D41" s="29">
         <v>-5.10464</v>
       </c>
-      <c r="E41" s="58">
+      <c r="E41" s="59">
         <v>262.045</v>
       </c>
-      <c r="F41" s="59">
+      <c r="F41" s="60">
         <v>17827.9</v>
       </c>
-      <c r="G41" s="60">
+      <c r="G41" s="61">
         <v>0.09</v>
       </c>
-      <c r="H41" s="33">
+      <c r="H41" s="34">
         <v>20.57</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="34">
         <v>48.98</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="27">
+      <c r="A42" s="28">
         <v>44197.0</v>
       </c>
-      <c r="B42" s="56">
+      <c r="B42" s="57">
         <v>61.4</v>
       </c>
-      <c r="C42" s="57">
+      <c r="C42" s="58">
         <v>-1.664997992818081</v>
       </c>
-      <c r="D42" s="28">
+      <c r="D42" s="29">
         <v>-4.72009</v>
       </c>
-      <c r="E42" s="58">
+      <c r="E42" s="59">
         <v>262.639</v>
       </c>
-      <c r="F42" s="59">
+      <c r="F42" s="60">
         <v>18088.5</v>
       </c>
-      <c r="G42" s="60">
+      <c r="G42" s="61">
         <v>0.09</v>
       </c>
-      <c r="H42" s="33">
+      <c r="H42" s="34">
         <v>22.75</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="34">
         <v>47.41</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="27">
+      <c r="A43" s="28">
         <v>44228.0</v>
       </c>
-      <c r="B43" s="56">
+      <c r="B43" s="57">
         <v>61.4</v>
       </c>
-      <c r="C43" s="57">
+      <c r="C43" s="58">
         <v>-1.151457619134413</v>
       </c>
-      <c r="D43" s="28">
+      <c r="D43" s="29">
         <v>-4.15182</v>
       </c>
-      <c r="E43" s="58">
+      <c r="E43" s="59">
         <v>263.573</v>
       </c>
-      <c r="F43" s="59">
+      <c r="F43" s="60">
         <v>18349.1</v>
       </c>
-      <c r="G43" s="60">
+      <c r="G43" s="61">
         <v>0.08</v>
       </c>
-      <c r="H43" s="33">
+      <c r="H43" s="34">
         <v>33.09</v>
       </c>
-      <c r="I43" s="33">
+      <c r="I43" s="34">
         <v>75.66</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="27">
+      <c r="A44" s="28">
         <v>44256.0</v>
       </c>
-      <c r="B44" s="56">
+      <c r="B44" s="57">
         <v>61.5</v>
       </c>
-      <c r="C44" s="57">
+      <c r="C44" s="58">
         <v>-1.272595091069218</v>
       </c>
-      <c r="D44" s="28">
+      <c r="D44" s="29">
         <v>-5.27564</v>
       </c>
-      <c r="E44" s="58">
+      <c r="E44" s="59">
         <v>264.847</v>
       </c>
-      <c r="F44" s="59">
+      <c r="F44" s="60">
         <v>18607.9</v>
       </c>
-      <c r="G44" s="60">
+      <c r="G44" s="61">
         <v>0.07</v>
       </c>
-      <c r="H44" s="33">
+      <c r="H44" s="34">
         <v>27.95</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="34">
         <v>71.27</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="27">
+      <c r="A45" s="28">
         <v>44287.0</v>
       </c>
-      <c r="B45" s="56">
+      <c r="B45" s="57">
         <v>61.6</v>
       </c>
-      <c r="C45" s="57">
+      <c r="C45" s="58">
         <v>-1.565352421244022</v>
       </c>
-      <c r="D45" s="28">
+      <c r="D45" s="29">
         <v>-3.88138</v>
       </c>
-      <c r="E45" s="58">
+      <c r="E45" s="59">
         <v>266.625</v>
       </c>
-      <c r="F45" s="59">
+      <c r="F45" s="60">
         <v>18968.3</v>
       </c>
-      <c r="G45" s="60">
+      <c r="G45" s="61">
         <v>0.07</v>
       </c>
-      <c r="H45" s="33">
+      <c r="H45" s="34">
         <v>19.4</v>
       </c>
-      <c r="I45" s="33">
+      <c r="I45" s="34">
         <v>58.13</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="27">
+      <c r="A46" s="28">
         <v>44317.0</v>
       </c>
-      <c r="B46" s="56">
+      <c r="B46" s="57">
         <v>61.6</v>
       </c>
-      <c r="C46" s="57">
+      <c r="C46" s="58">
         <v>-1.618441641959174</v>
       </c>
-      <c r="D46" s="28">
+      <c r="D46" s="29">
         <v>-5.0007</v>
       </c>
-      <c r="E46" s="58">
+      <c r="E46" s="59">
         <v>268.404</v>
       </c>
-      <c r="F46" s="59">
+      <c r="F46" s="60">
         <v>19254.0</v>
       </c>
-      <c r="G46" s="60">
+      <c r="G46" s="61">
         <v>0.06</v>
       </c>
-      <c r="H46" s="33">
+      <c r="H46" s="34">
         <v>18.61</v>
       </c>
-      <c r="I46" s="33">
+      <c r="I46" s="34">
         <v>52.04</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="27">
+      <c r="A47" s="28">
         <v>44348.0</v>
       </c>
-      <c r="B47" s="56">
+      <c r="B47" s="57">
         <v>61.7</v>
       </c>
-      <c r="C47" s="57">
+      <c r="C47" s="58">
         <v>-1.062397814566061</v>
       </c>
-      <c r="D47" s="28">
+      <c r="D47" s="29">
         <v>-4.90524</v>
       </c>
-      <c r="E47" s="58">
+      <c r="E47" s="59">
         <v>270.71</v>
       </c>
-      <c r="F47" s="59">
+      <c r="F47" s="60">
         <v>19320.1</v>
       </c>
-      <c r="G47" s="60">
+      <c r="G47" s="61">
         <v>0.08</v>
       </c>
-      <c r="H47" s="33">
+      <c r="H47" s="34">
         <v>16.76</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="34">
         <v>57.27</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="27">
+      <c r="A48" s="28">
         <v>44378.0</v>
       </c>
-      <c r="B48" s="56">
+      <c r="B48" s="57">
         <v>61.8</v>
       </c>
-      <c r="C48" s="57">
+      <c r="C48" s="58">
         <v>-1.433935278331476</v>
       </c>
-      <c r="D48" s="28">
+      <c r="D48" s="29">
         <v>-5.96596</v>
       </c>
-      <c r="E48" s="58">
+      <c r="E48" s="59">
         <v>271.965</v>
       </c>
-      <c r="F48" s="59">
+      <c r="F48" s="60">
         <v>19489.0</v>
       </c>
-      <c r="G48" s="60">
+      <c r="G48" s="61">
         <v>0.1</v>
       </c>
-      <c r="H48" s="33">
+      <c r="H48" s="34">
         <v>15.83</v>
       </c>
-      <c r="I48" s="33">
+      <c r="I48" s="34">
         <v>61.19</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="27">
+      <c r="A49" s="28">
         <v>44409.0</v>
       </c>
-      <c r="B49" s="56">
+      <c r="B49" s="57">
         <v>61.7</v>
       </c>
-      <c r="C49" s="57">
+      <c r="C49" s="58">
         <v>-1.719845706939801</v>
       </c>
-      <c r="D49" s="28">
+      <c r="D49" s="29">
         <v>-6.08298</v>
       </c>
-      <c r="E49" s="58">
+      <c r="E49" s="59">
         <v>272.752</v>
       </c>
-      <c r="F49" s="59">
+      <c r="F49" s="60">
         <v>19687.0</v>
       </c>
-      <c r="G49" s="60">
+      <c r="G49" s="61">
         <v>0.09</v>
       </c>
-      <c r="H49" s="33">
+      <c r="H49" s="34">
         <v>18.24</v>
       </c>
-      <c r="I49" s="33">
+      <c r="I49" s="34">
         <v>59.54</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="27">
+      <c r="A50" s="28">
         <v>44440.0</v>
       </c>
-      <c r="B50" s="56">
+      <c r="B50" s="57">
         <v>61.7</v>
       </c>
-      <c r="C50" s="57">
+      <c r="C50" s="58">
         <v>-1.790445309379463</v>
       </c>
-      <c r="D50" s="28">
+      <c r="D50" s="29">
         <v>-5.80858</v>
       </c>
-      <c r="E50" s="58">
+      <c r="E50" s="59">
         <v>273.942</v>
       </c>
-      <c r="F50" s="59">
+      <c r="F50" s="60">
         <v>19867.3</v>
       </c>
-      <c r="G50" s="60">
+      <c r="G50" s="61">
         <v>0.08</v>
       </c>
-      <c r="H50" s="33">
+      <c r="H50" s="34">
         <v>16.48</v>
       </c>
-      <c r="I50" s="33">
+      <c r="I50" s="34">
         <v>61.07</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="27">
+      <c r="A51" s="28">
         <v>44470.0</v>
       </c>
-      <c r="B51" s="56">
+      <c r="B51" s="57">
         <v>61.8</v>
       </c>
-      <c r="C51" s="57">
+      <c r="C51" s="58">
         <v>-1.61821325801453</v>
       </c>
-      <c r="D51" s="28">
+      <c r="D51" s="29">
         <v>-5.96172</v>
       </c>
-      <c r="E51" s="58">
+      <c r="E51" s="59">
         <v>276.528</v>
       </c>
-      <c r="F51" s="59">
+      <c r="F51" s="60">
         <v>20047.2</v>
       </c>
-      <c r="G51" s="60">
+      <c r="G51" s="61">
         <v>0.08</v>
       </c>
-      <c r="H51" s="33">
+      <c r="H51" s="34">
         <v>23.14</v>
       </c>
-      <c r="I51" s="33">
+      <c r="I51" s="34">
         <v>75.45</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="27">
+      <c r="A52" s="28">
         <v>44501.0</v>
       </c>
-      <c r="B52" s="56">
+      <c r="B52" s="57">
         <v>61.9</v>
       </c>
-      <c r="C52" s="57">
+      <c r="C52" s="58">
         <v>-1.575830380298355</v>
       </c>
-      <c r="D52" s="28">
+      <c r="D52" s="29">
         <v>-6.20878</v>
       </c>
-      <c r="E52" s="58">
+      <c r="E52" s="59">
         <v>278.824</v>
       </c>
-      <c r="F52" s="59">
+      <c r="F52" s="60">
         <v>20235.2</v>
       </c>
-      <c r="G52" s="60">
+      <c r="G52" s="61">
         <v>0.08</v>
       </c>
-      <c r="H52" s="33">
+      <c r="H52" s="34">
         <v>16.26</v>
       </c>
-      <c r="I52" s="33">
+      <c r="I52" s="34">
         <v>84.04</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="27">
+      <c r="A53" s="28">
         <v>44531.0</v>
       </c>
-      <c r="B53" s="56">
+      <c r="B53" s="57">
         <v>62.0</v>
       </c>
-      <c r="C53" s="57">
+      <c r="C53" s="58">
         <v>-1.76093613538063</v>
       </c>
-      <c r="D53" s="28">
+      <c r="D53" s="29">
         <v>-5.84129</v>
       </c>
-      <c r="E53" s="58">
+      <c r="E53" s="59">
         <v>280.806</v>
       </c>
-      <c r="F53" s="59">
+      <c r="F53" s="60">
         <v>20398.9</v>
       </c>
-      <c r="G53" s="60">
+      <c r="G53" s="61">
         <v>0.08</v>
       </c>
-      <c r="H53" s="33">
+      <c r="H53" s="34">
         <v>27.19</v>
       </c>
-      <c r="I53" s="33">
+      <c r="I53" s="34">
         <v>77.1</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="27">
+      <c r="A54" s="28">
         <v>44562.0</v>
       </c>
-      <c r="B54" s="56">
+      <c r="B54" s="57">
         <v>62.2</v>
       </c>
-      <c r="C54" s="57">
+      <c r="C54" s="58">
         <v>-1.719684931965767</v>
       </c>
-      <c r="D54" s="28">
+      <c r="D54" s="29">
         <v>-6.11002</v>
       </c>
-      <c r="E54" s="58">
+      <c r="E54" s="59">
         <v>282.542</v>
       </c>
-      <c r="F54" s="59">
+      <c r="F54" s="60">
         <v>20519.7</v>
       </c>
-      <c r="G54" s="60">
+      <c r="G54" s="61">
         <v>0.08</v>
       </c>
-      <c r="H54" s="33">
+      <c r="H54" s="34">
         <v>17.22</v>
       </c>
-      <c r="I54" s="33">
+      <c r="I54" s="34">
         <v>85.14</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="27">
+      <c r="A55" s="28">
         <v>44593.0</v>
       </c>
-      <c r="B55" s="56">
+      <c r="B55" s="57">
         <v>62.2</v>
       </c>
-      <c r="C55" s="57">
+      <c r="C55" s="58">
         <v>-1.771224699004441</v>
       </c>
-      <c r="D55" s="28">
+      <c r="D55" s="29">
         <v>-5.77526</v>
       </c>
-      <c r="E55" s="58">
+      <c r="E55" s="59">
         <v>284.525</v>
       </c>
-      <c r="F55" s="59">
+      <c r="F55" s="60">
         <v>20640.3</v>
       </c>
-      <c r="G55" s="60">
+      <c r="G55" s="61">
         <v>0.08</v>
       </c>
-      <c r="H55" s="33">
+      <c r="H55" s="34">
         <v>24.83</v>
       </c>
-      <c r="I55" s="33">
+      <c r="I55" s="34">
         <v>100.4</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="27">
+      <c r="A56" s="28">
         <v>44621.0</v>
       </c>
-      <c r="B56" s="56">
+      <c r="B56" s="57">
         <v>62.3</v>
       </c>
-      <c r="C56" s="57">
+      <c r="C56" s="58">
         <v>-1.565235223519028</v>
       </c>
-      <c r="D56" s="28">
+      <c r="D56" s="29">
         <v>-5.853</v>
       </c>
-      <c r="E56" s="58">
+      <c r="E56" s="59">
         <v>287.467</v>
       </c>
-      <c r="F56" s="59">
+      <c r="F56" s="60">
         <v>20684.1</v>
       </c>
-      <c r="G56" s="60">
+      <c r="G56" s="61">
         <v>0.2</v>
       </c>
-      <c r="H56" s="33">
+      <c r="H56" s="34">
         <v>30.15</v>
       </c>
-      <c r="I56" s="33">
+      <c r="I56" s="34">
         <v>106.88</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="27">
+      <c r="A57" s="28">
         <v>44652.0</v>
       </c>
-      <c r="B57" s="56">
+      <c r="B57" s="57">
         <v>62.2</v>
       </c>
-      <c r="C57" s="57">
+      <c r="C57" s="58">
         <v>-1.714091230801427</v>
       </c>
-      <c r="D57" s="28">
+      <c r="D57" s="29">
         <v>-5.72414</v>
       </c>
-      <c r="E57" s="58">
+      <c r="E57" s="59">
         <v>288.582</v>
       </c>
-      <c r="F57" s="59">
+      <c r="F57" s="60">
         <v>20727.1</v>
       </c>
-      <c r="G57" s="60">
+      <c r="G57" s="61">
         <v>0.33</v>
       </c>
-      <c r="H57" s="33">
+      <c r="H57" s="34">
         <v>20.56</v>
       </c>
-      <c r="I57" s="33">
+      <c r="I57" s="34">
         <v>128.4</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="27">
+      <c r="A58" s="28">
         <v>44682.0</v>
       </c>
-      <c r="B58" s="56">
+      <c r="B58" s="57">
         <v>62.3</v>
       </c>
-      <c r="C58" s="57">
+      <c r="C58" s="58">
         <v>-1.984018359708286</v>
       </c>
-      <c r="D58" s="28">
+      <c r="D58" s="29">
         <v>-7.5626</v>
       </c>
-      <c r="E58" s="58">
+      <c r="E58" s="59">
         <v>291.299</v>
       </c>
-      <c r="F58" s="59">
+      <c r="F58" s="60">
         <v>20669.1</v>
       </c>
-      <c r="G58" s="60">
+      <c r="G58" s="61">
         <v>0.77</v>
       </c>
-      <c r="H58" s="33">
+      <c r="H58" s="34">
         <v>33.4</v>
       </c>
-      <c r="I58" s="33">
+      <c r="I58" s="34">
         <v>107.12</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="27">
+      <c r="A59" s="28">
         <v>44713.0</v>
       </c>
-      <c r="B59" s="56">
+      <c r="B59" s="57">
         <v>62.2</v>
       </c>
-      <c r="C59" s="57">
+      <c r="C59" s="58">
         <v>-1.526725016140443</v>
       </c>
-      <c r="D59" s="28">
+      <c r="D59" s="29">
         <v>-5.4975</v>
       </c>
-      <c r="E59" s="58">
+      <c r="E59" s="59">
         <v>295.072</v>
       </c>
-      <c r="F59" s="59">
+      <c r="F59" s="60">
         <v>20592.6</v>
       </c>
-      <c r="G59" s="60">
+      <c r="G59" s="61">
         <v>1.21</v>
       </c>
-      <c r="H59" s="33">
+      <c r="H59" s="34">
         <v>26.19</v>
       </c>
-      <c r="I59" s="33">
+      <c r="I59" s="34">
         <v>135.5</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="27">
+      <c r="A60" s="28">
         <v>44743.0</v>
       </c>
-      <c r="B60" s="56">
+      <c r="B60" s="57">
         <v>62.1</v>
       </c>
-      <c r="C60" s="57">
+      <c r="C60" s="58">
         <v>-1.144112763642448</v>
       </c>
-      <c r="D60" s="28">
+      <c r="D60" s="29">
         <v>-5.87895</v>
       </c>
-      <c r="E60" s="58">
+      <c r="E60" s="59">
         <v>294.94</v>
       </c>
-      <c r="F60" s="59">
+      <c r="F60" s="60">
         <v>20531.7</v>
       </c>
-      <c r="G60" s="60">
+      <c r="G60" s="61">
         <v>1.68</v>
       </c>
-      <c r="H60" s="33">
+      <c r="H60" s="34">
         <v>28.71</v>
       </c>
-      <c r="I60" s="33">
+      <c r="I60" s="34">
         <v>116.36</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="27">
+      <c r="A61" s="28">
         <v>44774.0</v>
       </c>
-      <c r="B61" s="56">
+      <c r="B61" s="57">
         <v>62.3</v>
       </c>
-      <c r="C61" s="57">
+      <c r="C61" s="58">
         <v>-1.670591292575045</v>
       </c>
-      <c r="D61" s="28">
+      <c r="D61" s="29">
         <v>-6.73896</v>
       </c>
-      <c r="E61" s="58">
+      <c r="E61" s="59">
         <v>295.162</v>
       </c>
-      <c r="F61" s="59">
+      <c r="F61" s="60">
         <v>20434.9</v>
       </c>
-      <c r="G61" s="60">
+      <c r="G61" s="61">
         <v>2.33</v>
       </c>
-      <c r="H61" s="33">
+      <c r="H61" s="34">
         <v>21.33</v>
       </c>
-      <c r="I61" s="33">
+      <c r="I61" s="34">
         <v>124.84</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="27">
+      <c r="A62" s="28">
         <v>44805.0</v>
       </c>
-      <c r="B62" s="56">
+      <c r="B62" s="57">
         <v>62.3</v>
       </c>
-      <c r="C62" s="57">
+      <c r="C62" s="58">
         <v>-1.899579714715777</v>
       </c>
-      <c r="D62" s="28">
+      <c r="D62" s="29">
         <v>-7.36595</v>
       </c>
-      <c r="E62" s="58">
+      <c r="E62" s="59">
         <v>296.421</v>
       </c>
-      <c r="F62" s="59">
+      <c r="F62" s="60">
         <v>20281.0</v>
       </c>
-      <c r="G62" s="60">
+      <c r="G62" s="61">
         <v>2.56</v>
       </c>
-      <c r="H62" s="33">
+      <c r="H62" s="34">
         <v>25.87</v>
       </c>
-      <c r="I62" s="33">
+      <c r="I62" s="34">
         <v>141.89</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="27">
+      <c r="A63" s="28">
         <v>44835.0</v>
       </c>
-      <c r="B63" s="56">
+      <c r="B63" s="57">
         <v>62.2</v>
       </c>
-      <c r="C63" s="57">
+      <c r="C63" s="58">
         <v>-1.818175136889399</v>
       </c>
-      <c r="D63" s="28">
+      <c r="D63" s="29">
         <v>-6.43807</v>
       </c>
-      <c r="E63" s="58">
+      <c r="E63" s="59">
         <v>297.979</v>
       </c>
-      <c r="F63" s="59">
+      <c r="F63" s="60">
         <v>20092.3</v>
       </c>
-      <c r="G63" s="60">
+      <c r="G63" s="61">
         <v>3.08</v>
       </c>
-      <c r="H63" s="33">
+      <c r="H63" s="34">
         <v>31.62</v>
       </c>
-      <c r="I63" s="33">
+      <c r="I63" s="34">
         <v>147.92</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="27">
+      <c r="A64" s="28">
         <v>44866.0</v>
       </c>
-      <c r="B64" s="56">
+      <c r="B64" s="57">
         <v>62.1</v>
       </c>
-      <c r="C64" s="57">
+      <c r="C64" s="58">
         <v>-2.45122433422869</v>
       </c>
-      <c r="D64" s="28">
+      <c r="D64" s="29">
         <v>-6.63107</v>
       </c>
-      <c r="E64" s="58">
+      <c r="E64" s="59">
         <v>298.708</v>
       </c>
-      <c r="F64" s="59">
+      <c r="F64" s="60">
         <v>19922.5</v>
       </c>
-      <c r="G64" s="60">
+      <c r="G64" s="61">
         <v>3.78</v>
       </c>
-      <c r="H64" s="33">
+      <c r="H64" s="34">
         <v>25.88</v>
       </c>
-      <c r="I64" s="33">
+      <c r="I64" s="34">
         <v>127.27</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="27">
+      <c r="A65" s="28">
         <v>44896.0</v>
       </c>
-      <c r="B65" s="56">
+      <c r="B65" s="57">
         <v>62.3</v>
       </c>
-      <c r="C65" s="57">
+      <c r="C65" s="58">
         <v>-1.330309266271223</v>
       </c>
-      <c r="D65" s="28">
+      <c r="D65" s="29">
         <v>-4.44252</v>
       </c>
-      <c r="E65" s="58">
+      <c r="E65" s="59">
         <v>298.808</v>
       </c>
-      <c r="F65" s="59">
+      <c r="F65" s="60">
         <v>19671.3</v>
       </c>
-      <c r="G65" s="60">
+      <c r="G65" s="61">
         <v>4.1</v>
       </c>
-      <c r="H65" s="33">
+      <c r="H65" s="34">
         <v>20.58</v>
       </c>
-      <c r="I65" s="33">
+      <c r="I65" s="34">
         <v>121.61</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="27">
+      <c r="A66" s="28">
         <v>44927.0</v>
       </c>
-      <c r="B66" s="56">
+      <c r="B66" s="57">
         <v>62.4</v>
       </c>
-      <c r="C66" s="57">
+      <c r="C66" s="58">
         <v>-2.716113967438609</v>
       </c>
-      <c r="D66" s="28">
+      <c r="D66" s="29">
         <v>-5.99033</v>
       </c>
-      <c r="E66" s="58">
+      <c r="E66" s="59">
         <v>300.456</v>
       </c>
-      <c r="F66" s="59">
+      <c r="F66" s="60">
         <v>19527.5</v>
       </c>
-      <c r="G66" s="60">
+      <c r="G66" s="61">
         <v>4.33</v>
       </c>
-      <c r="H66" s="33">
+      <c r="H66" s="34">
         <v>21.67</v>
       </c>
-      <c r="I66" s="33">
+      <c r="I66" s="34">
         <v>99.54</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="27">
+      <c r="A67" s="28">
         <v>44958.0</v>
       </c>
-      <c r="B67" s="56">
+      <c r="B67" s="57">
         <v>62.5</v>
       </c>
-      <c r="C67" s="57">
+      <c r="C67" s="58">
         <v>-1.881206477820628</v>
       </c>
-      <c r="D67" s="28">
+      <c r="D67" s="29">
         <v>-6.04387</v>
       </c>
-      <c r="E67" s="58">
+      <c r="E67" s="59">
         <v>301.476</v>
       </c>
-      <c r="F67" s="59">
+      <c r="F67" s="60">
         <v>19385.5</v>
       </c>
-      <c r="G67" s="60">
+      <c r="G67" s="61">
         <v>4.57</v>
       </c>
-      <c r="H67" s="33">
+      <c r="H67" s="34">
         <v>19.4</v>
       </c>
-      <c r="I67" s="33">
+      <c r="I67" s="34">
         <v>123.6</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="27">
+      <c r="A68" s="28">
         <v>44986.0</v>
       </c>
-      <c r="B68" s="56">
+      <c r="B68" s="57">
         <v>62.6</v>
       </c>
-      <c r="C68" s="57">
+      <c r="C68" s="58">
         <v>-2.081699037920222</v>
       </c>
-      <c r="D68" s="28">
+      <c r="D68" s="29">
         <v>-6.04913</v>
       </c>
-      <c r="E68" s="58">
+      <c r="E68" s="59">
         <v>301.643</v>
       </c>
-      <c r="F68" s="59">
+      <c r="F68" s="60">
         <v>18925.5</v>
       </c>
-      <c r="G68" s="60">
+      <c r="G68" s="61">
         <v>4.65</v>
       </c>
-      <c r="H68" s="33">
+      <c r="H68" s="34">
         <v>20.7</v>
       </c>
-      <c r="I68" s="33">
+      <c r="I68" s="34">
         <v>135.93</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="27">
+      <c r="A69" s="28">
         <v>45017.0</v>
       </c>
-      <c r="B69" s="56">
+      <c r="B69" s="57">
         <v>62.6</v>
       </c>
-      <c r="C69" s="57">
+      <c r="C69" s="58">
         <v>-1.598381173558018</v>
       </c>
-      <c r="D69" s="28">
+      <c r="D69" s="29">
         <v>-4.44364</v>
       </c>
-      <c r="E69" s="58">
+      <c r="E69" s="59">
         <v>302.858</v>
       </c>
-      <c r="F69" s="59">
+      <c r="F69" s="60">
         <v>18615.3</v>
       </c>
-      <c r="G69" s="60">
+      <c r="G69" s="61">
         <v>4.83</v>
       </c>
-      <c r="H69" s="33">
+      <c r="H69" s="34">
         <v>18.7</v>
       </c>
-      <c r="I69" s="33">
+      <c r="I69" s="34">
         <v>122.46</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="27">
+      <c r="A70" s="28">
         <v>45047.0</v>
       </c>
-      <c r="B70" s="56">
+      <c r="B70" s="57">
         <v>62.6</v>
       </c>
-      <c r="C70" s="57">
+      <c r="C70" s="58">
         <v>-2.189837426918237</v>
       </c>
-      <c r="D70" s="28">
+      <c r="D70" s="29">
         <v>-6.06211</v>
       </c>
-      <c r="E70" s="58">
+      <c r="E70" s="59">
         <v>303.316</v>
       </c>
-      <c r="F70" s="59">
+      <c r="F70" s="60">
         <v>18549.0</v>
       </c>
-      <c r="G70" s="60">
+      <c r="G70" s="61">
         <v>5.06</v>
       </c>
-      <c r="H70" s="33">
+      <c r="H70" s="34">
         <v>15.78</v>
       </c>
-      <c r="I70" s="33">
+      <c r="I70" s="34">
         <v>136.02</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="27">
+      <c r="A71" s="28">
         <v>45078.0</v>
       </c>
-      <c r="B71" s="56">
+      <c r="B71" s="57">
         <v>62.6</v>
       </c>
-      <c r="C71" s="57">
+      <c r="C71" s="58">
         <v>-2.131353215425466</v>
       </c>
-      <c r="D71" s="28">
+      <c r="D71" s="29">
         <v>-5.89627</v>
       </c>
-      <c r="E71" s="58">
+      <c r="E71" s="59">
         <v>304.099</v>
       </c>
-      <c r="F71" s="59">
+      <c r="F71" s="60">
         <v>18434.6</v>
       </c>
-      <c r="G71" s="60">
+      <c r="G71" s="61">
         <v>5.08</v>
       </c>
-      <c r="H71" s="33">
+      <c r="H71" s="34">
         <v>17.94</v>
       </c>
-      <c r="I71" s="33">
+      <c r="I71" s="34">
         <v>110.64</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="27">
+      <c r="A72" s="28">
         <v>45108.0</v>
       </c>
-      <c r="B72" s="56">
+      <c r="B72" s="57">
         <v>62.6</v>
       </c>
-      <c r="C72" s="57">
+      <c r="C72" s="58">
         <v>-1.969862003002635</v>
       </c>
-      <c r="D72" s="28">
+      <c r="D72" s="29">
         <v>-6.30921</v>
       </c>
-      <c r="E72" s="58">
+      <c r="E72" s="59">
         <v>304.615</v>
       </c>
-      <c r="F72" s="59">
+      <c r="F72" s="60">
         <v>18342.0</v>
       </c>
-      <c r="G72" s="60">
+      <c r="G72" s="61">
         <v>5.12</v>
       </c>
-      <c r="H72" s="33">
+      <c r="H72" s="34">
         <v>13.59</v>
       </c>
-      <c r="I72" s="33">
+      <c r="I72" s="34">
         <v>112.03</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="27">
+      <c r="A73" s="28">
         <v>45139.0</v>
       </c>
-      <c r="B73" s="56">
+      <c r="B73" s="57">
         <v>62.8</v>
       </c>
-      <c r="C73" s="57">
+      <c r="C73" s="58">
         <v>-2.586128917826219</v>
       </c>
-      <c r="D73" s="28">
+      <c r="D73" s="29">
         <v>-5.97555</v>
       </c>
-      <c r="E73" s="58">
+      <c r="E73" s="59">
         <v>306.138</v>
       </c>
-      <c r="F73" s="59">
+      <c r="F73" s="60">
         <v>18226.0</v>
       </c>
-      <c r="G73" s="60">
+      <c r="G73" s="61">
         <v>5.33</v>
       </c>
-      <c r="H73" s="33">
+      <c r="H73" s="34">
         <v>13.63</v>
       </c>
-      <c r="I73" s="33">
+      <c r="I73" s="34">
         <v>107.93</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="27">
+      <c r="A74" s="28">
         <v>45170.0</v>
       </c>
-      <c r="B74" s="56">
+      <c r="B74" s="57">
         <v>62.7</v>
       </c>
-      <c r="C74" s="57">
+      <c r="C74" s="58">
         <v>-2.126175742927716</v>
       </c>
-      <c r="D74" s="28">
+      <c r="D74" s="29">
         <v>-5.40412</v>
       </c>
-      <c r="E74" s="58">
+      <c r="E74" s="59">
         <v>307.374</v>
       </c>
-      <c r="F74" s="59">
+      <c r="F74" s="60">
         <v>18124.5</v>
       </c>
-      <c r="G74" s="60">
+      <c r="G74" s="61">
         <v>5.33</v>
       </c>
-      <c r="H74" s="33">
+      <c r="H74" s="34">
         <v>13.57</v>
       </c>
-      <c r="I74" s="33">
+      <c r="I74" s="34">
         <v>113.55</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="27">
+      <c r="A75" s="28">
         <v>45200.0</v>
       </c>
-      <c r="B75" s="56">
+      <c r="B75" s="57">
         <v>62.7</v>
       </c>
-      <c r="C75" s="57">
+      <c r="C75" s="58">
         <v>-2.647347762028213</v>
       </c>
-      <c r="D75" s="28">
+      <c r="D75" s="29">
         <v>-6.42973</v>
       </c>
-      <c r="E75" s="58">
+      <c r="E75" s="59">
         <v>307.653</v>
       </c>
-      <c r="F75" s="59">
+      <c r="F75" s="60">
         <v>18022.8</v>
       </c>
-      <c r="G75" s="60">
+      <c r="G75" s="61">
         <v>5.33</v>
       </c>
-      <c r="H75" s="33">
+      <c r="H75" s="34">
         <v>17.52</v>
       </c>
-      <c r="I75" s="33">
+      <c r="I75" s="34">
         <v>126.86</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="27">
+      <c r="A76" s="28">
         <v>45231.0</v>
       </c>
-      <c r="B76" s="56">
+      <c r="B76" s="57">
         <v>62.8</v>
       </c>
-      <c r="C76" s="57">
+      <c r="C76" s="58">
         <v>-2.113240699318123</v>
       </c>
-      <c r="D76" s="28">
+      <c r="D76" s="29">
         <v>-6.67292</v>
       </c>
-      <c r="E76" s="58">
+      <c r="E76" s="59">
         <v>308.087</v>
       </c>
-      <c r="F76" s="59">
+      <c r="F76" s="60">
         <v>17957.7</v>
       </c>
-      <c r="G76" s="60">
+      <c r="G76" s="61">
         <v>5.33</v>
       </c>
-      <c r="H76" s="33">
+      <c r="H76" s="34">
         <v>18.14</v>
       </c>
-      <c r="I76" s="33">
+      <c r="I76" s="34">
         <v>115.32</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="27">
+      <c r="A77" s="28">
         <v>45261.0</v>
       </c>
-      <c r="B77" s="56">
+      <c r="B77" s="57">
         <v>62.5</v>
       </c>
-      <c r="C77" s="57">
+      <c r="C77" s="58">
         <v>-2.253706068055788</v>
       </c>
-      <c r="D77" s="28">
+      <c r="D77" s="29">
         <v>-6.43814</v>
       </c>
-      <c r="E77" s="58">
+      <c r="E77" s="59">
         <v>308.735</v>
       </c>
-      <c r="F77" s="59">
+      <c r="F77" s="60">
         <v>17915.1</v>
       </c>
-      <c r="G77" s="60">
+      <c r="G77" s="61">
         <v>5.33</v>
       </c>
-      <c r="H77" s="33">
+      <c r="H77" s="34">
         <v>12.92</v>
       </c>
-      <c r="I77" s="33">
+      <c r="I77" s="34">
         <v>114.62</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="27">
+      <c r="A78" s="28">
         <v>45292.0</v>
       </c>
-      <c r="B78" s="56">
+      <c r="B78" s="57">
         <v>62.5</v>
       </c>
-      <c r="C78" s="57">
+      <c r="C78" s="58">
         <v>-2.048554057103743</v>
       </c>
-      <c r="D78" s="28">
+      <c r="D78" s="29">
         <v>-6.12243</v>
       </c>
-      <c r="E78" s="58">
+      <c r="E78" s="59">
         <v>309.794</v>
       </c>
-      <c r="F78" s="59">
+      <c r="F78" s="60">
         <v>17943.1</v>
       </c>
-      <c r="G78" s="60">
+      <c r="G78" s="61">
         <v>5.33</v>
       </c>
-      <c r="H78" s="33">
+      <c r="H78" s="34">
         <v>12.45</v>
       </c>
-      <c r="I78" s="33">
+      <c r="I78" s="34">
         <v>107.28</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="27">
+      <c r="A79" s="28">
         <v>45323.0</v>
       </c>
-      <c r="B79" s="56">
+      <c r="B79" s="57">
         <v>62.6</v>
       </c>
-      <c r="C79" s="57">
+      <c r="C79" s="58">
         <v>-1.860138329820513</v>
       </c>
-      <c r="D79" s="28">
+      <c r="D79" s="29">
         <v>-5.73109</v>
       </c>
-      <c r="E79" s="58">
+      <c r="E79" s="59">
         <v>311.022</v>
       </c>
-      <c r="F79" s="59">
+      <c r="F79" s="60">
         <v>17983.8</v>
       </c>
-      <c r="G79" s="60">
+      <c r="G79" s="61">
         <v>5.33</v>
       </c>
-      <c r="H79" s="33">
+      <c r="H79" s="34">
         <v>14.35</v>
       </c>
-      <c r="I79" s="33">
+      <c r="I79" s="34">
         <v>109.1</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="27">
+      <c r="A80" s="28">
         <v>45352.0</v>
       </c>
-      <c r="B80" s="56">
+      <c r="B80" s="57">
         <v>62.7</v>
       </c>
-      <c r="C80" s="57">
+      <c r="C80" s="58">
         <v>-2.038099205158448</v>
       </c>
-      <c r="D80" s="28">
+      <c r="D80" s="29">
         <v>-6.09295</v>
       </c>
-      <c r="E80" s="58">
+      <c r="E80" s="59">
         <v>312.107</v>
       </c>
-      <c r="F80" s="59">
+      <c r="F80" s="60">
         <v>17980.5</v>
       </c>
-      <c r="G80" s="60">
+      <c r="G80" s="61">
         <v>5.33</v>
       </c>
-      <c r="H80" s="33">
+      <c r="H80" s="34">
         <v>13.4</v>
       </c>
-      <c r="I80" s="33">
+      <c r="I80" s="34">
         <v>86.38</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="27">
+      <c r="A81" s="28">
         <v>45383.0</v>
       </c>
-      <c r="B81" s="56">
+      <c r="B81" s="57">
         <v>62.7</v>
       </c>
-      <c r="C81" s="57">
+      <c r="C81" s="58">
         <v>-1.673689949923028</v>
       </c>
-      <c r="D81" s="28">
+      <c r="D81" s="29">
         <v>-5.72493</v>
       </c>
-      <c r="E81" s="58">
+      <c r="E81" s="59">
         <v>313.016</v>
       </c>
-      <c r="F81" s="59">
+      <c r="F81" s="60">
         <v>17973.8</v>
       </c>
-      <c r="G81" s="60">
+      <c r="G81" s="61">
         <v>5.33</v>
       </c>
-      <c r="H81" s="33">
+      <c r="H81" s="34">
         <v>13.01</v>
       </c>
-      <c r="I81" s="33">
+      <c r="I81" s="34">
         <v>107.46</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="27">
+      <c r="A82" s="28">
         <v>45413.0</v>
       </c>
-      <c r="B82" s="56">
+      <c r="B82" s="57">
         <v>62.6</v>
       </c>
-      <c r="C82" s="57">
+      <c r="C82" s="58">
         <v>-1.819876536209673</v>
       </c>
-      <c r="D82" s="28">
+      <c r="D82" s="29">
         <v>-5.75082</v>
       </c>
-      <c r="E82" s="58">
+      <c r="E82" s="59">
         <v>313.14</v>
       </c>
-      <c r="F82" s="59">
+      <c r="F82" s="60">
         <v>18002.6</v>
       </c>
-      <c r="G82" s="60">
+      <c r="G82" s="61">
         <v>5.33</v>
       </c>
-      <c r="H82" s="33">
+      <c r="H82" s="34">
         <v>15.65</v>
       </c>
-      <c r="I82" s="33">
+      <c r="I82" s="34">
         <v>91.14</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="27">
+      <c r="A83" s="28">
         <v>45444.0</v>
       </c>
-      <c r="B83" s="56">
+      <c r="B83" s="57">
         <v>62.6</v>
       </c>
-      <c r="C83" s="57">
+      <c r="C83" s="58">
         <v>-1.925157914946942</v>
       </c>
-      <c r="D83" s="28">
+      <c r="D83" s="29">
         <v>-5.85593</v>
       </c>
-      <c r="E83" s="58">
+      <c r="E83" s="59">
         <v>313.131</v>
       </c>
-      <c r="F83" s="59">
+      <c r="F83" s="60">
         <v>18038.8</v>
       </c>
-      <c r="G83" s="60">
+      <c r="G83" s="61">
         <v>5.33</v>
       </c>
-      <c r="H83" s="33">
+      <c r="H83" s="34">
         <v>12.92</v>
       </c>
-      <c r="I83" s="33">
+      <c r="I83" s="34">
         <v>98.59</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="27">
+      <c r="A84" s="28">
         <v>45474.0</v>
       </c>
-      <c r="B84" s="56">
+      <c r="B84" s="57">
         <v>62.7</v>
       </c>
-      <c r="C84" s="57">
+      <c r="C84" s="58">
         <v>-2.225638457027193</v>
       </c>
-      <c r="D84" s="28">
+      <c r="D84" s="29">
         <v>-6.41977</v>
       </c>
-      <c r="E84" s="58">
+      <c r="E84" s="59">
         <v>313.566</v>
       </c>
-      <c r="F84" s="59">
+      <c r="F84" s="60">
         <v>18036.6</v>
       </c>
-      <c r="G84" s="60">
+      <c r="G84" s="61">
         <v>5.33</v>
       </c>
-      <c r="H84" s="33">
+      <c r="H84" s="34">
         <v>12.44</v>
       </c>
-      <c r="I84" s="33">
+      <c r="I84" s="34">
         <v>99.41</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="27">
+      <c r="A85" s="28">
         <v>45505.0</v>
       </c>
-      <c r="B85" s="56">
+      <c r="B85" s="57">
         <v>62.7</v>
       </c>
-      <c r="C85" s="57">
+      <c r="C85" s="58">
         <v>-2.038295700659982</v>
       </c>
-      <c r="D85" s="28">
+      <c r="D85" s="29">
         <v>-5.37411</v>
       </c>
-      <c r="E85" s="58">
+      <c r="E85" s="59">
         <v>314.131</v>
       </c>
-      <c r="F85" s="59">
+      <c r="F85" s="60">
         <v>18090.9</v>
       </c>
-      <c r="G85" s="60">
+      <c r="G85" s="61">
         <v>5.33</v>
       </c>
-      <c r="H85" s="33">
+      <c r="H85" s="34">
         <v>16.36</v>
       </c>
-      <c r="I85" s="33">
+      <c r="I85" s="34">
         <v>107.77</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="27">
+      <c r="A86" s="28">
         <v>45536.0</v>
       </c>
-      <c r="B86" s="56">
+      <c r="B86" s="57">
         <v>62.7</v>
       </c>
-      <c r="C86" s="57">
+      <c r="C86" s="58">
         <v>-1.726685076093571</v>
       </c>
-      <c r="D86" s="28">
+      <c r="D86" s="29">
         <v>-6.16594</v>
       </c>
-      <c r="E86" s="58">
+      <c r="E86" s="59">
         <v>314.851</v>
       </c>
-      <c r="F86" s="59">
+      <c r="F86" s="60">
         <v>18156.6</v>
       </c>
-      <c r="G86" s="60">
+      <c r="G86" s="61">
         <v>5.13</v>
       </c>
-      <c r="H86" s="33">
+      <c r="H86" s="34">
         <v>15.0</v>
       </c>
-      <c r="I86" s="33">
+      <c r="I86" s="34">
         <v>94.61</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="27">
+      <c r="A87" s="28">
         <v>45566.0</v>
       </c>
-      <c r="B87" s="56">
+      <c r="B87" s="57">
         <v>62.5</v>
       </c>
-      <c r="C87" s="57">
+      <c r="C87" s="58">
         <v>-2.061092459273302</v>
       </c>
-      <c r="D87" s="28">
+      <c r="D87" s="29">
         <v>-6.17527</v>
       </c>
-      <c r="E87" s="58">
+      <c r="E87" s="59">
         <v>315.564</v>
       </c>
-      <c r="F87" s="59">
+      <c r="F87" s="60">
         <v>18214.9</v>
       </c>
-      <c r="G87" s="60">
+      <c r="G87" s="61">
         <v>4.83</v>
       </c>
-      <c r="H87" s="33">
+      <c r="H87" s="34">
         <v>16.73</v>
       </c>
-      <c r="I87" s="33">
+      <c r="I87" s="34">
         <v>135.18</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="27">
+      <c r="A88" s="28">
         <v>45597.0</v>
       </c>
-      <c r="B88" s="56">
+      <c r="B88" s="57">
         <v>62.5</v>
       </c>
-      <c r="C88" s="57">
+      <c r="C88" s="58">
         <v>-2.055975347259586</v>
       </c>
-      <c r="D88" s="28">
+      <c r="D88" s="29">
         <v>-5.84057</v>
       </c>
-      <c r="E88" s="58">
+      <c r="E88" s="59">
         <v>316.449</v>
       </c>
-      <c r="F88" s="59">
+      <c r="F88" s="60">
         <v>18327.6</v>
       </c>
-      <c r="G88" s="60">
+      <c r="G88" s="61">
         <v>4.64</v>
       </c>
-      <c r="H88" s="33">
+      <c r="H88" s="34">
         <v>23.16</v>
       </c>
-      <c r="I88" s="33">
+      <c r="I88" s="34">
         <v>95.22</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="27">
+      <c r="A89" s="28">
         <v>45627.0</v>
       </c>
-      <c r="B89" s="56">
+      <c r="B89" s="57">
         <v>62.5</v>
       </c>
-      <c r="C89" s="57">
+      <c r="C89" s="58">
         <v>-1.715366755310022</v>
       </c>
-      <c r="D89" s="28">
+      <c r="D89" s="29">
         <v>-5.76697</v>
       </c>
-      <c r="E89" s="58">
+      <c r="E89" s="59">
         <v>317.603</v>
       </c>
-      <c r="F89" s="59">
+      <c r="F89" s="60">
         <v>18358.8</v>
       </c>
-      <c r="G89" s="60">
+      <c r="G89" s="61">
         <v>4.48</v>
       </c>
-      <c r="H89" s="33">
+      <c r="H89" s="34">
         <v>13.51</v>
       </c>
-      <c r="I89" s="33">
+      <c r="I89" s="34">
         <v>98.8</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="27">
+      <c r="A90" s="28">
         <v>45658.0</v>
       </c>
-      <c r="B90" s="56">
+      <c r="B90" s="57">
         <v>62.6</v>
       </c>
-      <c r="C90" s="57">
+      <c r="C90" s="58">
         <v>-2.085228280815818</v>
       </c>
-      <c r="D90" s="28">
+      <c r="D90" s="29">
         <v>-6.16596</v>
       </c>
-      <c r="E90" s="58">
+      <c r="E90" s="59">
         <v>319.086</v>
       </c>
-      <c r="F90" s="59">
+      <c r="F90" s="60">
         <v>18444.3</v>
       </c>
-      <c r="G90" s="60">
+      <c r="G90" s="61">
         <v>4.33</v>
       </c>
-      <c r="H90" s="33">
+      <c r="H90" s="34">
         <v>17.35</v>
       </c>
-      <c r="I90" s="33">
+      <c r="I90" s="34">
         <v>91.76</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="27"/>
-      <c r="B91" s="56"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
-      <c r="H91" s="33"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="57"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="57"/>
+      <c r="H91" s="34"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="27"/>
-      <c r="B92" s="56"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="57"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="57"/>
     </row>
     <row r="93" ht="15.75" customHeight="1"/>
     <row r="94" ht="15.75" customHeight="1"/>

--- a/data/Monthly Mastersheet.xlsx
+++ b/data/Monthly Mastersheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianyishen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianyishen/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94C220E-8995-C343-9467-CB963E1C86E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33362558-34B2-4F49-BB08-F8F67A353CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Bitcoin</t>
   </si>
@@ -491,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AJ90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -600,8 +600,14 @@
       <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42979</v>
       </c>
@@ -668,8 +674,14 @@
       <c r="AF2">
         <v>-18663.045363235989</v>
       </c>
+      <c r="AI2">
+        <v>6067.6982976273484</v>
+      </c>
+      <c r="AJ2">
+        <v>-18663.045363235989</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43009</v>
       </c>
@@ -736,8 +748,14 @@
       <c r="AF3">
         <v>-18689.272033350859</v>
       </c>
+      <c r="AI3">
+        <v>6152.0139159019582</v>
+      </c>
+      <c r="AJ3">
+        <v>-18689.272033350859</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43040</v>
       </c>
@@ -804,8 +822,14 @@
       <c r="AF4">
         <v>-18828.738277465389</v>
       </c>
+      <c r="AI4">
+        <v>6143.4213030997707</v>
+      </c>
+      <c r="AJ4">
+        <v>-18828.738277465389</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43070</v>
       </c>
@@ -872,8 +896,14 @@
       <c r="AF5">
         <v>-18878.593242557268</v>
       </c>
+      <c r="AI5">
+        <v>6193.5293759723936</v>
+      </c>
+      <c r="AJ5">
+        <v>-18878.593242557268</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43101</v>
       </c>
@@ -940,8 +970,14 @@
       <c r="AF6">
         <v>-18931.069454548258</v>
       </c>
+      <c r="AI6">
+        <v>6243.1977775654659</v>
+      </c>
+      <c r="AJ6">
+        <v>-18931.069454548258</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43132</v>
       </c>
@@ -1017,8 +1053,14 @@
       <c r="AH7">
         <v>0.69513919930678969</v>
       </c>
+      <c r="AI7">
+        <v>6149.4499559375226</v>
+      </c>
+      <c r="AJ7">
+        <v>-19021.981822929531</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43160</v>
       </c>
@@ -1094,8 +1136,14 @@
       <c r="AH8">
         <v>0.63927494473862989</v>
       </c>
+      <c r="AI8">
+        <v>6228.979246561421</v>
+      </c>
+      <c r="AJ8">
+        <v>-18957.80113556156</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43191</v>
       </c>
@@ -1171,8 +1219,14 @@
       <c r="AH9">
         <v>0.50098847876597907</v>
       </c>
+      <c r="AI9">
+        <v>6309.4964355597367</v>
+      </c>
+      <c r="AJ9">
+        <v>-19013.606967183179</v>
+      </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43221</v>
       </c>
@@ -1248,8 +1302,14 @@
       <c r="AH10">
         <v>0.66696769061145011</v>
       </c>
+      <c r="AI10">
+        <v>6225.6629190925269</v>
+      </c>
+      <c r="AJ10">
+        <v>-19110.55013214767</v>
+      </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43252</v>
       </c>
@@ -1325,8 +1385,14 @@
       <c r="AH11">
         <v>0.75985697200250979</v>
       </c>
+      <c r="AI11">
+        <v>6238.2806218549331</v>
+      </c>
+      <c r="AJ11">
+        <v>-19106.882795022429</v>
+      </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43282</v>
       </c>
@@ -1402,8 +1468,14 @@
       <c r="AH12">
         <v>0.7351609440187733</v>
       </c>
+      <c r="AI12">
+        <v>6302.6364876139678</v>
+      </c>
+      <c r="AJ12">
+        <v>-19177.51005511668</v>
+      </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43313</v>
       </c>
@@ -1503,8 +1575,14 @@
       <c r="AH13">
         <v>1.222581111621023</v>
       </c>
+      <c r="AI13">
+        <v>6272.2977047905924</v>
+      </c>
+      <c r="AJ13">
+        <v>-19210.99471661339</v>
+      </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43344</v>
       </c>
@@ -1604,8 +1682,14 @@
       <c r="AH14">
         <v>1.21168818638352</v>
       </c>
+      <c r="AI14">
+        <v>6283.7868905164269</v>
+      </c>
+      <c r="AJ14">
+        <v>-19194.681165467471</v>
+      </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43374</v>
       </c>
@@ -1705,8 +1789,14 @@
       <c r="AH15">
         <v>1.0412906797666159</v>
       </c>
+      <c r="AI15">
+        <v>6333.8102563120483</v>
+      </c>
+      <c r="AJ15">
+        <v>-19199.459063301689</v>
+      </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43405</v>
       </c>
@@ -1806,8 +1896,14 @@
       <c r="AH16">
         <v>1.1622393564132669</v>
       </c>
+      <c r="AI16">
+        <v>6273.8021577666514</v>
+      </c>
+      <c r="AJ16">
+        <v>-19227.043080243278</v>
+      </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43435</v>
       </c>
@@ -1907,8 +2003,14 @@
       <c r="AH17">
         <v>0.36142586409146982</v>
       </c>
+      <c r="AI17">
+        <v>6425.7913271809884</v>
+      </c>
+      <c r="AJ17">
+        <v>-19231.571439959949</v>
+      </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43466</v>
       </c>
@@ -2011,8 +2113,14 @@
       <c r="AH18">
         <v>0.27953866868116672</v>
       </c>
+      <c r="AI18">
+        <v>6352.8914714864704</v>
+      </c>
+      <c r="AJ18">
+        <v>-19327.522646156722</v>
+      </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43497</v>
       </c>
@@ -2115,8 +2223,14 @@
       <c r="AH19">
         <v>0.14064436052754969</v>
       </c>
+      <c r="AI19">
+        <v>6328.9858776967376</v>
+      </c>
+      <c r="AJ19">
+        <v>-19287.008049350501</v>
+      </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43525</v>
       </c>
@@ -2219,8 +2333,14 @@
       <c r="AH20">
         <v>0.32423672889485822</v>
       </c>
+      <c r="AI20">
+        <v>6352.3890109648528</v>
+      </c>
+      <c r="AJ20">
+        <v>-19344.606256794421</v>
+      </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43556</v>
       </c>
@@ -2323,8 +2443,14 @@
       <c r="AH21">
         <v>0.46782093003803282</v>
       </c>
+      <c r="AI21">
+        <v>6478.9960270987895</v>
+      </c>
+      <c r="AJ21">
+        <v>-19402.689817221632</v>
+      </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43586</v>
       </c>
@@ -2427,8 +2553,14 @@
       <c r="AH22">
         <v>0.95880376422001556</v>
       </c>
+      <c r="AI22">
+        <v>6402.2694443316377</v>
+      </c>
+      <c r="AJ22">
+        <v>-19453.45879757042</v>
+      </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43617</v>
       </c>
@@ -2531,8 +2663,14 @@
       <c r="AH23">
         <v>0.44725194785326072</v>
       </c>
+      <c r="AI23">
+        <v>6481.5089274322909</v>
+      </c>
+      <c r="AJ23">
+        <v>-19559.217646683981</v>
+      </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43647</v>
       </c>
@@ -2635,8 +2773,14 @@
       <c r="AH24">
         <v>6.2361471592595849E-2</v>
       </c>
+      <c r="AI24">
+        <v>6539.1583429472439</v>
+      </c>
+      <c r="AJ24">
+        <v>-19626.077145532068</v>
+      </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43678</v>
       </c>
@@ -2739,8 +2883,14 @@
       <c r="AH25">
         <v>0.70579391357463617</v>
       </c>
+      <c r="AI25">
+        <v>6503.5382571930604</v>
+      </c>
+      <c r="AJ25">
+        <v>-19656.276384380169</v>
+      </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43709</v>
       </c>
@@ -2843,8 +2993,14 @@
       <c r="AH26">
         <v>0.51046067853253052</v>
       </c>
+      <c r="AI26">
+        <v>6577.2533139688094</v>
+      </c>
+      <c r="AJ26">
+        <v>-19681.776616120282</v>
+      </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43739</v>
       </c>
@@ -2947,8 +3103,14 @@
       <c r="AH27">
         <v>0.81236119936591367</v>
       </c>
+      <c r="AI27">
+        <v>6572.0874075941911</v>
+      </c>
+      <c r="AJ27">
+        <v>-19678.725699625389</v>
+      </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43770</v>
       </c>
@@ -3051,8 +3213,14 @@
       <c r="AH28">
         <v>0.62815212540924792</v>
       </c>
+      <c r="AI28">
+        <v>6605.3225922476668</v>
+      </c>
+      <c r="AJ28">
+        <v>-19789.78727393275</v>
+      </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43800</v>
       </c>
@@ -3155,8 +3323,14 @@
       <c r="AH29">
         <v>1.5921292008214769</v>
       </c>
+      <c r="AI29">
+        <v>6739.4772994061987</v>
+      </c>
+      <c r="AJ29">
+        <v>-19771.637646502018</v>
+      </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43831</v>
       </c>
@@ -3259,8 +3433,14 @@
       <c r="AH30">
         <v>0.66190083656537702</v>
       </c>
+      <c r="AI30">
+        <v>6637.7175217578388</v>
+      </c>
+      <c r="AJ30">
+        <v>-19681.836869893548</v>
+      </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43862</v>
       </c>
@@ -3363,8 +3543,14 @@
       <c r="AH31">
         <v>3.387118366876344</v>
       </c>
+      <c r="AI31">
+        <v>6633.423604639016</v>
+      </c>
+      <c r="AJ31">
+        <v>-19725.02242035513</v>
+      </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43891</v>
       </c>
@@ -3467,8 +3653,14 @@
       <c r="AH32">
         <v>0.78030699591151698</v>
       </c>
+      <c r="AI32">
+        <v>6802.1447459184355</v>
+      </c>
+      <c r="AJ32">
+        <v>-18790.442627951641</v>
+      </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43922</v>
       </c>
@@ -3571,8 +3763,14 @@
       <c r="AH33">
         <v>-9.4575226559991663E-2</v>
       </c>
+      <c r="AI33">
+        <v>7100.4518933832969</v>
+      </c>
+      <c r="AJ33">
+        <v>-16754.16552529332</v>
+      </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43952</v>
       </c>
@@ -3675,8 +3873,14 @@
       <c r="AH34">
         <v>0.48015483072056359</v>
       </c>
+      <c r="AI34">
+        <v>18392.77156862332</v>
+      </c>
+      <c r="AJ34">
+        <v>-15970.12617443722</v>
+      </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43983</v>
       </c>
@@ -3779,8 +3983,14 @@
       <c r="AH35">
         <v>0.36336360296791281</v>
       </c>
+      <c r="AI35">
+        <v>18898.159859685391</v>
+      </c>
+      <c r="AJ35">
+        <v>-16745.070827052768</v>
+      </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44013</v>
       </c>
@@ -3883,8 +4093,14 @@
       <c r="AH36">
         <v>0.63774288661647804</v>
       </c>
+      <c r="AI36">
+        <v>19224.388531274359</v>
+      </c>
+      <c r="AJ36">
+        <v>-17335.648706597989</v>
+      </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44044</v>
       </c>
@@ -3987,8 +4203,14 @@
       <c r="AH37">
         <v>1.7287633053973579</v>
       </c>
+      <c r="AI37">
+        <v>19343.986618652001</v>
+      </c>
+      <c r="AJ37">
+        <v>-17461.336191074919</v>
+      </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44075</v>
       </c>
@@ -4091,8 +4313,14 @@
       <c r="AH38">
         <v>0.81737013204221531</v>
       </c>
+      <c r="AI38">
+        <v>19648.942574136199</v>
+      </c>
+      <c r="AJ38">
+        <v>-17612.768747837381</v>
+      </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44105</v>
       </c>
@@ -4195,8 +4423,14 @@
       <c r="AH39">
         <v>0.40465515504101801</v>
       </c>
+      <c r="AI39">
+        <v>19828.763353704431</v>
+      </c>
+      <c r="AJ39">
+        <v>-17829.15051402256</v>
+      </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44136</v>
       </c>
@@ -4299,8 +4533,14 @@
       <c r="AH40">
         <v>0.2006908060245565</v>
       </c>
+      <c r="AI40">
+        <v>20123.608833005848</v>
+      </c>
+      <c r="AJ40">
+        <v>-17599.173451688919</v>
+      </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44166</v>
       </c>
@@ -4403,8 +4643,14 @@
       <c r="AH41">
         <v>0.6584713510560225</v>
       </c>
+      <c r="AI41">
+        <v>20453.988213287561</v>
+      </c>
+      <c r="AJ41">
+        <v>-17682.5696533995</v>
+      </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44197</v>
       </c>
@@ -4507,8 +4753,14 @@
       <c r="AH42">
         <v>0.73775990613938214</v>
       </c>
+      <c r="AI42">
+        <v>20645.158867623461</v>
+      </c>
+      <c r="AJ42">
+        <v>-18031.833849187169</v>
+      </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44228</v>
       </c>
@@ -4611,8 +4863,14 @@
       <c r="AH43">
         <v>1.597578269986387</v>
       </c>
+      <c r="AI43">
+        <v>20728.651121855961</v>
+      </c>
+      <c r="AJ43">
+        <v>-17749.166318029969</v>
+      </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44256</v>
       </c>
@@ -4715,8 +4973,14 @@
       <c r="AH44">
         <v>1.042133969392381</v>
       </c>
+      <c r="AI44">
+        <v>21214.35140101787</v>
+      </c>
+      <c r="AJ44">
+        <v>-18075.7155097248</v>
+      </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44287</v>
       </c>
@@ -4819,8 +5083,14 @@
       <c r="AH45">
         <v>0.80294359179841102</v>
       </c>
+      <c r="AI45">
+        <v>21664.6513709674</v>
+      </c>
+      <c r="AJ45">
+        <v>-18217.518670257621</v>
+      </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44317</v>
       </c>
@@ -4923,8 +5193,14 @@
       <c r="AH46">
         <v>1.7080709315477951</v>
       </c>
+      <c r="AI46">
+        <v>21739.742085584909</v>
+      </c>
+      <c r="AJ46">
+        <v>-18213.087255933151</v>
+      </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>44348</v>
       </c>
@@ -5027,8 +5303,14 @@
       <c r="AH47">
         <v>0.58548690962253747</v>
       </c>
+      <c r="AI47">
+        <v>21883.364234914949</v>
+      </c>
+      <c r="AJ47">
+        <v>-18246.498216066859</v>
+      </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44378</v>
       </c>
@@ -5131,8 +5413,14 @@
       <c r="AH48">
         <v>1.1442300473160589</v>
       </c>
+      <c r="AI48">
+        <v>22063.011016473039</v>
+      </c>
+      <c r="AJ48">
+        <v>-18383.886023922161</v>
+      </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>44409</v>
       </c>
@@ -5235,8 +5523,14 @@
       <c r="AH49">
         <v>0.95269023867037916</v>
       </c>
+      <c r="AI49">
+        <v>22270.295068397369</v>
+      </c>
+      <c r="AJ49">
+        <v>-18354.980519791821</v>
+      </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>44440</v>
       </c>
@@ -5339,8 +5633,14 @@
       <c r="AH50">
         <v>1.07829177152692</v>
       </c>
+      <c r="AI50">
+        <v>22472.787669709629</v>
+      </c>
+      <c r="AJ50">
+        <v>-18414.520007901381</v>
+      </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>44470</v>
       </c>
@@ -5443,8 +5743,14 @@
       <c r="AH51">
         <v>0.66834971397419451</v>
       </c>
+      <c r="AI51">
+        <v>22678.822563455051</v>
+      </c>
+      <c r="AJ51">
+        <v>-18763.800376986339</v>
+      </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>44501</v>
       </c>
@@ -5547,8 +5853,14 @@
       <c r="AH52">
         <v>1.2344199148499679</v>
       </c>
+      <c r="AI52">
+        <v>22914.15857083728</v>
+      </c>
+      <c r="AJ52">
+        <v>-18737.91035776474</v>
+      </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>44531</v>
       </c>
@@ -5651,8 +5963,14 @@
       <c r="AH53">
         <v>0.65541051549392781</v>
       </c>
+      <c r="AI53">
+        <v>23274.852756175522</v>
+      </c>
+      <c r="AJ53">
+        <v>-18845.228915190401</v>
+      </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>44562</v>
       </c>
@@ -5755,8 +6073,14 @@
       <c r="AH54">
         <v>0.93245549203178124</v>
       </c>
+      <c r="AI54">
+        <v>23252.81150330287</v>
+      </c>
+      <c r="AJ54">
+        <v>-18790.334340234622</v>
+      </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>44593</v>
       </c>
@@ -5859,8 +6183,14 @@
       <c r="AH55">
         <v>0.713903236891966</v>
       </c>
+      <c r="AI55">
+        <v>23215.89147042382</v>
+      </c>
+      <c r="AJ55">
+        <v>-18755.6641150137</v>
+      </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>44621</v>
       </c>
@@ -5963,8 +6293,14 @@
       <c r="AH56">
         <v>0.57085530133413664</v>
       </c>
+      <c r="AI56">
+        <v>23495.214226148441</v>
+      </c>
+      <c r="AJ56">
+        <v>-18836.790281862352</v>
+      </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>44652</v>
       </c>
@@ -6067,8 +6403,14 @@
       <c r="AH57">
         <v>0.78556320849638861</v>
       </c>
+      <c r="AI57">
+        <v>23587.533942972419</v>
+      </c>
+      <c r="AJ57">
+        <v>-18922.539102591571</v>
+      </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>44682</v>
       </c>
@@ -6171,8 +6513,14 @@
       <c r="AH58">
         <v>1.4149425217580329</v>
       </c>
+      <c r="AI58">
+        <v>23268.548735730728</v>
+      </c>
+      <c r="AJ58">
+        <v>-18954.993322130391</v>
+      </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>44713</v>
       </c>
@@ -6275,8 +6623,14 @@
       <c r="AH59">
         <v>0.65336229777322175</v>
       </c>
+      <c r="AI59">
+        <v>23251.705444071191</v>
+      </c>
+      <c r="AJ59">
+        <v>-18909.889934451239</v>
+      </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>44743</v>
       </c>
@@ -6379,8 +6733,14 @@
       <c r="AH60">
         <v>0.7134602763039799</v>
       </c>
+      <c r="AI60">
+        <v>23205.112166665709</v>
+      </c>
+      <c r="AJ60">
+        <v>-18940.604261408898</v>
+      </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>44774</v>
       </c>
@@ -6483,8 +6843,14 @@
       <c r="AH61">
         <v>0.6072620725962512</v>
       </c>
+      <c r="AI61">
+        <v>23153.90520596402</v>
+      </c>
+      <c r="AJ61">
+        <v>-19164.178065986689</v>
+      </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>44805</v>
       </c>
@@ -6587,8 +6953,14 @@
       <c r="AH62">
         <v>1.0416240127568961</v>
       </c>
+      <c r="AI62">
+        <v>22997.12437621611</v>
+      </c>
+      <c r="AJ62">
+        <v>-19093.570794072701</v>
+      </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>44835</v>
       </c>
@@ -6691,8 +7063,14 @@
       <c r="AH63">
         <v>0.66671792401072949</v>
       </c>
+      <c r="AI63">
+        <v>22809.018293312249</v>
+      </c>
+      <c r="AJ63">
+        <v>-19200.21058065999</v>
+      </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>44866</v>
       </c>
@@ -6795,8 +7173,14 @@
       <c r="AH64">
         <v>1.992203679153091</v>
       </c>
+      <c r="AI64">
+        <v>22694.034350486021</v>
+      </c>
+      <c r="AJ64">
+        <v>-19241.229641830429</v>
+      </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>44896</v>
       </c>
@@ -6899,8 +7283,14 @@
       <c r="AH65">
         <v>0.84549305695049026</v>
       </c>
+      <c r="AI65">
+        <v>22623.206840527331</v>
+      </c>
+      <c r="AJ65">
+        <v>-19259.844704048912</v>
+      </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>44927</v>
       </c>
@@ -7003,8 +7393,14 @@
       <c r="AH66">
         <v>1.497785720407887</v>
       </c>
+      <c r="AI66">
+        <v>22353.582034069659</v>
+      </c>
+      <c r="AJ66">
+        <v>-19421.547076127321</v>
+      </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>44958</v>
       </c>
@@ -7107,8 +7503,14 @@
       <c r="AH67">
         <v>0.91379915087974717</v>
       </c>
+      <c r="AI67">
+        <v>22051.479638933899</v>
+      </c>
+      <c r="AJ67">
+        <v>-19400.41351143294</v>
+      </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>44986</v>
       </c>
@@ -7211,8 +7613,14 @@
       <c r="AH68">
         <v>1.097500042427721</v>
       </c>
+      <c r="AI68">
+        <v>21852.78458165472</v>
+      </c>
+      <c r="AJ68">
+        <v>-19524.486399690741</v>
+      </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>45017</v>
       </c>
@@ -7315,8 +7723,14 @@
       <c r="AH69">
         <v>0.68547598864630199</v>
       </c>
+      <c r="AI69">
+        <v>21554.807850852481</v>
+      </c>
+      <c r="AJ69">
+        <v>-19513.809233398079</v>
+      </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>45047</v>
       </c>
@@ -7419,8 +7833,14 @@
       <c r="AH70">
         <v>1.5035600105238831</v>
       </c>
+      <c r="AI70">
+        <v>21245.2192628177</v>
+      </c>
+      <c r="AJ70">
+        <v>-19661.60855040087</v>
+      </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>45078</v>
       </c>
@@ -7523,8 +7943,14 @@
       <c r="AH71">
         <v>0.90945122167107684</v>
       </c>
+      <c r="AI71">
+        <v>21202.258947418381</v>
+      </c>
+      <c r="AJ71">
+        <v>-19691.42941941338</v>
+      </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>45108</v>
       </c>
@@ -7627,8 +8053,14 @@
       <c r="AH72">
         <v>0.87878218176931155</v>
       </c>
+      <c r="AI72">
+        <v>21117.593365559111</v>
+      </c>
+      <c r="AJ72">
+        <v>-19820.886902528899</v>
+      </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>45139</v>
       </c>
@@ -7731,8 +8163,14 @@
       <c r="AH73">
         <v>1.091249879391152</v>
       </c>
+      <c r="AI73">
+        <v>21018.99657699572</v>
+      </c>
+      <c r="AJ73">
+        <v>-19953.050571865751</v>
+      </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>45170</v>
       </c>
@@ -7835,8 +8273,14 @@
       <c r="AH74">
         <v>1.090301645252828</v>
       </c>
+      <c r="AI74">
+        <v>20936.899600270201</v>
+      </c>
+      <c r="AJ74">
+        <v>-19969.627273857652</v>
+      </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>45200</v>
       </c>
@@ -7939,8 +8383,14 @@
       <c r="AH75">
         <v>0.9826132565782717</v>
       </c>
+      <c r="AI75">
+        <v>20823.488663932789</v>
+      </c>
+      <c r="AJ75">
+        <v>-19972.62796504483</v>
+      </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>45231</v>
       </c>
@@ -8043,8 +8493,14 @@
       <c r="AH76">
         <v>1.253878361503048</v>
       </c>
+      <c r="AI76">
+        <v>20812.989407526329</v>
+      </c>
+      <c r="AJ76">
+        <v>-20096.660020525062</v>
+      </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>45261</v>
       </c>
@@ -8147,8 +8603,14 @@
       <c r="AH77">
         <v>1.2614540610906451</v>
       </c>
+      <c r="AI77">
+        <v>20944.096402637198</v>
+      </c>
+      <c r="AJ77">
+        <v>-20289.683722559901</v>
+      </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>45292</v>
       </c>
@@ -8251,8 +8713,14 @@
       <c r="AH78">
         <v>1.0147271323864819</v>
       </c>
+      <c r="AI78">
+        <v>20837.2316150226</v>
+      </c>
+      <c r="AJ78">
+        <v>-20159.675408051069</v>
+      </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>45323</v>
       </c>
@@ -8355,8 +8823,14 @@
       <c r="AH79">
         <v>1.0196012324709911</v>
       </c>
+      <c r="AI79">
+        <v>20755.723626830419</v>
+      </c>
+      <c r="AJ79">
+        <v>-20294.302953582312</v>
+      </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>45352</v>
       </c>
@@ -8459,8 +8933,14 @@
       <c r="AH80">
         <v>1.44738608879959</v>
       </c>
+      <c r="AI80">
+        <v>20931.017522296679</v>
+      </c>
+      <c r="AJ80">
+        <v>-20281.805526035201</v>
+      </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>45383</v>
       </c>
@@ -8563,8 +9043,14 @@
       <c r="AH81">
         <v>1.233584490977234</v>
       </c>
+      <c r="AI81">
+        <v>20974.84404596833</v>
+      </c>
+      <c r="AJ81">
+        <v>-20367.885670566051</v>
+      </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>45413</v>
       </c>
@@ -8667,8 +9153,14 @@
       <c r="AH82">
         <v>1.0522160156146569</v>
       </c>
+      <c r="AI82">
+        <v>20803.711308908569</v>
+      </c>
+      <c r="AJ82">
+        <v>-20466.89921579033</v>
+      </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>45444</v>
       </c>
@@ -8771,8 +9263,14 @@
       <c r="AH83">
         <v>1.408944616056562</v>
       </c>
+      <c r="AI83">
+        <v>20901.99045711683</v>
+      </c>
+      <c r="AJ83">
+        <v>-20463.846307238509</v>
+      </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>45474</v>
       </c>
@@ -8875,8 +9373,14 @@
       <c r="AH84">
         <v>1.4839509653945691</v>
       </c>
+      <c r="AI84">
+        <v>20900.491149350539</v>
+      </c>
+      <c r="AJ84">
+        <v>-20645.350208865941</v>
+      </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>45505</v>
       </c>
@@ -8979,8 +9483,14 @@
       <c r="AH85">
         <v>1.134805133582302</v>
       </c>
+      <c r="AI85">
+        <v>20967.850410626361</v>
+      </c>
+      <c r="AJ85">
+        <v>-20647.204181620611</v>
+      </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>45536</v>
       </c>
@@ -9083,8 +9593,14 @@
       <c r="AH86">
         <v>0.8428892082532472</v>
       </c>
+      <c r="AI86">
+        <v>21033.703775814949</v>
+      </c>
+      <c r="AJ86">
+        <v>-20619.577516078651</v>
+      </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>45566</v>
       </c>
@@ -9187,8 +9703,14 @@
       <c r="AH87">
         <v>1.2987488945430219</v>
       </c>
+      <c r="AI87">
+        <v>21084.004026736591</v>
+      </c>
+      <c r="AJ87">
+        <v>-20727.368974149729</v>
+      </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>45597</v>
       </c>
@@ -9291,8 +9813,14 @@
       <c r="AH88">
         <v>1.41556995626024</v>
       </c>
+      <c r="AI88">
+        <v>21263.883916715102</v>
+      </c>
+      <c r="AJ88">
+        <v>-20757.29425793824</v>
+      </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>45627</v>
       </c>
@@ -9395,8 +9923,14 @@
       <c r="AH89">
         <v>0.9830613143721445</v>
       </c>
+      <c r="AI89">
+        <v>21428.817933311209</v>
+      </c>
+      <c r="AJ89">
+        <v>-20670.448684940689</v>
+      </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>45658</v>
       </c>
@@ -9498,6 +10032,12 @@
       </c>
       <c r="AH90">
         <v>0.87296742189159271</v>
+      </c>
+      <c r="AI90">
+        <v>21426.33148968609</v>
+      </c>
+      <c r="AJ90">
+        <v>-20867.082618338129</v>
       </c>
     </row>
   </sheetData>
